--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\Darul-Huda\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\Darul-Huda\git-repo\result_password\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AE3496-0B7D-4B86-95BC-6D6397E26B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A498B1-8175-4ED5-BED8-D057DB1F4243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,13 @@
     <t>Names</t>
   </si>
   <si>
-    <t>Muhammad</t>
+    <t>GULAM GOS HABIB SHAIKH.pdf</t>
   </si>
   <si>
-    <t>Abu Bakr</t>
+    <t>NAME_HABIBA AFZAL ANSARI_MarkSheet_ency.pdf</t>
   </si>
   <si>
-    <t>Umar</t>
+    <t>NAME_INAAYA MOINUDDIN LUHAR_MarkSheet_ency.pdf</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -419,7 +419,7 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\Darul-Huda\git-repo\result_password\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A498B1-8175-4ED5-BED8-D057DB1F4243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B76C3-2389-46F7-9B06-BC53D3971C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,13 +33,13 @@
     <t>Names</t>
   </si>
   <si>
-    <t>GULAM GOS HABIB SHAIKH.pdf</t>
+    <t>GULAM GOS HABIB SHAIKH</t>
   </si>
   <si>
-    <t>NAME_HABIBA AFZAL ANSARI_MarkSheet_ency.pdf</t>
+    <t>HABIBA AFZAL ANSARI</t>
   </si>
   <si>
-    <t>NAME_INAAYA MOINUDDIN LUHAR_MarkSheet_ency.pdf</t>
+    <t>INAAYA MOINUDDIN LUHAR</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\Darul-Huda\git-repo\result_password\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6B76C3-2389-46F7-9B06-BC53D3971C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AE3C0-4FB2-47C3-93AE-F65F3A5853BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18" yWindow="12" windowWidth="23022" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Sr.No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Names</t>
   </si>
@@ -104,12 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -396,50 +390,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="46.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sarfaraz\Darul-Huda\git-repo\result_password\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AE3C0-4FB2-47C3-93AE-F65F3A5853BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18" yWindow="12" windowWidth="23022" windowHeight="12348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19635" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Names</t>
   </si>
@@ -38,17 +27,26 @@
   <si>
     <t>INAAYA MOINUDDIN LUHAR</t>
   </si>
+  <si>
+    <t>HABIBA SHOYAB TAMBOLI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -56,11 +54,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -69,12 +218,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -84,22 +419,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -110,17 +687,61 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -169,7 +790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -204,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -378,51 +999,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="46.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.8380952380952" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -14,21 +14,1434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>GULAM GOS HABIB SHAIKH</t>
-  </si>
-  <si>
-    <t>HABIBA AFZAL ANSARI</t>
-  </si>
-  <si>
-    <t>INAAYA MOINUDDIN LUHAR</t>
-  </si>
-  <si>
-    <t>HABIBA SHOYAB TAMBOLI</t>
+    <t>ABRAR A. MATIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR A.MATIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH AYYUB INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UBAIDULLAH AYYUB INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAAZ SHAKIR BEG_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAQIB IQBAL INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAAD ISRAIL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABRAR SHARFUDDIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASAD IKHLAS MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAAZ NAWAZ MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAQIB DASTAGIR DIKSANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAAD ABDULLAH PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TEHFIZ ASIF BIJAPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH ILIYAS TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIF IBRAHM BIJAPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALI RAZA MOHAMMAD ALI SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IBRAHIM SHAIKHALI PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAHIL SAJID SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIZWAN SULEMAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR RASHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOOR MOHAMMAD HUSAIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAEED A.MATIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAUKIR ALTAF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAM ANAS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFFAN ZUBER TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALI ZAINUL ABIDIN MANSURI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARSALAN ISRAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAMS SHAMIM AHMAD KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAM ZAINUL ABIDIN MANSURI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SOHEL KHURSHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JISHAN HUSAIN INDORI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIFA SAMEER SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR AYAZ PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAIZAN NIHAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAIF QAMRUDDIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAAD EJAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AARIZ AHMAD ANIS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID AKHTAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BILAL AZIZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL JABBAR RIYAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MALIK MAKSOOD QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAQIB ABDUL BARI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IMRAN MEHBOOB MAKANDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR BABUSAHAB GUDUMNAWAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUFIZ FEROZ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>DILNAWAZ SALMAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR NISAR INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFFAN MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SAMEER  SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALKAISAN SAMEER QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASIM ALIM QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAIR AAMIL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA NAZIR PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAIMA MAINUDDIN MUJAWAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAM PARVIN SHAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FARIHA SAMEER SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA IQBAL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAHIB QAMRUDDIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAIFULLAH SARFARAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMAM JAVED KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIZAN QADIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAIZ IMTIYAZ BAGAL KOT_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHADIJA MUBIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IRAM ASIF ALI sayyad_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FIRDOS RIYAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AASIYA ANWAR DIKSANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA AYFAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AALIYA ASIF ALI SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NIDA ABDUL RAZZAK SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME KULSUM ZAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHADIJA IMRAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARSHIN PARVEZ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIZA FATIMA QADIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>VANIYA MEHVISH GULAM RASOOL SHAHPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IQRA SALIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIDA DASTAGIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MADIHA IQBAL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAHEK KALIMUDDIN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IQRA ABBAS SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM HARUN QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZUNAIRA SHOKAT INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHUNMEER ZAKIR MARUF_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME KULSUM UBED NIYAZI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR USMAN ANSAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN MOHAMMAD  DIKSANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL WAHID SHAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUFIZ IMTIYAZ BAGLKOTE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUFIYAN AADAM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN HASAN ALI LANKAL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZAIR ANAS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUFIZ MAINUDDIN MUJAWAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUFIYAN SHAHNAWAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REHAN SAMIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAHID AYYUB ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JUNED FIROZ TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REHAN ABID SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUBASHSHIRA ISMAIL QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMARA NAZIR PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JUVERIYA ANIS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ILTISHA IQBAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUFIYAN SAIM ALI SHAH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REHAN ABDUL WAHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH AFZAL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAVIYA AYAZ SANGHOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAN ZAHIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALTAHA IRFAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ADNAN SADIQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ADANAN RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARFAT WAHID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUMAYYA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMERA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HABIBA AFZAL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HALIMA SADIYA HABIB SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZINAT IQBAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SANIYA SHEHBAZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAINA RASHID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MIDHAT JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TANZILA IRFAN QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BARIRA PARVEZ  SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>alina babu shaikh_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM AZHAR SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JUNED MARUF ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL HANNAN JAVED SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL MANNAN JAVED SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH REHMAT CHAUDHARY_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARSHIN PARVEZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAHID JAVED PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL MUKIT SHAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IBRAHIM AYAZ SANGHOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAKIR ALI SHAKIL SIDDIQUI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZAIR YUSUF PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAZIL SHARFUDDIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAAD SARFARAZ BARGUZAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IMADUDDIN MERAJUDDIN SIDDIQUI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMAN WAHID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAIZAL IQBAL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NIHAN NIYAS HANIF_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>USAID ZAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MISBAH ALTAF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA MUNAF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AINULHAYA HUSAIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIMSHA IMRAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MADIHA ATAUR REHMAN QURESH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>alfaiz alim qureshi_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN ZAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR ASIF MOMIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INAAYA MOINUDDIN LUHAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZOYA ALI ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALIZA ALVIN ARIF BIRAJDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASMA ARIF MEMON_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAFIYA SHAKIL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JUVERIYA FAISAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YASIN MUBARAK MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFFAN MEHBOOB MAKANDAR _MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IRSHAD IBRAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIFA MUMTAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUSSAMAD MEHTAB ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YASIR FAYYAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UZAIR ZAKIR MARUF_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAMAILA SHAHNAWAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAYAN SADIQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN NAEEM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN SABIR SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASAD ISMAIL KHATIB_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UBAID MUSHTAQ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR MUSHTAQ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KULSUM ASIF KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AZAAN TAZKEER KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOIN AFZAL QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AATIF FAYYAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIZAN JALIL PATHAN _MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAHIR ANWAR SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA SAMEER MULAJI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDDIQ BABU SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SADAF JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IRSHAD SARFARAZ BARGUZAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARFAN FAYYAZ DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAKLAIN ATIK QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASADULLAH AYAZ BANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YASIR ALTAF DIKSANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA SULEMAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHEHNAZ MURSHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA UBED NIYAZI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARIYA RIZWAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIMRA SAMIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TANZILA FAIZAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MASEERA AZIM  MOMIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BARIRA JAVED SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHUSHNUMA AMIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>OWAIS FARUQ TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IFFAT SHAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAMINA ASLAM MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMERA BABU_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SARA AZHAR SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SADIYA MOHSIN MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMERA USMAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM KALIMUDDIN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TASMIYA IRFAN QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAAN AMIR DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAS IRFAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAHA ISMAIL MANIYAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>GULAM GOS HABIB SHAIKH _MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SULTAN GOS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SABIR SALEEM DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR USMAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASAD ABBAS SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOORI KHURSHID_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MASOOD EJAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YAQUB NABISAB BUDHIYAL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UBAID SHAHID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN SADIQ  MULANJI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDULLAH YUSUF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAN ZAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN HANNAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHATIJA SARFARAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZULEKHA YUSUF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TANZEEM ALTAF TARASGAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NAFIYA JAVED KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOMAN ASHFAQ PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHARUKH SALMAN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZUBER MARUF ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHARA GOS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AALAMIN GOS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAISHA TANVEER QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA TOFIK TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ATIK GULAM RASOOL SHAHPURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALMAN ABDULBARI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAHIN SHAKIL SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIMAN ASIF DIKSANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>PARVEZ AMIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAYYAN ASHRAF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INAAYA ATIK SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAINAB SAMIR TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAM ISMAIL QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHRA MOHSIN PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN ILIYAS INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAYYAN RAHIM TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAOOD EJAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REHAN ASIR TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>OWAIS MITTUSAB MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID AMIR SUTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABUZAR YUSUF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARKAN WASIM ATTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>REHAN WASIM ATTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KAIF MEHBOOB MAKANDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN RAFIQ TARASGAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASHRAFI JUMMAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZIKRA AARIF PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIZA ABDUL BASEER GOGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SULTENA AMIR SUTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAZIYA SHARFUDDIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASNAD ATAUR REHMAN QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASADULLAH IRSHAD BAIG_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RUQAYYA MASIHULLAH KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN QURBAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHMAD RAZA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TALBEEYA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZOYA IMRAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YUSUF MUMTAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDDIQ NIYAZ AHMAD PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR RAFIQ TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAN RAJA SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HAMZA SAMIR SAIFEE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KAIF FAROOQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABUZAR AFZAL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAYA ASIF SAYYAD _MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>LAIBA ASHFAQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA IBRAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALINA QADIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INAYA ZAKIR SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SADIYA SHIKIL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME KULSUM EJAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASNAIN SADIK MULANJI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARMAN AYYUB ABGBAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAAD IRSHAD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAISHA ZUBER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHAD MOHAMMAD ALI SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN ARZU GAZI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUAAZ AFZAL ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALI SABIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFREED RAIS INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NAZIR AZHAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABQAR IMRAN SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN YUNUS SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAINAB EJAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALFIYA IRFAN shah_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KHUSHBU NASIM KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ISHRAT ISMAIL QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALINA HAMID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>YUSUF SAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAYAN YUSUF BIRADAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME HANI SHAHID  QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDDIQ FEROZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAYYAN SALEEM SIDDIQ_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUBHAN SALEEM SIDDIQ_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM TAUSIF SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>OWAIS TAUSIF SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SAJID SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHOKAT INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUZZAMMIL ZAHIR ALI MANURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ADANAN ZUBER TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMIR AFZAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHARIK AFZAL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAYYAN RIZWAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KALIYAR SALEEM DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR FAYYAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAN AMIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABUHURERA TANVEER QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA RIZWAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AATIFA AATIF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMAIRA SALMAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAFIYA ZAHIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JIYANA MITTUSAB MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDRA AYAZ BANGI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA ANAS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAINAB ALIM QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDRA SALIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAZIYA JAIMUD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAHIRA ABID SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SIDDIQ IMRAN PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INAYA MINHAJUDDIN SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AHIL ABDUL DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARSALAN FAYYAZ DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAKMEEL TAUFEEQ KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HAMDAN IQBAL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN ALI SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AMMAR PARVEZ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASSAN HUZAIFA SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>GOS SADIQ SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAYA HAMID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAM MUBIN KURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHAFIYA ASIF TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARWA IKHLAS MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA ZARA ASLAM MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MANHA SAMEER SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TUBA TAUFEEQ KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYRA ZAHIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHARA SADIQ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INSHA MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NASREEN MURSHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IQRA GOS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHAZIB FARUQ HUSSAIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAFA FATIMA FARUQ HUSSAIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARFA AMIR DESAI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAHIM YUNUS SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAYAT FAROOQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MASHQURA ILIYAS WANWAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUMAIRA FARUQ TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASAD ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AARIF NABISAB BUDHIYAL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID ATIK SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>OWAIS ASHFAQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAZHAR AFZAL KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BAHUDDIN YUSUF QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HAMZA ASHRAF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAHIR ASHFAQ PEERZADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALISHA JAVED PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARAINA AHMAD QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA SHAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MINSA SHAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME KULSUM RIYAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SABIRA SAJID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NAMRIN ASIF ALI SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIFA IMRAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BUSHRA ILIYAS WANWADE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>abubakar naim shaikh_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>yusaira kausar naim shaikh_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>USAID MUBASHIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUZAMMIL MOHAMMAD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IMAMUL HAQ MOHAMMAD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MISBAH BARKAT ALI KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUR RAHIM JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYMAAN SALIM SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>NOMAN ZAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN ABDUL PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALI MUBIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAID KHATAL SODAGAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAMIR ABDUL HAMID QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ISRA KHATAL SADAGAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAISHA NABISAB BUDHIHAL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIZA JALIL PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KULSUM JAVED KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MINAZ MUNAF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AFIFA MOHSIN PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UBAID RAJJAK SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAIR MARUF ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR FAROOK HARUN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IMAD MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABUZAR SHAKIL PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MARYAM SUFIYAN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JASMEEN PARVEZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA SABIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZARA SALIM SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIRA SAMIR SAIFEE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARIBA MUMTAZ ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA ARSHAD ALI ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>JASMEEN SAIM ALI SHAH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAIZA TAUKEER QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SAMAR JAHANGIR ATTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAAN NIYAJUDDIN SIKILKAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAM AKHLAQ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUSAIN NAUSHAD SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOIN SHAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IRAM AFTAB ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SANA JAIMUD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HIFZA KHALIL CHAUDHARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAISHA GUFRAN KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMME HANI JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARHAM MINHAJUDDIN SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASNAIN SHAHBAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASAN SALIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASHIM ARSHAD SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>QASIM USMAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KAIF LAL MIYA QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KAMRAN ALI SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ASHRAF SHAMSHAD MANSURI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUR REHMAN SULEMAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIF MURSHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HUZAIFA ISMAIL NADAF_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALI RIZWAN PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SADIYA RAIS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL AYAN JAVED SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>INAYA AAMIL SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAHID MOHSIN MULLA_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AQSA MAKBOOL SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HANIFA HUZAIFA SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RIDA KALIMKHAN PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ISHAQ ZAHIR ALI MANURE_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALTAMASH AMIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ANAS YUSUF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>DILSHAD SHAMSHAD ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>DANIYAL MUZAMMIL QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ADDAS SHAKIR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZIYAN IMRAN SUTAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL SAMAD SHEHBAZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AYAN RAIS INAMDAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>BARIRA AKBAR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASNAIN JAVED QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HASNAIN WASIM PATHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SABRIN MURSHID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FAIZAN AATIF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SABRIN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAMA RAHIM SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FATIMA SHADAB QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUBARAK MUNAF SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL AHAD KHATAL SADGAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR SARFARAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HABIBA SABIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>UMAR MOHSIN PATEL_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ALFIYA SUBHAN ANSARI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>TAMIM ZAINUL ABIDIN MANSURI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SUBHAN TAZKEER KHAN_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAYAT KURBAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZIKRA AMIR HAMZA WALIKAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA SHEHNSHA SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>KAIF NASRUDDIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>IBTESAM mubashir qureshi_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ABDUL RAZZAK RASHID MALIK_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>HURIYA GAUS QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZOBIYA AKHTAR SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>FARHAN WASIM SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAYYAN HAMID SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MUNAZZA MOHSIN SIDDIQI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ZAINAB ZAKIR QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MAHIRA MOHSIN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AASIYA FEROZ SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>RAKIB KURBAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAIRA  IMRAN SHAIKH_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>AAYAT MOINUDDIN LUHAR_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>SHIFA NASRUDDIN TAMBOLI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALI KALIM SAYYAD_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>ARFAT AAIFAZ QURESHI_MarkSheet_ency</t>
+  </si>
+  <si>
+    <t>MOHAMMAD NAWAZ NOOR ISLAM MISTRY_MarkSheet_ency</t>
   </si>
 </sst>
 </file>
@@ -41,7 +1454,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,11 +1471,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Jameel Noori Nastaleeq"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Jameel Noori Nastaleeq"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -209,7 +1640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +1650,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,12 +1746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,12 +1848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,31 +1988,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,126 +2009,173 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,6 +2228,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1005,15 +2507,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="46.8380952380952" customWidth="1"/>
+    <col min="4" max="4" width="42.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="49.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="18.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1021,27 +2526,3376 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" ht="24" spans="1:5">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" ht="24" spans="1:5">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" ht="24" spans="1:5">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" ht="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" ht="24" spans="1:5">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" ht="24" spans="1:5">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" ht="24" spans="1:5">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" ht="24" spans="1:5">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" ht="24" spans="1:5">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" ht="24" spans="1:5">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" ht="24" spans="1:5">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" ht="24" spans="1:5">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" ht="24" spans="1:5">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" ht="24" spans="1:5">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" ht="24" spans="1:5">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" ht="24" spans="1:5">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" ht="24" spans="1:5">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="6"/>
+    </row>
+    <row r="46" ht="24" spans="1:5">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="6"/>
+    </row>
+    <row r="47" ht="24" spans="1:5">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" ht="24" spans="1:5">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="6"/>
+    </row>
+    <row r="49" ht="24" spans="1:5">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="6"/>
+    </row>
+    <row r="50" ht="24" spans="1:5">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" ht="24" spans="1:5">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="6"/>
+    </row>
+    <row r="52" ht="24" spans="1:5">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="6"/>
+    </row>
+    <row r="53" ht="24" spans="1:5">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="6"/>
+    </row>
+    <row r="54" ht="24" spans="1:5">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" ht="24" spans="1:5">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" ht="24" spans="1:5">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" ht="24" spans="1:5">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" ht="24" spans="1:5">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="6"/>
+    </row>
+    <row r="59" ht="24" spans="1:5">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" ht="24" spans="1:5">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" ht="24" spans="1:5">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" ht="24" spans="1:5">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="6"/>
+    </row>
+    <row r="63" ht="24" spans="1:5">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="6"/>
+    </row>
+    <row r="64" ht="24" spans="1:5">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" ht="24" spans="1:5">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="6"/>
+    </row>
+    <row r="66" ht="24" spans="1:5">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" ht="24" spans="1:5">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="6"/>
+    </row>
+    <row r="68" ht="24" spans="1:5">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" ht="24" spans="1:5">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" ht="24" spans="1:5">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" ht="24" spans="1:5">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" ht="24" spans="1:5">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" ht="24" spans="1:5">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" ht="24" spans="1:5">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" ht="24" spans="1:5">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="6"/>
+    </row>
+    <row r="76" ht="24" spans="1:5">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="6"/>
+    </row>
+    <row r="77" ht="24" spans="1:5">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="6"/>
+    </row>
+    <row r="78" ht="24" spans="1:5">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="6"/>
+    </row>
+    <row r="79" ht="24" spans="1:5">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="6"/>
+    </row>
+    <row r="80" ht="24" spans="1:5">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="E80" s="6"/>
+    </row>
+    <row r="81" ht="24" spans="1:5">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" ht="24" spans="1:5">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" ht="24" spans="1:5">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" ht="24" spans="1:5">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" ht="24" spans="1:5">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="6"/>
+    </row>
+    <row r="86" ht="24" spans="1:5">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E86" s="6"/>
+    </row>
+    <row r="87" ht="24" spans="1:5">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E87" s="6"/>
+    </row>
+    <row r="88" ht="24" spans="1:5">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="6"/>
+    </row>
+    <row r="89" ht="24" spans="1:5">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="6"/>
+    </row>
+    <row r="90" ht="24" spans="1:5">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="6"/>
+    </row>
+    <row r="91" ht="24" spans="1:5">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" ht="24" spans="1:5">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="E92" s="6"/>
+    </row>
+    <row r="93" ht="24" spans="1:5">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="E93" s="6"/>
+    </row>
+    <row r="94" ht="24" spans="1:5">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="6"/>
+    </row>
+    <row r="95" ht="24" spans="1:5">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="E95" s="6"/>
+    </row>
+    <row r="96" ht="24" spans="1:5">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="6"/>
+    </row>
+    <row r="97" ht="24" spans="1:5">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="6"/>
+    </row>
+    <row r="98" ht="24" spans="1:5">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" s="6"/>
+    </row>
+    <row r="99" ht="24" spans="1:5">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" s="6"/>
+    </row>
+    <row r="100" ht="24" spans="1:5">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="E100" s="6"/>
+    </row>
+    <row r="101" ht="24" spans="1:5">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="6"/>
+    </row>
+    <row r="102" ht="24" spans="1:5">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="6"/>
+    </row>
+    <row r="103" ht="24" spans="1:5">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="E103" s="6"/>
+    </row>
+    <row r="104" ht="24" spans="1:5">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="E104" s="6"/>
+    </row>
+    <row r="105" ht="24" spans="1:5">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="E105" s="6"/>
+    </row>
+    <row r="106" ht="24" spans="1:5">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106" s="6"/>
+    </row>
+    <row r="107" ht="24" spans="1:5">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="E107" s="6"/>
+    </row>
+    <row r="108" ht="24" spans="1:5">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="E108" s="6"/>
+    </row>
+    <row r="109" ht="24" spans="1:5">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" s="8"/>
+    </row>
+    <row r="110" ht="24" spans="1:5">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="6"/>
+    </row>
+    <row r="111" ht="24" spans="1:5">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="6"/>
+    </row>
+    <row r="112" ht="24" spans="1:5">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="E112" s="6"/>
+    </row>
+    <row r="113" ht="24" spans="1:5">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="E113" s="6"/>
+    </row>
+    <row r="114" ht="24" spans="1:5">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="6"/>
+    </row>
+    <row r="115" ht="24" spans="1:5">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="E115" s="6"/>
+    </row>
+    <row r="116" ht="24" spans="1:5">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116" s="6"/>
+    </row>
+    <row r="117" ht="24" spans="1:5">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="E117" s="6"/>
+    </row>
+    <row r="118" ht="24" spans="1:5">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="E118" s="6"/>
+    </row>
+    <row r="119" ht="24" spans="1:5">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E119" s="6"/>
+    </row>
+    <row r="120" ht="24" spans="1:5">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E120" s="6"/>
+    </row>
+    <row r="121" ht="24" spans="1:5">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="E121" s="6"/>
+    </row>
+    <row r="122" ht="24" spans="1:5">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="E122" s="6"/>
+    </row>
+    <row r="123" ht="24" spans="1:5">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="E123" s="6"/>
+    </row>
+    <row r="124" ht="24" spans="1:5">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="E124" s="6"/>
+    </row>
+    <row r="125" ht="24" spans="1:5">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="E125" s="6"/>
+    </row>
+    <row r="126" ht="24" spans="1:5">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="E126" s="6"/>
+    </row>
+    <row r="127" ht="24" spans="1:5">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" ht="24" spans="1:5">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" ht="24" spans="1:5">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="E129" s="6"/>
+    </row>
+    <row r="130" ht="24" spans="1:5">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E130" s="6"/>
+    </row>
+    <row r="131" ht="24" spans="1:5">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="E131" s="6"/>
+    </row>
+    <row r="132" ht="24" spans="1:5">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="E132" s="6"/>
+    </row>
+    <row r="133" ht="24" spans="1:5">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="E133" s="6"/>
+    </row>
+    <row r="134" ht="24" spans="1:5">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="6"/>
+    </row>
+    <row r="135" ht="24" spans="1:5">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" s="6"/>
+    </row>
+    <row r="136" ht="24" spans="1:5">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="E136" s="6"/>
+    </row>
+    <row r="137" ht="24" spans="1:5">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="E137" s="6"/>
+    </row>
+    <row r="138" ht="24" spans="1:5">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" s="6"/>
+    </row>
+    <row r="139" ht="24" spans="1:5">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="E139" s="6"/>
+    </row>
+    <row r="140" ht="24" spans="1:5">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140" s="6"/>
+    </row>
+    <row r="141" ht="24" spans="1:5">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="E141" s="6"/>
+    </row>
+    <row r="142" ht="24" spans="1:5">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="E142" s="6"/>
+    </row>
+    <row r="143" ht="24" spans="1:5">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="E143" s="6"/>
+    </row>
+    <row r="144" ht="24" spans="1:5">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="E144" s="6"/>
+    </row>
+    <row r="145" ht="24" spans="1:5">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="E145" s="6"/>
+    </row>
+    <row r="146" ht="24" spans="1:5">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="E146" s="8"/>
+    </row>
+    <row r="147" ht="24" spans="1:5">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="E147" s="6"/>
+    </row>
+    <row r="148" ht="24" spans="1:5">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148" s="6"/>
+    </row>
+    <row r="149" ht="24" spans="1:5">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="E149" s="6"/>
+    </row>
+    <row r="150" ht="24" spans="1:5">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" s="6"/>
+    </row>
+    <row r="151" ht="24" spans="1:5">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="E151" s="6"/>
+    </row>
+    <row r="152" ht="24" spans="1:5">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="E152" s="6"/>
+    </row>
+    <row r="153" ht="24" spans="1:5">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="E153" s="6"/>
+    </row>
+    <row r="154" ht="24" spans="1:5">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="E154" s="6"/>
+    </row>
+    <row r="155" ht="24" spans="1:5">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="E155" s="6"/>
+    </row>
+    <row r="156" ht="24" spans="1:5">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="E156" s="6"/>
+    </row>
+    <row r="157" ht="24" spans="1:5">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E157" s="6"/>
+    </row>
+    <row r="158" ht="24" spans="1:5">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" ht="24" spans="1:5">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" ht="24" spans="1:5">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" ht="24" spans="1:5">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="E161" s="6"/>
+    </row>
+    <row r="162" ht="24" spans="1:5">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="E162" s="6"/>
+    </row>
+    <row r="163" ht="24" spans="1:5">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="E163" s="6"/>
+    </row>
+    <row r="164" ht="24" spans="1:5">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" ht="24" spans="1:5">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="E165" s="8"/>
+    </row>
+    <row r="166" ht="24" spans="1:5">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="E166" s="6"/>
+    </row>
+    <row r="167" ht="24" spans="1:5">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="E167" s="8"/>
+    </row>
+    <row r="168" ht="24" spans="1:5">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="E168" s="8"/>
+    </row>
+    <row r="169" ht="24" spans="1:5">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="E169" s="8"/>
+    </row>
+    <row r="170" ht="24" spans="1:5">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" ht="24" spans="1:5">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" ht="24" spans="1:5">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" ht="24" spans="1:5">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" ht="24" spans="1:5">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="E174" s="7"/>
+    </row>
+    <row r="175" ht="24" spans="1:5">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="E175" s="7"/>
+    </row>
+    <row r="176" ht="24" spans="1:5">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="E176" s="6"/>
+    </row>
+    <row r="177" ht="24" spans="1:5">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="E177" s="6"/>
+    </row>
+    <row r="178" ht="24" spans="1:5">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="E178" s="6"/>
+    </row>
+    <row r="179" ht="24" spans="1:5">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="E179" s="6"/>
+    </row>
+    <row r="180" ht="24" spans="1:5">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="E180" s="6"/>
+    </row>
+    <row r="181" ht="24" spans="1:5">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181" s="6"/>
+    </row>
+    <row r="182" ht="24" spans="1:5">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="E182" s="6"/>
+    </row>
+    <row r="183" ht="24" spans="1:5">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="E183" s="6"/>
+    </row>
+    <row r="184" ht="24" spans="1:5">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184" s="6"/>
+    </row>
+    <row r="185" ht="24" spans="1:5">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="E185" s="6"/>
+    </row>
+    <row r="186" ht="24" spans="1:5">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="E186" s="6"/>
+    </row>
+    <row r="187" ht="24" spans="1:5">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="E187" s="6"/>
+    </row>
+    <row r="188" ht="24" spans="1:5">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="E188" s="6"/>
+    </row>
+    <row r="189" ht="24" spans="1:5">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="E189" s="6"/>
+    </row>
+    <row r="190" ht="24" spans="1:5">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="E190" s="6"/>
+    </row>
+    <row r="191" ht="24" spans="1:5">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="E191" s="6"/>
+    </row>
+    <row r="192" ht="24" spans="1:5">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="E192" s="6"/>
+    </row>
+    <row r="193" ht="24" spans="1:5">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="E193" s="6"/>
+    </row>
+    <row r="194" ht="24" spans="1:5">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="E194" s="6"/>
+    </row>
+    <row r="195" ht="24" spans="1:5">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="E195" s="6"/>
+    </row>
+    <row r="196" ht="24" spans="1:5">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="E196" s="6"/>
+    </row>
+    <row r="197" ht="24" spans="1:5">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="E197" s="6"/>
+    </row>
+    <row r="198" ht="24" spans="1:5">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="E198" s="6"/>
+    </row>
+    <row r="199" ht="24" spans="1:5">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" ht="24" spans="1:5">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="E200" s="6"/>
+    </row>
+    <row r="201" ht="24" spans="1:5">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" ht="24" spans="1:5">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="E202" s="6"/>
+    </row>
+    <row r="203" ht="24" spans="1:5">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="E203" s="6"/>
+    </row>
+    <row r="204" ht="24" spans="1:5">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="E204" s="6"/>
+    </row>
+    <row r="205" ht="24" spans="1:5">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="E205" s="6"/>
+    </row>
+    <row r="206" ht="24" spans="1:5">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="E206" s="6"/>
+    </row>
+    <row r="207" ht="24" spans="1:5">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="E207" s="6"/>
+    </row>
+    <row r="208" ht="24" spans="1:5">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="E208" s="6"/>
+    </row>
+    <row r="209" ht="24" spans="1:5">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" ht="24" spans="1:5">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" ht="24" spans="1:5">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" ht="24" spans="1:5">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="E212" s="6"/>
+    </row>
+    <row r="213" ht="24" spans="1:5">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" ht="24" spans="1:5">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" ht="24" spans="1:5">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" ht="24" spans="1:5">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" ht="24" spans="1:5">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" ht="24" spans="1:5">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" ht="24" spans="1:5">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" ht="24" spans="1:5">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" ht="24" spans="1:5">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" ht="24" spans="1:5">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" ht="24" spans="1:5">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" ht="24" spans="1:5">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" ht="24" spans="1:5">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" ht="24" spans="1:5">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" ht="24" spans="1:5">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="E227" s="6"/>
+    </row>
+    <row r="228" ht="24" spans="1:5">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="E228" s="6"/>
+    </row>
+    <row r="229" ht="24" spans="1:5">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="E229" s="6"/>
+    </row>
+    <row r="230" ht="24" spans="1:5">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="E230" s="6"/>
+    </row>
+    <row r="231" ht="24" spans="1:5">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="E231" s="6"/>
+    </row>
+    <row r="232" ht="24" spans="1:5">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="E232" s="6"/>
+    </row>
+    <row r="233" ht="24" spans="1:5">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="E233" s="6"/>
+    </row>
+    <row r="234" ht="24" spans="1:5">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="E234" s="6"/>
+    </row>
+    <row r="235" ht="24" spans="1:5">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="E235" s="6"/>
+    </row>
+    <row r="236" ht="24" spans="1:5">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="E236" s="6"/>
+    </row>
+    <row r="237" ht="24" spans="1:5">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="E237" s="6"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239" ht="24" spans="1:5">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="E239" s="8"/>
+    </row>
+    <row r="240" ht="24" spans="1:5">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="E240" s="6"/>
+    </row>
+    <row r="241" ht="24" spans="1:5">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="E241" s="6"/>
+    </row>
+    <row r="242" ht="24" spans="1:5">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="E242" s="6"/>
+    </row>
+    <row r="243" ht="24" spans="1:5">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="E243" s="6"/>
+    </row>
+    <row r="244" ht="24" spans="1:5">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="E244" s="6"/>
+    </row>
+    <row r="245" ht="24" spans="1:5">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="E245" s="6"/>
+    </row>
+    <row r="246" ht="24" spans="1:5">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="E246" s="6"/>
+    </row>
+    <row r="247" ht="24" spans="1:5">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="E247" s="6"/>
+    </row>
+    <row r="248" ht="24" spans="1:5">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="E248" s="6"/>
+    </row>
+    <row r="249" ht="24" spans="1:5">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="E249" s="6"/>
+    </row>
+    <row r="250" ht="24" spans="1:5">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="E250" s="6"/>
+    </row>
+    <row r="251" ht="24" spans="1:5">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="6"/>
+    </row>
+    <row r="252" ht="24" spans="1:5">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="E252" s="6"/>
+    </row>
+    <row r="253" ht="24" spans="1:5">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="E253" s="6"/>
+    </row>
+    <row r="254" ht="24" spans="1:5">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="E254" s="6"/>
+    </row>
+    <row r="255" ht="24" spans="1:5">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="E255" s="6"/>
+    </row>
+    <row r="256" ht="24" spans="1:5">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" ht="24" spans="1:5">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" ht="24" spans="1:5">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="E258" s="8"/>
+    </row>
+    <row r="259" ht="24" spans="1:5">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="E259" s="8"/>
+    </row>
+    <row r="260" ht="24" spans="1:5">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="E260" s="8"/>
+    </row>
+    <row r="261" ht="24" spans="1:5">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="E261" s="6"/>
+    </row>
+    <row r="262" ht="24" spans="1:5">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="E262" s="6"/>
+    </row>
+    <row r="263" ht="24" spans="1:5">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="E263" s="6"/>
+    </row>
+    <row r="264" ht="24" spans="1:5">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="E264" s="6"/>
+    </row>
+    <row r="265" ht="24" spans="1:5">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="E265" s="6"/>
+    </row>
+    <row r="266" ht="24" spans="1:5">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="E266" s="6"/>
+    </row>
+    <row r="267" ht="24" spans="1:5">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="E267" s="6"/>
+    </row>
+    <row r="268" ht="24" spans="1:5">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="E268" s="6"/>
+    </row>
+    <row r="269" ht="24" spans="1:5">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="E269" s="6"/>
+    </row>
+    <row r="270" ht="24" spans="1:5">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="E270" s="6"/>
+    </row>
+    <row r="271" ht="24" spans="1:5">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="E271" s="6"/>
+    </row>
+    <row r="272" ht="24" spans="1:5">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="E272" s="6"/>
+    </row>
+    <row r="273" ht="24" spans="1:5">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="E273" s="6"/>
+    </row>
+    <row r="274" ht="24" spans="1:5">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="E274" s="6"/>
+    </row>
+    <row r="275" ht="24" spans="1:5">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="E275" s="6"/>
+    </row>
+    <row r="276" ht="24" spans="1:5">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" ht="24" spans="1:5">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" ht="24" spans="1:5">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" ht="24" spans="1:5">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" ht="24" spans="1:5">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" ht="24" spans="1:5">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" ht="24" spans="1:5">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="E282" s="6"/>
+    </row>
+    <row r="283" ht="24" spans="1:5">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="E283" s="6"/>
+    </row>
+    <row r="284" ht="24" spans="1:5">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="E284" s="6"/>
+    </row>
+    <row r="285" ht="24" spans="1:5">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="E285" s="6"/>
+    </row>
+    <row r="286" ht="24" spans="1:5">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="E286" s="6"/>
+    </row>
+    <row r="287" ht="24" spans="1:5">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="E287" s="6"/>
+    </row>
+    <row r="288" ht="24" spans="1:5">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="E288" s="6"/>
+    </row>
+    <row r="289" ht="24" spans="1:5">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="E289" s="6"/>
+    </row>
+    <row r="290" ht="24" spans="1:5">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="E290" s="6"/>
+    </row>
+    <row r="291" ht="24" spans="1:5">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="E291" s="6"/>
+    </row>
+    <row r="292" ht="24" spans="1:5">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="E292" s="6"/>
+    </row>
+    <row r="293" ht="24" spans="1:5">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="E293" s="6"/>
+    </row>
+    <row r="294" ht="24" spans="1:5">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="E294" s="6"/>
+    </row>
+    <row r="295" ht="24" spans="1:5">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="E295" s="7"/>
+    </row>
+    <row r="296" ht="24" spans="1:5">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="E296" s="6"/>
+    </row>
+    <row r="297" ht="24" spans="1:5">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="E297" s="8"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="E298" s="11"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="E299" s="11"/>
+    </row>
+    <row r="300" ht="24" spans="1:5">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="E300" s="8"/>
+    </row>
+    <row r="301" ht="24" spans="1:5">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="E301" s="6"/>
+    </row>
+    <row r="302" ht="24" spans="1:5">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="E302" s="6"/>
+    </row>
+    <row r="303" ht="24" spans="1:5">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" ht="24" spans="1:5">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" ht="24" spans="1:5">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" ht="24" spans="1:5">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="E306" s="6"/>
+    </row>
+    <row r="307" ht="24" spans="1:5">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="E307" s="6"/>
+    </row>
+    <row r="308" ht="24" spans="1:5">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" ht="24" spans="1:5">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="310" ht="24" spans="1:5">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="311" ht="24" spans="1:5">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="E311" s="6"/>
+    </row>
+    <row r="312" ht="24" spans="1:5">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="E312" s="6"/>
+    </row>
+    <row r="313" ht="24" spans="1:5">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="E313" s="6"/>
+    </row>
+    <row r="314" ht="24" spans="1:5">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="E314" s="6"/>
+    </row>
+    <row r="315" ht="24" spans="1:5">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="E315" s="6"/>
+    </row>
+    <row r="316" ht="24" spans="1:5">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="E316" s="6"/>
+    </row>
+    <row r="317" ht="24" spans="1:5">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="E317" s="6"/>
+    </row>
+    <row r="318" ht="24" spans="1:5">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="E318" s="6"/>
+    </row>
+    <row r="319" ht="24" spans="1:5">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="E319" s="8"/>
+    </row>
+    <row r="320" ht="24" spans="1:5">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="E320" s="6"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="E321" s="12"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="E322" s="12"/>
+    </row>
+    <row r="323" ht="15.75" spans="1:5">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="E323" s="13"/>
+    </row>
+    <row r="324" ht="24" spans="1:5">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="E324" s="6"/>
+    </row>
+    <row r="325" ht="24" spans="1:5">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="E325" s="6"/>
+    </row>
+    <row r="326" ht="24" spans="1:5">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="E326" s="6"/>
+    </row>
+    <row r="327" ht="24" spans="1:5">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="E327" s="6"/>
+    </row>
+    <row r="328" ht="24" spans="1:5">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="E328" s="6"/>
+    </row>
+    <row r="329" ht="24" spans="1:5">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="E329" s="6"/>
+    </row>
+    <row r="330" ht="24" spans="1:5">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="E330" s="6"/>
+    </row>
+    <row r="331" ht="24" spans="1:5">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="E331" s="7"/>
+    </row>
+    <row r="332" ht="24" spans="1:5">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="E332" s="7"/>
+    </row>
+    <row r="333" ht="24" spans="1:5">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="E333" s="6"/>
+    </row>
+    <row r="334" ht="24" spans="1:5">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="E334" s="6"/>
+    </row>
+    <row r="335" ht="24" spans="1:5">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="E335" s="6"/>
+    </row>
+    <row r="336" ht="24" spans="1:5">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="E336" s="6"/>
+    </row>
+    <row r="337" ht="24" spans="1:5">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="E337" s="6"/>
+    </row>
+    <row r="338" ht="24" spans="1:5">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="E338" s="6"/>
+    </row>
+    <row r="339" ht="24" spans="1:5">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="E339" s="6"/>
+    </row>
+    <row r="340" ht="24" spans="1:5">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="E340" s="6"/>
+    </row>
+    <row r="341" ht="24" spans="1:5">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="E341" s="6"/>
+    </row>
+    <row r="342" ht="24" spans="1:5">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="E342" s="6"/>
+    </row>
+    <row r="343" ht="24" spans="1:5">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="E343" s="6"/>
+    </row>
+    <row r="344" ht="15.75" spans="1:5">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="E344" s="14"/>
+    </row>
+    <row r="345" ht="15.75" spans="1:5">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="E345" s="14"/>
+    </row>
+    <row r="346" ht="24" spans="1:5">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="E346" s="8"/>
+    </row>
+    <row r="347" ht="24" spans="1:5">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="E347" s="8"/>
+    </row>
+    <row r="348" ht="24" spans="1:5">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="E348" s="8"/>
+    </row>
+    <row r="349" ht="24" spans="1:5">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="E349" s="8"/>
+    </row>
+    <row r="350" ht="24" spans="1:5">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="E350" s="7"/>
+    </row>
+    <row r="351" ht="24" spans="1:5">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="E351" s="15"/>
+    </row>
+    <row r="352" ht="24" spans="1:5">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="E352" s="6"/>
+    </row>
+    <row r="353" ht="24" spans="1:5">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="E353" s="6"/>
+    </row>
+    <row r="354" ht="24" spans="1:5">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="E354" s="6"/>
+    </row>
+    <row r="355" ht="24" spans="1:5">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="E355" s="6"/>
+    </row>
+    <row r="356" ht="24" spans="1:5">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="E356" s="6"/>
+    </row>
+    <row r="357" ht="24" spans="1:5">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="E357" s="6"/>
+    </row>
+    <row r="358" ht="24" spans="1:5">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="E358" s="6"/>
+    </row>
+    <row r="359" ht="24" spans="1:5">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="E359" s="6"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="E360" s="10"/>
+    </row>
+    <row r="361" ht="24" spans="1:5">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="E361" s="6"/>
+    </row>
+    <row r="362" ht="24" spans="1:5">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="E362" s="6"/>
+    </row>
+    <row r="363" ht="24" spans="1:5">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="E363" s="6"/>
+    </row>
+    <row r="364" ht="24" spans="1:5">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="E364" s="6"/>
+    </row>
+    <row r="365" ht="24" spans="1:5">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="E365" s="6"/>
+    </row>
+    <row r="366" ht="24" spans="1:5">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="E366" s="6"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="E368" s="10"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="E369" s="10"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="E370" s="11"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="E371" s="11"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="E372" s="11"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="E373" s="11"/>
+    </row>
+    <row r="374" ht="24" spans="1:5">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="E374" s="6"/>
+    </row>
+    <row r="375" ht="24" spans="1:5">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="E375" s="6"/>
+    </row>
+    <row r="376" ht="24" spans="1:5">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="E376" s="6"/>
+    </row>
+    <row r="377" ht="24" spans="1:5">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="E377" s="6"/>
+    </row>
+    <row r="378" ht="24" spans="1:5">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="E378" s="6"/>
+    </row>
+    <row r="379" ht="24" spans="1:5">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="E379" s="6"/>
+    </row>
+    <row r="380" ht="24" spans="1:5">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="E380" s="6"/>
+    </row>
+    <row r="381" ht="24" spans="1:5">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="E381" s="6"/>
+    </row>
+    <row r="382" ht="24" spans="1:5">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="E382" s="6"/>
+    </row>
+    <row r="383" ht="24" spans="1:5">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="E383" s="6"/>
+    </row>
+    <row r="384" ht="24" spans="1:5">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="E384" s="6"/>
+    </row>
+    <row r="385" ht="24" spans="1:5">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="E385" s="6"/>
+    </row>
+    <row r="386" ht="24" spans="1:5">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="E386" s="6"/>
+    </row>
+    <row r="387" ht="24" spans="1:5">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="E387" s="8"/>
+    </row>
+    <row r="388" ht="24" spans="1:5">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="E388" s="8"/>
+    </row>
+    <row r="389" ht="24" spans="1:5">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="E389" s="8"/>
+    </row>
+    <row r="390" ht="24" spans="1:5">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="E390" s="6"/>
+    </row>
+    <row r="391" ht="24" spans="1:5">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="E391" s="8"/>
+    </row>
+    <row r="392" ht="24" spans="1:5">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="E392" s="8"/>
+    </row>
+    <row r="393" ht="24" spans="1:5">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="E393" s="8"/>
+    </row>
+    <row r="394" ht="24" spans="1:5">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="E394" s="6"/>
+    </row>
+    <row r="395" ht="24" spans="1:5">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="E395" s="6"/>
+    </row>
+    <row r="396" ht="24" spans="1:5">
+      <c r="A396" t="s">
+        <v>395</v>
+      </c>
+      <c r="E396" s="6"/>
+    </row>
+    <row r="397" ht="24" spans="1:5">
+      <c r="A397" t="s">
+        <v>396</v>
+      </c>
+      <c r="E397" s="6"/>
+    </row>
+    <row r="398" ht="24" spans="1:5">
+      <c r="A398" t="s">
+        <v>397</v>
+      </c>
+      <c r="E398" s="16"/>
+    </row>
+    <row r="399" ht="24" spans="1:5">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="E399" s="6"/>
+    </row>
+    <row r="400" ht="24" spans="1:5">
+      <c r="A400" t="s">
+        <v>399</v>
+      </c>
+      <c r="E400" s="6"/>
+    </row>
+    <row r="401" ht="24" spans="1:5">
+      <c r="A401" t="s">
+        <v>400</v>
+      </c>
+      <c r="E401" s="6"/>
+    </row>
+    <row r="402" ht="24" spans="1:5">
+      <c r="A402" t="s">
+        <v>401</v>
+      </c>
+      <c r="E402" s="8"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>402</v>
+      </c>
+      <c r="E403" s="10"/>
+    </row>
+    <row r="404" ht="24" spans="1:5">
+      <c r="A404" t="s">
+        <v>403</v>
+      </c>
+      <c r="E404" s="8"/>
+    </row>
+    <row r="405" ht="24" spans="1:5">
+      <c r="A405" t="s">
+        <v>404</v>
+      </c>
+      <c r="E405" s="8"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>405</v>
+      </c>
+      <c r="E406" s="5"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>406</v>
+      </c>
+      <c r="E407" s="5"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>407</v>
+      </c>
+      <c r="E408" s="5"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>408</v>
+      </c>
+      <c r="E409" s="5"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>409</v>
+      </c>
+      <c r="E410" s="5"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="E411" s="12"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>411</v>
+      </c>
+      <c r="E412" s="5"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>412</v>
+      </c>
+      <c r="E413" s="5"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>413</v>
+      </c>
+      <c r="E414" s="5"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>414</v>
+      </c>
+      <c r="E415" s="5"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>415</v>
+      </c>
+      <c r="E416" s="5"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>416</v>
+      </c>
+      <c r="E417" s="5"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>417</v>
+      </c>
+      <c r="E418" s="5"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>418</v>
+      </c>
+      <c r="E419" s="5"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>419</v>
+      </c>
+      <c r="E420" s="5"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>420</v>
+      </c>
+      <c r="E421" s="5"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>421</v>
+      </c>
+      <c r="E422" s="5"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>422</v>
+      </c>
+      <c r="E423" s="5"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>423</v>
+      </c>
+      <c r="E424" s="11"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>424</v>
+      </c>
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>425</v>
+      </c>
+      <c r="E426" s="5"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>426</v>
+      </c>
+      <c r="E427" s="17"/>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>427</v>
+      </c>
+      <c r="E428" s="17"/>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>428</v>
+      </c>
+      <c r="E429" s="17"/>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>429</v>
+      </c>
+      <c r="E430" s="17"/>
+    </row>
+    <row r="431" spans="1:5">
+      <c r="A431" t="s">
+        <v>430</v>
+      </c>
+      <c r="E431" s="17"/>
+    </row>
+    <row r="432" spans="1:5">
+      <c r="A432" t="s">
+        <v>431</v>
+      </c>
+      <c r="E432" s="17"/>
+    </row>
+    <row r="433" spans="1:5">
+      <c r="A433" t="s">
+        <v>432</v>
+      </c>
+      <c r="E433" s="17"/>
+    </row>
+    <row r="434" spans="1:5">
+      <c r="A434" t="s">
+        <v>433</v>
+      </c>
+      <c r="E434" s="17"/>
+    </row>
+    <row r="435" spans="1:5">
+      <c r="A435" t="s">
+        <v>434</v>
+      </c>
+      <c r="E435" s="17"/>
+    </row>
+    <row r="436" spans="1:5">
+      <c r="A436" t="s">
+        <v>435</v>
+      </c>
+      <c r="E436" s="17"/>
+    </row>
+    <row r="437" spans="1:5">
+      <c r="A437" t="s">
+        <v>436</v>
+      </c>
+      <c r="E437" s="17"/>
+    </row>
+    <row r="438" spans="1:5">
+      <c r="A438" t="s">
+        <v>437</v>
+      </c>
+      <c r="E438" s="17"/>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" t="s">
+        <v>438</v>
+      </c>
+      <c r="E439" s="17"/>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" t="s">
+        <v>439</v>
+      </c>
+      <c r="E440" s="17"/>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" t="s">
+        <v>440</v>
+      </c>
+      <c r="E441" s="17"/>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" t="s">
+        <v>441</v>
+      </c>
+      <c r="E442" s="17"/>
+    </row>
+    <row r="443" spans="1:5">
+      <c r="A443" t="s">
+        <v>442</v>
+      </c>
+      <c r="E443" s="17"/>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" t="s">
+        <v>443</v>
+      </c>
+      <c r="E444" s="17"/>
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" t="s">
+        <v>444</v>
+      </c>
+      <c r="E445" s="2"/>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="E446" s="11"/>
+    </row>
+    <row r="447" spans="1:5">
+      <c r="A447" t="s">
+        <v>446</v>
+      </c>
+      <c r="E447" s="11"/>
+    </row>
+    <row r="448" spans="1:5">
+      <c r="A448" t="s">
+        <v>447</v>
+      </c>
+      <c r="E448" s="11"/>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" t="s">
+        <v>448</v>
+      </c>
+      <c r="E449" s="11"/>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" t="s">
+        <v>449</v>
+      </c>
+      <c r="E450" s="11"/>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" t="s">
+        <v>450</v>
+      </c>
+      <c r="E451" s="11"/>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" t="s">
+        <v>451</v>
+      </c>
+      <c r="E452" s="11"/>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" t="s">
+        <v>452</v>
+      </c>
+      <c r="E453" s="11"/>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" t="s">
+        <v>453</v>
+      </c>
+      <c r="E454" s="11"/>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" t="s">
+        <v>454</v>
+      </c>
+      <c r="E455" s="11"/>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" t="s">
+        <v>455</v>
+      </c>
+      <c r="E456" s="11"/>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" t="s">
+        <v>456</v>
+      </c>
+      <c r="E457" s="11"/>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" t="s">
+        <v>457</v>
+      </c>
+      <c r="E458" s="11"/>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" t="s">
+        <v>458</v>
+      </c>
+      <c r="E459" s="11"/>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" t="s">
+        <v>459</v>
+      </c>
+      <c r="E460" s="11"/>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" t="s">
+        <v>460</v>
+      </c>
+      <c r="E461" s="11"/>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" t="s">
+        <v>461</v>
+      </c>
+      <c r="E462" s="11"/>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" t="s">
+        <v>462</v>
+      </c>
+      <c r="E463" s="2"/>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" t="s">
+        <v>463</v>
+      </c>
+      <c r="E464" s="2"/>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" t="s">
+        <v>464</v>
+      </c>
+      <c r="E465" s="2"/>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" t="s">
+        <v>465</v>
+      </c>
+      <c r="E466" s="2"/>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" t="s">
+        <v>466</v>
+      </c>
+      <c r="E467" s="2"/>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" t="s">
+        <v>467</v>
+      </c>
+      <c r="E468" s="2"/>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" t="s">
+        <v>468</v>
+      </c>
+      <c r="E469" s="2"/>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" t="s">
+        <v>469</v>
+      </c>
+      <c r="E470" s="2"/>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" t="s">
+        <v>470</v>
+      </c>
+      <c r="E471" s="2"/>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" t="s">
+        <v>471</v>
+      </c>
+      <c r="E472" s="2"/>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" t="s">
+        <v>472</v>
+      </c>
+      <c r="E473" s="11"/>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" t="s">
+        <v>473</v>
+      </c>
+      <c r="E474" s="10"/>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" t="s">
+        <v>474</v>
+      </c>
+      <c r="E475" s="11"/>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" t="s">
+        <v>475</v>
+      </c>
+      <c r="E476" s="10"/>
+    </row>
+    <row r="477" spans="5:5">
+      <c r="E477" s="10"/>
+    </row>
+    <row r="478" spans="5:5">
+      <c r="E478" s="10"/>
+    </row>
+    <row r="479" spans="5:5">
+      <c r="E479" s="10"/>
+    </row>
+    <row r="480" spans="5:5">
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="5:5">
+      <c r="E481" s="10"/>
+    </row>
+    <row r="482" spans="5:5">
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="5:5">
+      <c r="E483" s="10"/>
+    </row>
+    <row r="484" spans="5:5">
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="5:5">
+      <c r="E485" s="10"/>
+    </row>
+    <row r="486" spans="5:5">
+      <c r="E486" s="10"/>
+    </row>
+    <row r="487" spans="5:5">
+      <c r="E487" s="10"/>
+    </row>
+    <row r="488" spans="5:5">
+      <c r="E488" s="10"/>
+    </row>
+    <row r="489" spans="5:5">
+      <c r="E489" s="10"/>
+    </row>
+    <row r="490" spans="5:5">
+      <c r="E490" s="10"/>
+    </row>
+    <row r="491" spans="5:5">
+      <c r="E491" s="10"/>
+    </row>
+    <row r="492" spans="5:5">
+      <c r="E492" s="10"/>
+    </row>
+    <row r="493" spans="5:5">
+      <c r="E493" s="10"/>
+    </row>
+    <row r="494" spans="5:5">
+      <c r="E494" s="10"/>
+    </row>
+    <row r="495" spans="5:5">
+      <c r="E495" s="10"/>
+    </row>
+    <row r="496" spans="5:5">
+      <c r="E496" s="10"/>
+    </row>
+    <row r="497" spans="5:5">
+      <c r="E497" s="10"/>
+    </row>
+    <row r="498" spans="5:5">
+      <c r="E498" s="10"/>
+    </row>
+    <row r="499" spans="5:5">
+      <c r="E499" s="10"/>
+    </row>
+    <row r="500" spans="5:5">
+      <c r="E500" s="10"/>
+    </row>
+    <row r="501" spans="5:5">
+      <c r="E501" s="10"/>
+    </row>
+    <row r="502" spans="5:5">
+      <c r="E502" s="10"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E238">
+    <cfRule type="duplicateValues" dxfId="0" priority="2381"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2380"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E360">
+    <cfRule type="duplicateValues" dxfId="0" priority="1342"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E446">
+    <cfRule type="duplicateValues" dxfId="0" priority="481"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E473">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E474">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E475">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E476">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E477">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E478">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E479">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E480">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E481">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E482">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E483">
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E484">
+    <cfRule type="duplicateValues" dxfId="0" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E485">
+    <cfRule type="duplicateValues" dxfId="0" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="96"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="95"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="94"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E486">
+    <cfRule type="duplicateValues" dxfId="0" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="107"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="105"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="104"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="103"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E487">
+    <cfRule type="duplicateValues" dxfId="0" priority="118"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="117"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="113"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E488">
+    <cfRule type="duplicateValues" dxfId="0" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="124"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="123"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="122"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="121"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="120"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E489">
+    <cfRule type="duplicateValues" dxfId="0" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="134"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="132"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="128"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E490">
+    <cfRule type="duplicateValues" dxfId="0" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="140"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="137"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E491">
+    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="152"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="150"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="149"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="148"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="147"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E492">
+    <cfRule type="duplicateValues" dxfId="0" priority="163"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="162"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="160"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="158"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="155"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E493">
+    <cfRule type="duplicateValues" dxfId="0" priority="172"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="170"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="168"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="167"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="166"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="164"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E494">
+    <cfRule type="duplicateValues" dxfId="0" priority="181"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="180"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="179"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="178"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="177"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="176"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="175"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="174"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="173"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E495">
+    <cfRule type="duplicateValues" dxfId="0" priority="190"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="189"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="187"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="186"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="185"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="184"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="183"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="182"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E496">
+    <cfRule type="duplicateValues" dxfId="0" priority="199"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="198"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="197"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="196"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="195"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="194"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="193"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="192"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="191"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E497">
+    <cfRule type="duplicateValues" dxfId="0" priority="208"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="207"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="206"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="205"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="204"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="203"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="202"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="201"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="200"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E498">
+    <cfRule type="duplicateValues" dxfId="0" priority="217"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="216"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="215"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="214"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="213"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="212"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="211"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E499">
+    <cfRule type="duplicateValues" dxfId="0" priority="226"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="225"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="224"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="223"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="222"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="221"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="220"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="219"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="218"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E500">
+    <cfRule type="duplicateValues" dxfId="0" priority="235"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="234"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="233"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="232"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="231"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="230"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="229"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="228"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="227"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E501">
+    <cfRule type="duplicateValues" dxfId="0" priority="244"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="243"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="242"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="241"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="240"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="239"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="238"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="237"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="236"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E502">
+    <cfRule type="duplicateValues" dxfId="0" priority="3601"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3600"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3599"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3598"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3597"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3596"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3595"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3594"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3593"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="duplicateValues" dxfId="0" priority="3603"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3602"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E31">
+    <cfRule type="duplicateValues" dxfId="0" priority="3576"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3575"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="duplicateValues" dxfId="0" priority="3540"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3539"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E43">
+    <cfRule type="duplicateValues" dxfId="0" priority="3495"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3494"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E58">
+    <cfRule type="duplicateValues" dxfId="0" priority="3441"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E59:E74">
+    <cfRule type="duplicateValues" dxfId="0" priority="3378"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3377"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:E86">
+    <cfRule type="duplicateValues" dxfId="0" priority="3306"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3305"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E103">
+    <cfRule type="duplicateValues" dxfId="0" priority="3225"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3224"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104:E127">
+    <cfRule type="duplicateValues" dxfId="0" priority="3135"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3134"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E128:E148">
+    <cfRule type="duplicateValues" dxfId="0" priority="3036"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3035"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E149:E175">
+    <cfRule type="duplicateValues" dxfId="0" priority="2928"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2927"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E176:E191">
+    <cfRule type="duplicateValues" dxfId="0" priority="2811"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2810"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E192:E208">
+    <cfRule type="duplicateValues" dxfId="0" priority="2685"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2684"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E209:E226">
+    <cfRule type="duplicateValues" dxfId="0" priority="2550"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2549"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E241:E260">
+    <cfRule type="duplicateValues" dxfId="0" priority="2253"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2252"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E261:E279">
+    <cfRule type="duplicateValues" dxfId="0" priority="2093"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2092"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E298:E299">
+    <cfRule type="duplicateValues" dxfId="0" priority="1902"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E301:E323">
+    <cfRule type="duplicateValues" dxfId="0" priority="1746"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1745"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E324:E351">
+    <cfRule type="duplicateValues" dxfId="0" priority="1560"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1559"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E367:E373">
+    <cfRule type="duplicateValues" dxfId="0" priority="1343"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E374:E393">
+    <cfRule type="duplicateValues" dxfId="0" priority="1161"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E394:E405">
+    <cfRule type="duplicateValues" dxfId="0" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="949"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E424:E425">
+    <cfRule type="duplicateValues" dxfId="0" priority="709"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E427:E445">
+    <cfRule type="duplicateValues" dxfId="0" priority="501"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="500"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E460:E461">
+    <cfRule type="duplicateValues" dxfId="0" priority="246"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E463:E472">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E227:E237 E239:E240">
+    <cfRule type="duplicateValues" dxfId="0" priority="2406"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2405"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E300 E280:E297">
+    <cfRule type="duplicateValues" dxfId="0" priority="1924"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1923"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E352:E359 E361:E366">
+    <cfRule type="duplicateValues" dxfId="0" priority="1365"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1364"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E406:E423 E426">
+    <cfRule type="duplicateValues" dxfId="0" priority="730"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="729"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E462 E447:E459">
+    <cfRule type="duplicateValues" dxfId="0" priority="264"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="263"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -280,7 +280,7 @@
     <t>UMME KULSUM UBED NIYAZI RESULT</t>
   </si>
   <si>
-    <t>UMAR USMAN ANSAR RESULT</t>
+    <t>UMAR USMAN ANSARI RESULT</t>
   </si>
   <si>
     <t>AYAN MOHAMMAD  DIKSANGI RESULT</t>
@@ -2571,8 +2571,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="555">
   <si>
     <t>Names</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>MAAZ SHAKIR BEG RESULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> RESULT</t>
   </si>
   <si>
     <t>ABDUL WAHHAB USMAN ANSARI RESULT</t>
@@ -2773,8 +2770,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E582"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2801,4564 +2798,3980 @@
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="str">
-        <f>""&amp;A3&amp;""&amp;B3</f>
-        <v>MAAZ SHAKIR BEG RESULT RESULT</v>
-      </c>
+      <c r="B3"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4"/>
+        <v>3</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5"/>
+        <v>4</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6"/>
+        <v>5</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7"/>
+        <v>6</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8"/>
+        <v>7</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9"/>
+        <v>8</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10"/>
+        <v>9</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11"/>
+        <v>10</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12"/>
+        <v>11</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13"/>
+        <v>12</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14"/>
+        <v>13</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15"/>
+        <v>14</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16"/>
+        <v>15</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17"/>
+        <v>16</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18"/>
+        <v>17</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19"/>
+        <v>18</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20"/>
+        <v>19</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21"/>
+        <v>20</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22"/>
+        <v>21</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23"/>
+        <v>22</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24"/>
+        <v>23</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25"/>
+        <v>24</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26"/>
+        <v>25</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27"/>
+        <v>26</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28"/>
+        <v>27</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29"/>
+        <v>28</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30"/>
+        <v>29</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31"/>
+        <v>30</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32"/>
+        <v>31</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33"/>
+        <v>32</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34"/>
+        <v>33</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35"/>
+        <v>34</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36"/>
+        <v>35</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37"/>
+        <v>36</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38"/>
+        <v>37</v>
+      </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39"/>
+        <v>38</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40"/>
+        <v>39</v>
+      </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41"/>
+        <v>40</v>
+      </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42"/>
+        <v>41</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43"/>
+        <v>42</v>
+      </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44"/>
+        <v>43</v>
+      </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45"/>
+        <v>44</v>
+      </c>
       <c r="D45" s="3"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46"/>
+        <v>45</v>
+      </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47"/>
+        <v>46</v>
+      </c>
       <c r="D47" s="3"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48"/>
+        <v>47</v>
+      </c>
       <c r="D48" s="3"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49"/>
+        <v>48</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50"/>
+        <v>49</v>
+      </c>
       <c r="D50" s="3"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51"/>
+        <v>50</v>
+      </c>
       <c r="D51" s="3"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52"/>
+        <v>51</v>
+      </c>
       <c r="D52" s="3"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53"/>
+        <v>52</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54"/>
+        <v>53</v>
+      </c>
       <c r="D54" s="3"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55"/>
+        <v>54</v>
+      </c>
       <c r="D55" s="3"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56"/>
+        <v>55</v>
+      </c>
       <c r="D56" s="3"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57"/>
+        <v>56</v>
+      </c>
       <c r="D57" s="3"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58"/>
+        <v>57</v>
+      </c>
       <c r="D58" s="3"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59"/>
+        <v>58</v>
+      </c>
       <c r="D59" s="3"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60"/>
+        <v>59</v>
+      </c>
       <c r="D60" s="3"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61"/>
+        <v>60</v>
+      </c>
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" ht="24" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62"/>
+        <v>61</v>
+      </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" ht="24" spans="1:5">
       <c r="A63" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63"/>
+        <v>62</v>
+      </c>
       <c r="D63" s="3"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64"/>
+        <v>63</v>
+      </c>
       <c r="D64" s="3"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65"/>
+        <v>64</v>
+      </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66"/>
+        <v>65</v>
+      </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67"/>
+        <v>66</v>
+      </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68"/>
+        <v>67</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69"/>
+        <v>68</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70"/>
+        <v>69</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71"/>
+        <v>70</v>
+      </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72"/>
+        <v>71</v>
+      </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73"/>
+        <v>72</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74"/>
+        <v>73</v>
+      </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75"/>
+        <v>74</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76"/>
+        <v>75</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77"/>
+        <v>63</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78"/>
+        <v>76</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79"/>
+        <v>77</v>
+      </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80"/>
+        <v>78</v>
+      </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81"/>
+        <v>79</v>
+      </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82"/>
+        <v>80</v>
+      </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83"/>
+        <v>81</v>
+      </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84"/>
+        <v>82</v>
+      </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85"/>
+        <v>83</v>
+      </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86"/>
+        <v>84</v>
+      </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87"/>
+        <v>85</v>
+      </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88"/>
+        <v>86</v>
+      </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89"/>
+        <v>87</v>
+      </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90"/>
+        <v>88</v>
+      </c>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91"/>
+        <v>89</v>
+      </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92"/>
+        <v>90</v>
+      </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93"/>
+        <v>91</v>
+      </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94"/>
+        <v>92</v>
+      </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95"/>
+        <v>93</v>
+      </c>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96"/>
+        <v>94</v>
+      </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97"/>
+        <v>95</v>
+      </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98"/>
+        <v>96</v>
+      </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99"/>
+        <v>97</v>
+      </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100"/>
+        <v>24</v>
+      </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101"/>
+        <v>98</v>
+      </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102"/>
+        <v>99</v>
+      </c>
       <c r="D102" s="3"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103"/>
+        <v>100</v>
+      </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104"/>
+        <v>101</v>
+      </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105"/>
+        <v>102</v>
+      </c>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106"/>
+        <v>103</v>
+      </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107"/>
+        <v>104</v>
+      </c>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108"/>
+        <v>105</v>
+      </c>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109"/>
+        <v>106</v>
+      </c>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110"/>
+        <v>107</v>
+      </c>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111"/>
+        <v>108</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112"/>
+        <v>109</v>
+      </c>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113"/>
+        <v>110</v>
+      </c>
       <c r="D113" s="3"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114"/>
+        <v>111</v>
+      </c>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115"/>
+        <v>112</v>
+      </c>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116"/>
+        <v>113</v>
+      </c>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117"/>
+        <v>114</v>
+      </c>
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118"/>
+        <v>115</v>
+      </c>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B119"/>
+        <v>116</v>
+      </c>
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120"/>
+        <v>117</v>
+      </c>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121"/>
+        <v>118</v>
+      </c>
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122"/>
+        <v>119</v>
+      </c>
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B123"/>
+        <v>120</v>
+      </c>
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B124"/>
+        <v>121</v>
+      </c>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B125"/>
+        <v>122</v>
+      </c>
       <c r="D125" s="3"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B126"/>
+        <v>123</v>
+      </c>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B127"/>
+        <v>124</v>
+      </c>
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128"/>
+        <v>45</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129"/>
+        <v>125</v>
+      </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130"/>
+        <v>126</v>
+      </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131"/>
+        <v>127</v>
+      </c>
       <c r="D131" s="3"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132"/>
+        <v>128</v>
+      </c>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133"/>
+        <v>129</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134"/>
+        <v>130</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135"/>
+        <v>131</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136"/>
+        <v>132</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137"/>
+        <v>133</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138"/>
+        <v>134</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139"/>
+        <v>135</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140"/>
+        <v>136</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141"/>
+        <v>137</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142"/>
+        <v>138</v>
+      </c>
       <c r="D142" s="3"/>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143"/>
+        <v>139</v>
+      </c>
       <c r="D143" s="3"/>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144"/>
+        <v>140</v>
+      </c>
       <c r="D144" s="3"/>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145"/>
+        <v>141</v>
+      </c>
       <c r="D145" s="3"/>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146"/>
+        <v>142</v>
+      </c>
       <c r="D146" s="3"/>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B147"/>
+        <v>63</v>
+      </c>
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148"/>
+        <v>143</v>
+      </c>
       <c r="D148" s="3"/>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149"/>
+        <v>144</v>
+      </c>
       <c r="D149" s="3"/>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150"/>
+        <v>145</v>
+      </c>
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151"/>
+        <v>146</v>
+      </c>
       <c r="D151" s="3"/>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152"/>
+        <v>147</v>
+      </c>
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
     </row>
     <row r="153" ht="24" spans="1:5">
       <c r="A153" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153"/>
+        <v>148</v>
+      </c>
       <c r="D153" s="3"/>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154"/>
+        <v>149</v>
+      </c>
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155"/>
+        <v>150</v>
+      </c>
       <c r="D155" s="3"/>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156"/>
+        <v>151</v>
+      </c>
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157"/>
+        <v>152</v>
+      </c>
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B158"/>
+        <v>153</v>
+      </c>
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159"/>
+        <v>154</v>
+      </c>
       <c r="D159" s="3"/>
       <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160"/>
+        <v>155</v>
+      </c>
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161"/>
+        <v>156</v>
+      </c>
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162"/>
+        <v>157</v>
+      </c>
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163"/>
+        <v>158</v>
+      </c>
       <c r="D163" s="3"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B164"/>
+        <v>159</v>
+      </c>
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B165"/>
+        <v>160</v>
+      </c>
       <c r="D165" s="3"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B166"/>
+        <v>161</v>
+      </c>
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B167"/>
+        <v>162</v>
+      </c>
       <c r="D167" s="3"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B168"/>
+        <v>163</v>
+      </c>
       <c r="D168" s="3"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B169"/>
+        <v>164</v>
+      </c>
       <c r="D169" s="3"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B170"/>
+        <v>165</v>
+      </c>
       <c r="D170" s="3"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B171"/>
+        <v>166</v>
+      </c>
       <c r="D171" s="3"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B172"/>
+        <v>167</v>
+      </c>
       <c r="D172" s="3"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B173"/>
+        <v>168</v>
+      </c>
       <c r="D173" s="3"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B174"/>
+        <v>169</v>
+      </c>
       <c r="D174" s="3"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B175"/>
+        <v>170</v>
+      </c>
       <c r="D175" s="3"/>
       <c r="E175" s="4"/>
     </row>
     <row r="176" ht="24" spans="1:5">
       <c r="A176" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B176"/>
+        <v>171</v>
+      </c>
       <c r="D176" s="3"/>
       <c r="E176" s="4"/>
     </row>
     <row r="177" ht="24" spans="1:5">
       <c r="A177" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B177"/>
+        <v>172</v>
+      </c>
       <c r="D177" s="3"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B178"/>
+        <v>24</v>
+      </c>
       <c r="D178" s="3"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B179"/>
+        <v>173</v>
+      </c>
       <c r="D179" s="3"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B180"/>
+        <v>174</v>
+      </c>
       <c r="D180" s="3"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B181"/>
+        <v>175</v>
+      </c>
       <c r="D181" s="3"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B182"/>
+        <v>176</v>
+      </c>
       <c r="D182" s="3"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B183"/>
+        <v>177</v>
+      </c>
       <c r="D183" s="3"/>
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B184"/>
+        <v>178</v>
+      </c>
       <c r="D184" s="3"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B185"/>
+        <v>179</v>
+      </c>
       <c r="D185" s="3"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B186"/>
+        <v>180</v>
+      </c>
       <c r="D186" s="3"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B187"/>
+        <v>181</v>
+      </c>
       <c r="D187" s="3"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B188"/>
+        <v>182</v>
+      </c>
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B189"/>
+        <v>183</v>
+      </c>
       <c r="D189" s="3"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B190"/>
+        <v>184</v>
+      </c>
       <c r="D190" s="3"/>
       <c r="E190" s="4"/>
     </row>
     <row r="191" ht="24" spans="1:5">
       <c r="A191" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="B191"/>
+        <v>185</v>
+      </c>
       <c r="D191" s="3"/>
       <c r="E191" s="4"/>
     </row>
     <row r="192" ht="24" spans="1:5">
       <c r="A192" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B192"/>
+        <v>186</v>
+      </c>
       <c r="D192" s="3"/>
       <c r="E192" s="4"/>
     </row>
     <row r="193" ht="24" spans="1:5">
       <c r="A193" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B193"/>
+        <v>187</v>
+      </c>
       <c r="D193" s="3"/>
       <c r="E193" s="4"/>
     </row>
     <row r="194" ht="24" spans="1:5">
       <c r="A194" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B194"/>
+        <v>188</v>
+      </c>
       <c r="D194" s="3"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B195"/>
+        <v>24</v>
+      </c>
       <c r="D195" s="3"/>
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B196"/>
+        <v>189</v>
+      </c>
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B197"/>
+        <v>190</v>
+      </c>
       <c r="D197" s="3"/>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B198"/>
+        <v>191</v>
+      </c>
       <c r="D198" s="3"/>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B199"/>
+        <v>192</v>
+      </c>
       <c r="D199" s="3"/>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B200"/>
+        <v>193</v>
+      </c>
       <c r="D200" s="3"/>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B201"/>
+        <v>194</v>
+      </c>
       <c r="D201" s="3"/>
       <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B202"/>
+        <v>195</v>
+      </c>
       <c r="D202" s="3"/>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="B203"/>
+        <v>196</v>
+      </c>
       <c r="D203" s="3"/>
       <c r="E203" s="4"/>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B204"/>
+        <v>197</v>
+      </c>
       <c r="D204" s="3"/>
       <c r="E204" s="4"/>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="B205"/>
+        <v>198</v>
+      </c>
       <c r="D205" s="3"/>
       <c r="E205" s="4"/>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B206"/>
+        <v>199</v>
+      </c>
       <c r="D206" s="3"/>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B207"/>
+        <v>200</v>
+      </c>
       <c r="D207" s="3"/>
       <c r="E207" s="4"/>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B208"/>
+        <v>201</v>
+      </c>
       <c r="D208" s="3"/>
       <c r="E208" s="4"/>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B209"/>
+        <v>202</v>
+      </c>
       <c r="D209" s="3"/>
       <c r="E209" s="4"/>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B210"/>
+        <v>203</v>
+      </c>
       <c r="D210" s="3"/>
       <c r="E210" s="4"/>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="B211"/>
+        <v>204</v>
+      </c>
       <c r="D211" s="3"/>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B212"/>
+        <v>205</v>
+      </c>
       <c r="D212" s="3"/>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B213"/>
+        <v>206</v>
+      </c>
       <c r="D213" s="3"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B214"/>
+        <v>207</v>
+      </c>
       <c r="D214" s="3"/>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="B215"/>
+        <v>208</v>
+      </c>
       <c r="D215" s="3"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B216"/>
+        <v>209</v>
+      </c>
       <c r="D216" s="3"/>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="B217"/>
+        <v>210</v>
+      </c>
       <c r="D217" s="3"/>
       <c r="E217" s="4"/>
     </row>
     <row r="218" ht="24" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B218"/>
+        <v>211</v>
+      </c>
       <c r="D218" s="3"/>
       <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B219"/>
+        <v>212</v>
+      </c>
       <c r="D219" s="3"/>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B220"/>
+        <v>213</v>
+      </c>
       <c r="D220" s="3"/>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B221"/>
+        <v>214</v>
+      </c>
       <c r="D221" s="3"/>
       <c r="E221" s="4"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B222"/>
+        <v>215</v>
+      </c>
       <c r="D222" s="3"/>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B223"/>
+        <v>216</v>
+      </c>
       <c r="D223" s="3"/>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B224"/>
+        <v>217</v>
+      </c>
       <c r="D224" s="3"/>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B225"/>
+        <v>218</v>
+      </c>
       <c r="D225" s="3"/>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B226"/>
+        <v>219</v>
+      </c>
       <c r="D226" s="3"/>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B227"/>
+        <v>220</v>
+      </c>
       <c r="D227" s="3"/>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B228"/>
+        <v>221</v>
+      </c>
       <c r="D228" s="3"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B229"/>
+        <v>222</v>
+      </c>
       <c r="D229" s="3"/>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B230"/>
+        <v>223</v>
+      </c>
       <c r="D230" s="3"/>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B231"/>
+        <v>224</v>
+      </c>
       <c r="D231" s="3"/>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B232"/>
+        <v>225</v>
+      </c>
       <c r="D232" s="3"/>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B233"/>
+        <v>226</v>
+      </c>
       <c r="D233" s="3"/>
       <c r="E233" s="4"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B234"/>
+        <v>227</v>
+      </c>
       <c r="D234" s="3"/>
       <c r="E234" s="4"/>
     </row>
     <row r="235" ht="24" spans="1:5">
       <c r="A235" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B235"/>
+        <v>228</v>
+      </c>
       <c r="D235" s="3"/>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B236"/>
+        <v>229</v>
+      </c>
       <c r="D236" s="3"/>
       <c r="E236" s="4"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B237"/>
+        <v>230</v>
+      </c>
       <c r="D237" s="3"/>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B238"/>
+        <v>231</v>
+      </c>
       <c r="D238" s="3"/>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B239"/>
+        <v>232</v>
+      </c>
       <c r="D239" s="3"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B240"/>
+        <v>45</v>
+      </c>
       <c r="D240" s="3"/>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="B241"/>
+        <v>233</v>
+      </c>
       <c r="D241" s="3"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="B242"/>
+        <v>234</v>
+      </c>
       <c r="D242" s="3"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="B243"/>
+        <v>235</v>
+      </c>
       <c r="D243" s="3"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="B244"/>
+        <v>236</v>
+      </c>
       <c r="D244" s="3"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="B245"/>
+        <v>237</v>
+      </c>
       <c r="D245" s="3"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="B246"/>
+        <v>238</v>
+      </c>
       <c r="D246" s="3"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B247"/>
+        <v>239</v>
+      </c>
       <c r="D247" s="3"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B248"/>
+        <v>240</v>
+      </c>
       <c r="D248" s="3"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B249"/>
+        <v>241</v>
+      </c>
       <c r="D249" s="3"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B250"/>
+        <v>242</v>
+      </c>
       <c r="D250" s="3"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B251"/>
+        <v>243</v>
+      </c>
       <c r="D251" s="3"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B252"/>
+        <v>244</v>
+      </c>
       <c r="D252" s="3"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="B253"/>
+        <v>245</v>
+      </c>
       <c r="D253" s="3"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B254"/>
+        <v>246</v>
+      </c>
       <c r="D254" s="3"/>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="B255"/>
+        <v>247</v>
+      </c>
       <c r="D255" s="3"/>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="B256"/>
+        <v>248</v>
+      </c>
       <c r="D256" s="3"/>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B257"/>
+        <v>249</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="B258"/>
+        <v>250</v>
+      </c>
       <c r="D258" s="3"/>
       <c r="E258" s="4"/>
     </row>
     <row r="259" ht="24" spans="1:5">
       <c r="A259" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="B259"/>
+        <v>251</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="4"/>
     </row>
     <row r="260" ht="24" spans="1:5">
       <c r="A260" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="B260"/>
+        <v>252</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="4"/>
     </row>
     <row r="261" ht="24" spans="1:5">
       <c r="A261" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B261"/>
+        <v>253</v>
+      </c>
       <c r="D261" s="3"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B262"/>
+        <v>254</v>
+      </c>
       <c r="D262" s="3"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B263"/>
+        <v>255</v>
+      </c>
       <c r="D263" s="3"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B264"/>
+        <v>256</v>
+      </c>
       <c r="D264" s="3"/>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B265"/>
+        <v>257</v>
+      </c>
       <c r="D265" s="3"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B266"/>
+        <v>258</v>
+      </c>
       <c r="D266" s="3"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B267"/>
+        <v>259</v>
+      </c>
       <c r="D267" s="3"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B268"/>
+        <v>260</v>
+      </c>
       <c r="D268" s="3"/>
       <c r="E268" s="4"/>
     </row>
     <row r="269" ht="24" spans="1:5">
       <c r="A269" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B269"/>
+        <v>261</v>
+      </c>
       <c r="D269" s="3"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B270"/>
+        <v>262</v>
+      </c>
       <c r="D270" s="3"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B271"/>
+        <v>263</v>
+      </c>
       <c r="D271" s="3"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B272"/>
+        <v>264</v>
+      </c>
       <c r="D272" s="3"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B273"/>
+        <v>265</v>
+      </c>
       <c r="D273" s="3"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B274"/>
+        <v>266</v>
+      </c>
       <c r="D274" s="3"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B275"/>
+        <v>267</v>
+      </c>
       <c r="D275" s="3"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B276"/>
+        <v>268</v>
+      </c>
       <c r="D276" s="3"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B277"/>
+        <v>269</v>
+      </c>
       <c r="D277" s="3"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B278"/>
+        <v>270</v>
+      </c>
       <c r="D278" s="3"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B279"/>
+        <v>271</v>
+      </c>
       <c r="D279" s="3"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="B280"/>
+        <v>272</v>
+      </c>
       <c r="D280" s="3"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B281"/>
+        <v>273</v>
+      </c>
       <c r="D281" s="3"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B282"/>
+        <v>274</v>
+      </c>
       <c r="D282" s="3"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B283"/>
+        <v>275</v>
+      </c>
       <c r="D283" s="3"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="B284"/>
+        <v>276</v>
+      </c>
       <c r="D284" s="3"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B285"/>
+        <v>277</v>
+      </c>
       <c r="D285" s="3"/>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B286"/>
+        <v>278</v>
+      </c>
       <c r="D286" s="3"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B287"/>
+        <v>279</v>
+      </c>
       <c r="D287" s="3"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="B288"/>
+        <v>280</v>
+      </c>
       <c r="D288" s="3"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="B289"/>
+        <v>281</v>
+      </c>
       <c r="D289" s="3"/>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B290"/>
+        <v>282</v>
+      </c>
       <c r="D290" s="3"/>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B291"/>
+        <v>283</v>
+      </c>
       <c r="D291" s="3"/>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="B292"/>
+        <v>284</v>
+      </c>
       <c r="D292" s="3"/>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B293"/>
+        <v>285</v>
+      </c>
       <c r="D293" s="3"/>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B294"/>
+        <v>24</v>
+      </c>
       <c r="D294" s="3"/>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="B295"/>
+        <v>286</v>
+      </c>
       <c r="D295" s="3"/>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="B296"/>
+        <v>287</v>
+      </c>
       <c r="D296" s="3"/>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B297"/>
+        <v>288</v>
+      </c>
       <c r="D297" s="3"/>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B298"/>
+        <v>289</v>
+      </c>
       <c r="D298" s="3"/>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B299"/>
+        <v>290</v>
+      </c>
       <c r="D299" s="3"/>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B300"/>
+        <v>291</v>
+      </c>
       <c r="D300" s="3"/>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B301"/>
+        <v>292</v>
+      </c>
       <c r="D301" s="3"/>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B302"/>
+        <v>293</v>
+      </c>
       <c r="D302" s="3"/>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B303"/>
+        <v>294</v>
+      </c>
       <c r="D303" s="3"/>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B304"/>
+        <v>295</v>
+      </c>
       <c r="D304" s="3"/>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B305"/>
+        <v>296</v>
+      </c>
       <c r="D305" s="3"/>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="B306"/>
+        <v>297</v>
+      </c>
       <c r="D306" s="3"/>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B307"/>
+        <v>298</v>
+      </c>
       <c r="D307" s="3"/>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B308"/>
+        <v>299</v>
+      </c>
       <c r="D308" s="3"/>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="B309"/>
+        <v>300</v>
+      </c>
       <c r="D309" s="3"/>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="B310"/>
+        <v>301</v>
+      </c>
       <c r="D310" s="3"/>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B311"/>
+        <v>302</v>
+      </c>
       <c r="D311" s="3"/>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B312"/>
+        <v>303</v>
+      </c>
       <c r="D312" s="3"/>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B313"/>
+        <v>304</v>
+      </c>
       <c r="D313" s="3"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="B314"/>
+        <v>305</v>
+      </c>
       <c r="D314" s="3"/>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B315"/>
+        <v>306</v>
+      </c>
       <c r="D315" s="3"/>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B316"/>
+        <v>307</v>
+      </c>
       <c r="D316" s="3"/>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="B317"/>
+        <v>308</v>
+      </c>
       <c r="D317" s="3"/>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B318"/>
+        <v>309</v>
+      </c>
       <c r="D318" s="3"/>
       <c r="E318" s="4"/>
     </row>
     <row r="319" ht="24" spans="1:5">
       <c r="A319" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="B319"/>
+        <v>310</v>
+      </c>
       <c r="D319" s="3"/>
       <c r="E319" s="4"/>
     </row>
     <row r="320" ht="24" spans="1:5">
       <c r="A320" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="B320"/>
+        <v>311</v>
+      </c>
       <c r="D320" s="3"/>
       <c r="E320" s="4"/>
     </row>
     <row r="321" ht="24" spans="1:5">
       <c r="A321" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="B321"/>
+        <v>312</v>
+      </c>
       <c r="D321" s="3"/>
       <c r="E321" s="4"/>
     </row>
     <row r="322" ht="24" spans="1:5">
       <c r="A322" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="B322"/>
+        <v>313</v>
+      </c>
       <c r="D322" s="3"/>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="B323"/>
+        <v>314</v>
+      </c>
       <c r="D323" s="3"/>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B324"/>
+        <v>315</v>
+      </c>
       <c r="D324" s="3"/>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B325"/>
+        <v>35</v>
+      </c>
       <c r="D325" s="3"/>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B326"/>
+        <v>316</v>
+      </c>
       <c r="D326" s="3"/>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B327"/>
+        <v>317</v>
+      </c>
       <c r="D327" s="3"/>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B328"/>
+        <v>318</v>
+      </c>
       <c r="D328" s="3"/>
       <c r="E328" s="4"/>
     </row>
     <row r="329" ht="24" spans="1:5">
       <c r="A329" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B329"/>
+        <v>319</v>
+      </c>
       <c r="D329" s="3"/>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B330"/>
+        <v>320</v>
+      </c>
       <c r="D330" s="3"/>
       <c r="E330" s="4"/>
     </row>
     <row r="331" ht="24" spans="1:5">
       <c r="A331" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B331"/>
+        <v>321</v>
+      </c>
       <c r="D331" s="3"/>
       <c r="E331" s="4"/>
     </row>
     <row r="332" ht="24" spans="1:5">
       <c r="A332" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B332"/>
+        <v>322</v>
+      </c>
       <c r="D332" s="3"/>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B333"/>
+        <v>24</v>
+      </c>
       <c r="D333" s="3"/>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B334"/>
+        <v>323</v>
+      </c>
       <c r="D334" s="3"/>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B335"/>
+        <v>324</v>
+      </c>
       <c r="D335" s="3"/>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B336"/>
+        <v>325</v>
+      </c>
       <c r="D336" s="3"/>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="B337"/>
+        <v>326</v>
+      </c>
       <c r="D337" s="3"/>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B338"/>
+        <v>327</v>
+      </c>
       <c r="D338" s="3"/>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="B339"/>
+        <v>328</v>
+      </c>
       <c r="D339" s="3"/>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B340"/>
+        <v>329</v>
+      </c>
       <c r="D340" s="3"/>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B341"/>
+        <v>330</v>
+      </c>
       <c r="D341" s="3"/>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B342"/>
+        <v>331</v>
+      </c>
       <c r="D342" s="3"/>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B343"/>
+        <v>332</v>
+      </c>
       <c r="D343" s="3"/>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B344"/>
+        <v>333</v>
+      </c>
       <c r="D344" s="3"/>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B345"/>
+        <v>334</v>
+      </c>
       <c r="D345" s="3"/>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B346"/>
+        <v>335</v>
+      </c>
       <c r="D346" s="3"/>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B347"/>
+        <v>336</v>
+      </c>
       <c r="D347" s="3"/>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B348"/>
+        <v>337</v>
+      </c>
       <c r="D348" s="3"/>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B349"/>
+        <v>338</v>
+      </c>
       <c r="D349" s="3"/>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B350"/>
+        <v>339</v>
+      </c>
       <c r="D350" s="3"/>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B351"/>
+        <v>340</v>
+      </c>
       <c r="D351" s="3"/>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="17" t="s">
-        <v>342</v>
-      </c>
-      <c r="B352"/>
+        <v>341</v>
+      </c>
       <c r="D352" s="3"/>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B353"/>
+        <v>342</v>
+      </c>
       <c r="D353" s="3"/>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B354"/>
+        <v>343</v>
+      </c>
       <c r="D354" s="3"/>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B355"/>
+        <v>344</v>
+      </c>
       <c r="D355" s="3"/>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B356"/>
+        <v>345</v>
+      </c>
       <c r="D356" s="3"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B357"/>
+        <v>346</v>
+      </c>
       <c r="D357" s="3"/>
       <c r="E357" s="4"/>
     </row>
     <row r="358" ht="24" spans="1:5">
       <c r="A358" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B358"/>
+        <v>347</v>
+      </c>
       <c r="D358" s="3"/>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="B359"/>
+        <v>348</v>
+      </c>
       <c r="D359" s="3"/>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="B360"/>
+        <v>349</v>
+      </c>
       <c r="D360" s="3"/>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B361"/>
+        <v>45</v>
+      </c>
       <c r="D361" s="3"/>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B362"/>
+        <v>350</v>
+      </c>
       <c r="D362" s="3"/>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="B363"/>
+        <v>351</v>
+      </c>
       <c r="D363" s="3"/>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="B364"/>
+        <v>352</v>
+      </c>
       <c r="D364" s="3"/>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="B365"/>
+        <v>353</v>
+      </c>
       <c r="D365" s="3"/>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B366"/>
+        <v>354</v>
+      </c>
       <c r="D366" s="3"/>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B367"/>
+        <v>355</v>
+      </c>
       <c r="D367" s="3"/>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B368"/>
+        <v>356</v>
+      </c>
       <c r="D368" s="3"/>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B369"/>
+        <v>357</v>
+      </c>
       <c r="D369" s="3"/>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="B370"/>
+        <v>358</v>
+      </c>
       <c r="D370" s="3"/>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B371"/>
+        <v>359</v>
+      </c>
       <c r="D371" s="3"/>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="17" t="s">
-        <v>361</v>
-      </c>
-      <c r="B372"/>
+        <v>360</v>
+      </c>
       <c r="D372" s="3"/>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B373"/>
+        <v>361</v>
+      </c>
       <c r="D373" s="3"/>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B374"/>
+        <v>362</v>
+      </c>
       <c r="D374" s="3"/>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="B375"/>
+        <v>363</v>
+      </c>
       <c r="D375" s="3"/>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="B376"/>
+        <v>364</v>
+      </c>
       <c r="D376" s="3"/>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B377"/>
+        <v>365</v>
+      </c>
       <c r="D377" s="3"/>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B378"/>
+        <v>366</v>
+      </c>
       <c r="D378" s="3"/>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B379"/>
+        <v>367</v>
+      </c>
       <c r="D379" s="3"/>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B380"/>
+        <v>368</v>
+      </c>
       <c r="D380" s="3"/>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="B381"/>
+        <v>369</v>
+      </c>
       <c r="D381" s="3"/>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B382"/>
+        <v>370</v>
+      </c>
       <c r="D382" s="3"/>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B383"/>
+        <v>371</v>
+      </c>
       <c r="D383" s="3"/>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="B384"/>
+        <v>372</v>
+      </c>
       <c r="D384" s="3"/>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="B385"/>
+        <v>373</v>
+      </c>
       <c r="D385" s="3"/>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B386"/>
+        <v>374</v>
+      </c>
       <c r="D386" s="3"/>
       <c r="E386" s="4"/>
     </row>
     <row r="387" ht="24" spans="1:5">
       <c r="A387" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="B387"/>
+        <v>375</v>
+      </c>
       <c r="D387" s="3"/>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="B388"/>
+        <v>376</v>
+      </c>
       <c r="D388" s="3"/>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="B389"/>
+        <v>377</v>
+      </c>
       <c r="D389" s="3"/>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="B390"/>
+        <v>378</v>
+      </c>
       <c r="D390" s="3"/>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B391"/>
+        <v>379</v>
+      </c>
       <c r="D391" s="3"/>
       <c r="E391" s="4"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B392"/>
+        <v>380</v>
+      </c>
       <c r="D392" s="3"/>
       <c r="E392" s="4"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B393"/>
+        <v>381</v>
+      </c>
       <c r="D393" s="3"/>
       <c r="E393" s="4"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B394"/>
+        <v>382</v>
+      </c>
       <c r="D394" s="3"/>
       <c r="E394" s="4"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B395"/>
+        <v>383</v>
+      </c>
       <c r="D395" s="3"/>
       <c r="E395" s="4"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B396"/>
+        <v>384</v>
+      </c>
       <c r="D396" s="3"/>
       <c r="E396" s="4"/>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B397"/>
+        <v>63</v>
+      </c>
       <c r="D397" s="3"/>
       <c r="E397" s="4"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B398"/>
+        <v>385</v>
+      </c>
       <c r="D398" s="3"/>
       <c r="E398" s="4"/>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B399"/>
+        <v>386</v>
+      </c>
       <c r="D399" s="3"/>
       <c r="E399" s="4"/>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="B400"/>
+        <v>387</v>
+      </c>
       <c r="D400" s="3"/>
       <c r="E400" s="4"/>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B401"/>
+        <v>388</v>
+      </c>
       <c r="D401" s="3"/>
       <c r="E401" s="4"/>
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B402"/>
+        <v>389</v>
+      </c>
       <c r="D402" s="3"/>
       <c r="E402" s="4"/>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B403"/>
+        <v>390</v>
+      </c>
       <c r="D403" s="3"/>
       <c r="E403" s="4"/>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="B404"/>
+        <v>391</v>
+      </c>
       <c r="D404" s="3"/>
       <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B405"/>
+        <v>392</v>
+      </c>
       <c r="D405" s="3"/>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="B406"/>
+        <v>393</v>
+      </c>
       <c r="D406" s="3"/>
       <c r="E406" s="4"/>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B407"/>
+        <v>394</v>
+      </c>
       <c r="D407" s="3"/>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B408"/>
+        <v>395</v>
+      </c>
       <c r="D408" s="3"/>
       <c r="E408" s="4"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B409"/>
+        <v>35</v>
+      </c>
       <c r="D409" s="3"/>
       <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B410"/>
+        <v>396</v>
+      </c>
       <c r="D410" s="3"/>
       <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="B411"/>
+        <v>397</v>
+      </c>
       <c r="D411" s="3"/>
       <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B412"/>
+        <v>398</v>
+      </c>
       <c r="D412" s="3"/>
       <c r="E412" s="4"/>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="B413"/>
+        <v>399</v>
+      </c>
       <c r="D413" s="3"/>
       <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="B414"/>
+        <v>400</v>
+      </c>
       <c r="D414" s="3"/>
       <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B415"/>
+        <v>401</v>
+      </c>
       <c r="D415" s="3"/>
       <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="B416"/>
+        <v>402</v>
+      </c>
       <c r="D416" s="3"/>
       <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="B417"/>
+        <v>403</v>
+      </c>
       <c r="D417" s="3"/>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="B418"/>
+        <v>404</v>
+      </c>
       <c r="D418" s="3"/>
       <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="B419"/>
+        <v>405</v>
+      </c>
       <c r="D419" s="3"/>
       <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B420"/>
+        <v>406</v>
+      </c>
       <c r="D420" s="3"/>
       <c r="E420" s="4"/>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="B421"/>
+        <v>234</v>
+      </c>
       <c r="D421" s="3"/>
       <c r="E421" s="4"/>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="B422"/>
+        <v>407</v>
+      </c>
       <c r="D422" s="3"/>
       <c r="E422" s="4"/>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="B423"/>
+        <v>408</v>
+      </c>
       <c r="D423" s="3"/>
       <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B424"/>
+        <v>409</v>
+      </c>
       <c r="D424" s="3"/>
       <c r="E424" s="4"/>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="B425"/>
+        <v>410</v>
+      </c>
       <c r="D425" s="3"/>
       <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="B426"/>
+        <v>411</v>
+      </c>
       <c r="D426" s="3"/>
       <c r="E426" s="4"/>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="B427"/>
+        <v>412</v>
+      </c>
       <c r="D427" s="3"/>
       <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="B428"/>
+        <v>413</v>
+      </c>
       <c r="D428" s="3"/>
       <c r="E428" s="4"/>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="B429"/>
+        <v>414</v>
+      </c>
       <c r="D429" s="3"/>
       <c r="E429" s="4"/>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B430"/>
+        <v>45</v>
+      </c>
       <c r="D430" s="3"/>
       <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B431"/>
+        <v>415</v>
+      </c>
       <c r="D431" s="3"/>
       <c r="E431" s="4"/>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B432"/>
+        <v>416</v>
+      </c>
       <c r="D432" s="3"/>
       <c r="E432" s="4"/>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B433"/>
+        <v>417</v>
+      </c>
       <c r="D433" s="3"/>
       <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B434"/>
+        <v>418</v>
+      </c>
       <c r="D434" s="3"/>
       <c r="E434" s="4"/>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="B435"/>
+        <v>419</v>
+      </c>
       <c r="D435" s="3"/>
       <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B436"/>
+        <v>420</v>
+      </c>
       <c r="D436" s="3"/>
       <c r="E436" s="4"/>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="B437"/>
+        <v>421</v>
+      </c>
       <c r="D437" s="3"/>
       <c r="E437" s="4"/>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B438"/>
+        <v>422</v>
+      </c>
       <c r="D438" s="3"/>
       <c r="E438" s="4"/>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B439"/>
+        <v>423</v>
+      </c>
       <c r="D439" s="3"/>
       <c r="E439" s="4"/>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="B440"/>
+        <v>424</v>
+      </c>
       <c r="D440" s="3"/>
       <c r="E440" s="4"/>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="B441"/>
+        <v>425</v>
+      </c>
       <c r="D441" s="3"/>
       <c r="E441" s="4"/>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="B442"/>
+        <v>426</v>
+      </c>
       <c r="D442" s="3"/>
       <c r="E442" s="4"/>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B443"/>
+        <v>427</v>
+      </c>
       <c r="D443" s="3"/>
       <c r="E443" s="4"/>
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B444"/>
+        <v>428</v>
+      </c>
       <c r="D444" s="3"/>
       <c r="E444" s="4"/>
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B445"/>
+        <v>429</v>
+      </c>
       <c r="D445" s="3"/>
       <c r="E445" s="4"/>
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B446"/>
+        <v>430</v>
+      </c>
       <c r="D446" s="3"/>
       <c r="E446" s="4"/>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B447"/>
+        <v>431</v>
+      </c>
       <c r="D447" s="3"/>
       <c r="E447" s="4"/>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B448"/>
+        <v>432</v>
+      </c>
       <c r="D448" s="3"/>
       <c r="E448" s="4"/>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="B449"/>
+        <v>433</v>
+      </c>
       <c r="D449" s="3"/>
       <c r="E449" s="4"/>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B450"/>
+        <v>434</v>
+      </c>
       <c r="D450" s="3"/>
       <c r="E450" s="4"/>
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="B451"/>
+        <v>435</v>
+      </c>
       <c r="D451" s="3"/>
       <c r="E451" s="4"/>
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B452"/>
+        <v>436</v>
+      </c>
       <c r="D452" s="3"/>
       <c r="E452" s="4"/>
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B453"/>
+        <v>437</v>
+      </c>
       <c r="D453" s="3"/>
       <c r="E453" s="4"/>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B454"/>
+        <v>438</v>
+      </c>
       <c r="D454" s="3"/>
       <c r="E454" s="4"/>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="B455"/>
+        <v>439</v>
+      </c>
       <c r="D455" s="3"/>
       <c r="E455" s="4"/>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B456"/>
+        <v>440</v>
+      </c>
       <c r="D456" s="3"/>
       <c r="E456" s="4"/>
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="B457"/>
+        <v>441</v>
+      </c>
       <c r="D457" s="3"/>
       <c r="E457" s="4"/>
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B458"/>
+        <v>442</v>
+      </c>
       <c r="D458" s="3"/>
       <c r="E458" s="4"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B459"/>
+        <v>443</v>
+      </c>
       <c r="D459" s="3"/>
       <c r="E459" s="4"/>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B460"/>
+        <v>444</v>
+      </c>
       <c r="D460" s="3"/>
       <c r="E460" s="4"/>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="B461"/>
+        <v>445</v>
+      </c>
       <c r="D461" s="3"/>
       <c r="E461" s="4"/>
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B462"/>
+        <v>446</v>
+      </c>
       <c r="D462" s="3"/>
       <c r="E462" s="4"/>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="B463"/>
+        <v>447</v>
+      </c>
       <c r="D463" s="3"/>
       <c r="E463" s="4"/>
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B464"/>
+        <v>448</v>
+      </c>
       <c r="D464" s="3"/>
       <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B465"/>
+        <v>449</v>
+      </c>
       <c r="D465" s="3"/>
       <c r="E465" s="4"/>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="B466"/>
+        <v>450</v>
+      </c>
       <c r="D466" s="3"/>
       <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="B467"/>
+        <v>451</v>
+      </c>
       <c r="D467" s="3"/>
       <c r="E467" s="4"/>
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B468"/>
+        <v>452</v>
+      </c>
       <c r="D468" s="3"/>
       <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B469"/>
+        <v>453</v>
+      </c>
       <c r="D469" s="3"/>
       <c r="E469" s="4"/>
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="B470"/>
+        <v>454</v>
+      </c>
       <c r="D470" s="3"/>
       <c r="E470" s="4"/>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="B471"/>
+        <v>455</v>
+      </c>
       <c r="D471" s="3"/>
       <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="B472"/>
+        <v>456</v>
+      </c>
       <c r="D472" s="3"/>
       <c r="E472" s="4"/>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B473"/>
+        <v>436</v>
+      </c>
       <c r="D473" s="3"/>
       <c r="E473" s="4"/>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B474"/>
+        <v>437</v>
+      </c>
       <c r="D474" s="3"/>
       <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5">
       <c r="A475" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="B475"/>
+        <v>457</v>
+      </c>
       <c r="D475" s="3"/>
       <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="B476"/>
+        <v>458</v>
+      </c>
       <c r="D476" s="3"/>
       <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="B477"/>
+        <v>459</v>
+      </c>
       <c r="D477" s="3"/>
       <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B478"/>
+        <v>63</v>
+      </c>
       <c r="D478" s="3"/>
       <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B479"/>
+        <v>460</v>
+      </c>
       <c r="D479" s="3"/>
       <c r="E479" s="4"/>
     </row>
     <row r="480" spans="1:5">
       <c r="A480" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="B480"/>
+        <v>461</v>
+      </c>
       <c r="D480" s="3"/>
       <c r="E480" s="4"/>
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="6" t="s">
-        <v>463</v>
-      </c>
-      <c r="B481"/>
+        <v>462</v>
+      </c>
       <c r="D481" s="3"/>
       <c r="E481" s="4"/>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="B482"/>
+        <v>463</v>
+      </c>
       <c r="D482" s="3"/>
       <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="B483"/>
+        <v>464</v>
+      </c>
       <c r="D483" s="3"/>
       <c r="E483" s="4"/>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="B484"/>
+        <v>422</v>
+      </c>
       <c r="D484" s="3"/>
       <c r="E484" s="4"/>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="B485"/>
+        <v>465</v>
+      </c>
       <c r="D485" s="3"/>
       <c r="E485" s="4"/>
     </row>
     <row r="486" spans="1:5">
       <c r="A486" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="B486"/>
+        <v>466</v>
+      </c>
       <c r="D486" s="3"/>
       <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5">
       <c r="A487" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="B487"/>
+        <v>467</v>
+      </c>
       <c r="D487" s="3"/>
       <c r="E487" s="4"/>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="B488"/>
+        <v>468</v>
+      </c>
       <c r="D488" s="3"/>
       <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="B489"/>
+        <v>469</v>
+      </c>
       <c r="D489" s="3"/>
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="6" t="s">
-        <v>471</v>
-      </c>
-      <c r="B490"/>
+        <v>470</v>
+      </c>
       <c r="D490" s="3"/>
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="B491"/>
+        <v>471</v>
+      </c>
       <c r="D491" s="3"/>
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B492"/>
+        <v>441</v>
+      </c>
       <c r="D492" s="3"/>
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="B493"/>
+        <v>472</v>
+      </c>
       <c r="D493" s="3"/>
       <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5">
       <c r="A494" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="B494"/>
+        <v>473</v>
+      </c>
       <c r="D494" s="3"/>
       <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5">
       <c r="A495" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="B495"/>
+        <v>474</v>
+      </c>
       <c r="D495" s="3"/>
       <c r="E495" s="4"/>
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="B496"/>
+        <v>475</v>
+      </c>
       <c r="D496" s="3"/>
       <c r="E496" s="4"/>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B497"/>
+        <v>476</v>
+      </c>
       <c r="D497" s="3"/>
       <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="B498"/>
+        <v>477</v>
+      </c>
       <c r="D498" s="3"/>
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="B499"/>
+        <v>478</v>
+      </c>
       <c r="D499" s="3"/>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B500"/>
+        <v>35</v>
+      </c>
       <c r="D500" s="3"/>
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="B501"/>
+        <v>479</v>
+      </c>
       <c r="D501" s="3"/>
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B502"/>
+        <v>480</v>
+      </c>
       <c r="D502" s="3"/>
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B503"/>
+        <v>481</v>
+      </c>
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="B504"/>
+        <v>482</v>
+      </c>
       <c r="D504" s="3"/>
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B505"/>
+        <v>483</v>
+      </c>
       <c r="D505" s="3"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B506"/>
+        <v>484</v>
+      </c>
       <c r="D506" s="3"/>
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="B507"/>
+        <v>485</v>
+      </c>
       <c r="D507" s="3"/>
     </row>
     <row r="508" spans="1:4">
       <c r="A508" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="B508"/>
+        <v>486</v>
+      </c>
       <c r="D508" s="3"/>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B509"/>
+        <v>487</v>
+      </c>
       <c r="D509" s="3"/>
     </row>
     <row r="510" spans="1:4">
       <c r="A510" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="B510"/>
+        <v>488</v>
+      </c>
       <c r="D510" s="3"/>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="B511"/>
+        <v>489</v>
+      </c>
       <c r="D511" s="3"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="B512"/>
+        <v>490</v>
+      </c>
       <c r="D512" s="3"/>
     </row>
     <row r="513" spans="1:4">
       <c r="A513" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="B513"/>
+        <v>491</v>
+      </c>
       <c r="D513" s="3"/>
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="B514"/>
+        <v>492</v>
+      </c>
       <c r="D514" s="3"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B515"/>
+        <v>493</v>
+      </c>
       <c r="D515" s="3"/>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="B516"/>
+        <v>494</v>
+      </c>
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B517"/>
+        <v>495</v>
+      </c>
       <c r="D517" s="3"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="5" t="s">
-        <v>497</v>
-      </c>
-      <c r="B518"/>
+        <v>496</v>
+      </c>
       <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B519"/>
+        <v>497</v>
+      </c>
       <c r="D519" s="3"/>
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B520"/>
+        <v>498</v>
+      </c>
       <c r="D520" s="3"/>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="B521"/>
+        <v>499</v>
+      </c>
       <c r="D521" s="3"/>
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="B522"/>
+        <v>500</v>
+      </c>
       <c r="D522" s="3"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B523"/>
+        <v>501</v>
+      </c>
       <c r="D523" s="3"/>
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="B524"/>
+        <v>502</v>
+      </c>
       <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="B525"/>
+        <v>503</v>
+      </c>
       <c r="D525" s="3"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="B526"/>
+        <v>504</v>
+      </c>
       <c r="D526" s="3"/>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="B527"/>
+        <v>505</v>
+      </c>
       <c r="D527" s="3"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="B528"/>
+        <v>506</v>
+      </c>
       <c r="D528" s="3"/>
     </row>
     <row r="529" spans="1:4">
       <c r="A529" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B529"/>
+        <v>507</v>
+      </c>
       <c r="D529" s="3"/>
     </row>
     <row r="530" spans="1:4">
       <c r="A530" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="B530"/>
+        <v>508</v>
+      </c>
       <c r="D530" s="3"/>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B531"/>
+        <v>509</v>
+      </c>
       <c r="D531" s="3"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B532"/>
+        <v>510</v>
+      </c>
       <c r="D532" s="3"/>
     </row>
     <row r="533" spans="1:4">
       <c r="A533" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="B533"/>
+        <v>511</v>
+      </c>
       <c r="D533" s="3"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B534"/>
+        <v>512</v>
+      </c>
       <c r="D534" s="3"/>
     </row>
     <row r="535" spans="1:4">
       <c r="A535" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="B535"/>
+        <v>513</v>
+      </c>
       <c r="D535" s="3"/>
     </row>
     <row r="536" spans="1:4">
       <c r="A536" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B536"/>
+        <v>514</v>
+      </c>
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
       <c r="A537" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="B537"/>
+        <v>515</v>
+      </c>
       <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
       <c r="A538" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="B538"/>
+        <v>516</v>
+      </c>
       <c r="D538" s="3"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B539"/>
+        <v>517</v>
+      </c>
       <c r="D539" s="3"/>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B540"/>
+        <v>518</v>
+      </c>
       <c r="D540" s="3"/>
     </row>
     <row r="541" spans="1:4">
       <c r="A541" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="B541"/>
+        <v>519</v>
+      </c>
       <c r="D541" s="3"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B542"/>
+        <v>520</v>
+      </c>
       <c r="D542" s="3"/>
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="B543"/>
+        <v>521</v>
+      </c>
       <c r="D543" s="3"/>
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B544"/>
+        <v>522</v>
+      </c>
       <c r="D544" s="3"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B545"/>
+        <v>523</v>
+      </c>
       <c r="D545" s="3"/>
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="B546"/>
+        <v>524</v>
+      </c>
       <c r="D546" s="3"/>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B547"/>
+        <v>525</v>
+      </c>
       <c r="D547" s="3"/>
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="B548"/>
+        <v>526</v>
+      </c>
       <c r="D548" s="3"/>
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="B549"/>
+        <v>527</v>
+      </c>
       <c r="D549" s="3"/>
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="B550"/>
+        <v>528</v>
+      </c>
       <c r="D550" s="3"/>
     </row>
     <row r="551" spans="1:4">
       <c r="A551" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B551"/>
+        <v>529</v>
+      </c>
       <c r="D551" s="3"/>
     </row>
     <row r="552" spans="1:4">
       <c r="A552" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="B552"/>
+        <v>530</v>
+      </c>
       <c r="D552" s="3"/>
     </row>
     <row r="553" spans="1:4">
       <c r="A553" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="B553"/>
+        <v>531</v>
+      </c>
       <c r="D553" s="3"/>
     </row>
     <row r="554" spans="1:4">
       <c r="A554" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B554"/>
+        <v>532</v>
+      </c>
       <c r="D554" s="3"/>
     </row>
     <row r="555" spans="1:4">
       <c r="A555" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="B555"/>
+        <v>533</v>
+      </c>
       <c r="D555" s="3"/>
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B556"/>
+        <v>534</v>
+      </c>
       <c r="D556" s="3"/>
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B557"/>
+        <v>535</v>
+      </c>
       <c r="D557" s="3"/>
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B558"/>
+        <v>530</v>
+      </c>
       <c r="D558" s="3"/>
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="B559"/>
+        <v>536</v>
+      </c>
       <c r="D559" s="3"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="B560"/>
+        <v>537</v>
+      </c>
       <c r="D560" s="3"/>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="B561"/>
+        <v>525</v>
+      </c>
       <c r="D561" s="3"/>
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="B562"/>
+        <v>538</v>
+      </c>
       <c r="D562" s="3"/>
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B563"/>
+        <v>539</v>
+      </c>
       <c r="D563" s="3"/>
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B564"/>
+        <v>540</v>
+      </c>
       <c r="D564" s="3"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B565"/>
+        <v>541</v>
+      </c>
       <c r="D565" s="3"/>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="B566"/>
+        <v>542</v>
+      </c>
       <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="B567"/>
+        <v>509</v>
+      </c>
       <c r="D567" s="3"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="B568"/>
+        <v>543</v>
+      </c>
       <c r="D568" s="3"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B569"/>
+        <v>544</v>
+      </c>
       <c r="D569" s="3"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="B570"/>
+        <v>501</v>
+      </c>
       <c r="D570" s="3"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="B571"/>
+        <v>545</v>
+      </c>
       <c r="D571" s="3"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B572"/>
+        <v>546</v>
+      </c>
       <c r="D572" s="3"/>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="B573"/>
+        <v>547</v>
+      </c>
       <c r="D573" s="3"/>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="B574"/>
+        <v>548</v>
+      </c>
       <c r="D574" s="3"/>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B575"/>
+        <v>549</v>
+      </c>
       <c r="D575" s="3"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="B576"/>
+        <v>498</v>
+      </c>
       <c r="D576" s="3"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B577"/>
+        <v>550</v>
+      </c>
       <c r="D577" s="3"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="B578"/>
+        <v>551</v>
+      </c>
       <c r="D578" s="3"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="B579"/>
+        <v>522</v>
+      </c>
       <c r="D579" s="3"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B580"/>
+        <v>552</v>
+      </c>
       <c r="D580" s="3"/>
     </row>
     <row r="581" spans="1:4">
       <c r="A581" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="B581"/>
+        <v>553</v>
+      </c>
       <c r="D581" s="3"/>
     </row>
     <row r="582" ht="24" spans="1:4">
       <c r="A582" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="B582"/>
+        <v>554</v>
+      </c>
       <c r="D582" s="3"/>
     </row>
   </sheetData>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620"/>
+    <workbookView windowWidth="19635" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Names" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="585">
   <si>
     <t>Names</t>
   </si>
   <si>
-    <t>HIFZ CLASS (ALIF)</t>
+    <t>HIFZ CLASS (ALIF) RESULT</t>
   </si>
   <si>
     <t>MAAZ SHAKIR BEG RESULT</t>
@@ -53,6 +53,9 @@
     <t>JABIR NASIR INAMDAR RESULT</t>
   </si>
   <si>
+    <t>TAUKIR ALTAF QURESHI RESULT</t>
+  </si>
+  <si>
     <t>NAZIR-E-CLASS RESULT</t>
   </si>
   <si>
@@ -65,16 +68,33 @@
     <t>ABDUL MANNAN JAVED SHAIKH RESULT</t>
   </si>
   <si>
-    <t>TAUKIR ALTAF QURESHI RESULT</t>
-  </si>
-  <si>
     <t>ARHAM ZAINUL ABIDIN MANSURI RESULT</t>
   </si>
   <si>
     <t>ABDULLAH MOHSIN PIRJADE RESULT</t>
   </si>
   <si>
-    <t>HIFZ CLASS  (BAA) RESULT</t>
+    <r>
+      <t>HIFZ CLASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>(BAA) RESULT</t>
+    </r>
   </si>
   <si>
     <t>AAQIB IQBAL INAMDAR RESULT</t>
@@ -98,10 +118,30 @@
     <t>YAQUB NABISAB BUDHIYAL RESULT</t>
   </si>
   <si>
-    <t>AYAN MOHAMMAD  DIKSANGI RESULT</t>
-  </si>
-  <si>
-    <t>7:00 TO 8:30 RESULT</t>
+    <r>
+      <t>AYAN MOHAMMAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>DIKSANGI RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>TAQI ADUSSAMI SHAIKH RESULT</t>
   </si>
   <si>
     <t>5TH YEAR (ALIF) RESULT</t>
@@ -119,7 +159,27 @@
     <t>ALI ZAINUL ABIDIN MANSURI RESULT</t>
   </si>
   <si>
-    <t>MOHAMMAD SAMEER  SAYYAD RESULT</t>
+    <r>
+      <t>MOHAMMAD SAMEER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>SAYYAD RESULT</t>
+    </r>
   </si>
   <si>
     <t>IQRA SALIM SHAIKH RESULT</t>
@@ -134,1428 +194,1709 @@
     <t>RIZWAN SULEMAN ANSARI RESULT</t>
   </si>
   <si>
-    <t>3:30 TO 5:00 RESULT</t>
+    <t>5TH YEAR (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL JABBAR RIYAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARHAM ANAS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAID AKHTAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SAAD EJAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AARIZ AHMAD ANIS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SAIF QAMRUDDIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AAQIB DASTAGIR DIKSANGI RESULT</t>
+  </si>
+  <si>
+    <t>BILAL AZIZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>4TH YEAR (ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>HABIBA AFZAL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AALIYA ASIF ALI SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>SUMAYYA RAHIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HUMERA RAHIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZINAT IQBAL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MARYAM AZHAR SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>MIDHAT JAVED QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>alina babu shaikh RESULT</t>
+  </si>
+  <si>
+    <t>TANZILA IRFAN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HALIMA SADIYA HABIB SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ILTISHA IQBAL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AMMARA NAZIR PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>JUVERIYA ANIS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MUBASHSHIRA ISMAIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RIZA FATIMA QADIR QURESHI RESULT</t>
   </si>
   <si>
     <t>5TH YEAR (BAA) RESULT</t>
   </si>
   <si>
-    <t>ABDUL JABBAR RIYAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARHAM ANAS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAID AKHTAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SAAD EJAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AARIZ AHMAD ANIS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SAIF QAMRUDDIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AAQIB DASTAGIR DIKSANGI RESULT</t>
-  </si>
-  <si>
-    <t>BILAL AZIZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>8:30 TO 10:00 RESULT</t>
-  </si>
-  <si>
-    <t>4TH YEAR (ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>HABIBA AFZAL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AALIYA ASIF ALI SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>SUMAYYA RAHIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HUMERA RAHIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ZINAT IQBAL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MARYAM AZHAR SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>MIDHAT JAVED QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>alina babu shaikh RESULT</t>
+    <t>AFFAN MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>DILNAWAZ SALAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MUFEEZ FIROZ SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>UMAR NISAR INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>KHUNMEER ZAKIR MARUF RESULT</t>
+  </si>
+  <si>
+    <t>UMAR BABUSAHAB GUDUMNAWAR RESULT</t>
+  </si>
+  <si>
+    <t>ASAD IKHLAS MULLA RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA IQBAL KHAN RESULT</t>
+  </si>
+  <si>
+    <t>MADIHA IQBAL KHAN RESULT</t>
+  </si>
+  <si>
+    <t>UMME KULSUM UBED NIYAZI RESULT</t>
+  </si>
+  <si>
+    <t>ZUNAIRA SHOKAT INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>4TH YEAR (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>KHADIJA MUBIN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>BARIRA PARVEZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>SAYYAD RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>NIDA ABDUL RAZZAK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FIRDOS RIYAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ABDULLAH AFZAL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SUFIYAN AADAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALTAHA IRFAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AYAN HASAN ALI LANKAL RESULT</t>
+  </si>
+  <si>
+    <t>UZAIR ANAS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ABDULLAH REHMAT CHAUDHARY RESULT</t>
+  </si>
+  <si>
+    <t>RAHIB QAMRUDDIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FAIZ RAFIQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SAIFULLAH SARFARAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARFAT WAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>FAIZ IMTIYAZ BAGAL KOT RESULT</t>
+  </si>
+  <si>
+    <t>REHAN ABID SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>SUFIYAN SHAHNAWAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>REHAN SAMIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MUAWIYA AYAZ AHMED SANGOLI RESULT</t>
+  </si>
+  <si>
+    <t>ADNAN SADIK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>UMAIR AAMIL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARMAN ZAHIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR (ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>AMAN WAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARMAAN AMIR DESAI RESULT</t>
+  </si>
+  <si>
+    <t>SABIR SALEEM DESAI RESULT</t>
+  </si>
+  <si>
+    <t>SHAAZIL SARPUDDIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALFAIZ ALIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>AFFAN MEHBOOB MAKANDAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>NIHAN NIYAS HANIF RESULT</t>
+  </si>
+  <si>
+    <t>IRSHAD IBRAHIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MISBAH ALTAF QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>INAAYA MOINUDDIN LUHAR RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA MUNAF QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AINULHAYA HUSAIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA UBED NIYAZI RESULT</t>
+  </si>
+  <si>
+    <t>RIMSHA IMRAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA TOFIK TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ALIZA ALVIN ARIF BIRAJDAR RESULT</t>
+  </si>
+  <si>
+    <t>SHAINA RASHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA SULEMAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>MASEERA AZIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>MOMIN RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>HUMERA USMAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>NOORI KHURSHID RESULT</t>
+  </si>
+  <si>
+    <t>MARYAM KALIMUDDIN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>UBAID SHAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ANAS IRFAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>BARIRA JAVED SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>ZOYA ALI ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SADIYA MOHSIN MULLA RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA SAMEER MULANI RESULT</t>
+  </si>
+  <si>
+    <t>ASMA ARIF MEMON RESULT</t>
+  </si>
+  <si>
+    <t>IFFAT SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>JUVERIYA FAISAL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>TANZILA FAIZAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>UBAID MUSHTAQ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HUMAM JAVED KHAN RESULT</t>
+  </si>
+  <si>
+    <t>HUZAIFA MUMTAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SARA AZHAR SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ARSHIN PARVEZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MARIYA RIZWAN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>BUSHARA GOS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>KHATIJA SARFARAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHAHID JAVED PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>SHEHNAZ MURSHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>TAHA ISMAIL MANIYAR RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>SHAKIR ALI SHAKIL SIDDIQUI RESULT</t>
+  </si>
+  <si>
+    <t>IMADUDDIN MERAJUDDIN SIDDIQUI RESULT</t>
+  </si>
+  <si>
+    <t>IRSHAD SARFARAZ BARGUZAR RESULT</t>
+  </si>
+  <si>
+    <t>SADAF JAVED QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>TAHIR ANWAR SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>OWAIS FARUQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>IBRAHIM AYAZ AHMED SANGOLI RESULT</t>
+  </si>
+  <si>
+    <t>MUIN AFZAL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARFAN FAYYAZ DESAI RESULT</t>
+  </si>
+  <si>
+    <t>SHAHEEN SHAKIL SIDDIQUI RESULT</t>
+  </si>
+  <si>
+    <t>AAMINA ASLAM MULLA RESULT</t>
+  </si>
+  <si>
+    <t>YASIR ALTAF DIKSANGI RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR (SAA) RESULT</t>
+  </si>
+  <si>
+    <t>ASADULLAH AYAZ BANGI RESULT</t>
+  </si>
+  <si>
+    <t>AAIMAN ASIF DIKSANGI RESULT</t>
+  </si>
+  <si>
+    <t>RAYYAN ASHRAF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AYAN ILIYAS INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>AAIZAN QADIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAID RAFIQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MASOOD EJAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>RAYYAN RAHIM TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MADIHA ATAUR REHMAN QURESH RESULT</t>
+  </si>
+  <si>
+    <t>ABDULLAH YUSUF QURESHI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>AYAN SADIQ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>MULANJI RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>SAOOD EJAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL WAHID SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL MUKIT SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>YASIN MUBARAK MULLA RESULT</t>
+  </si>
+  <si>
+    <t>INAAYA ATIK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AZAAN TAZKEER KHAN RESULT</t>
+  </si>
+  <si>
+    <t>ALMAN ABDULBARI KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AYAN HANNAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>ARKAN WASIM ATTAR RESULT</t>
+  </si>
+  <si>
+    <t>REHAN WASIM ATTAR RESULT</t>
+  </si>
+  <si>
+    <t>KAIF MEHBOOB MAKANDAR RESULT</t>
+  </si>
+  <si>
+    <t>ZAID AMIR SUTAR RESULT</t>
+  </si>
+  <si>
+    <t>AARIF NABISAB BUDHIYAL RESULT</t>
+  </si>
+  <si>
+    <t>KALIYAR SALEEM DESAI RESULT</t>
+  </si>
+  <si>
+    <t>ARSALAN FAYYAZ DESAI RESULT</t>
+  </si>
+  <si>
+    <t>AHIL ABDUL DESAI RESULT</t>
+  </si>
+  <si>
+    <t>NAZIR AZHAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AFREED RAIS INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>TAKMEEL TAUFEEQ KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SIDDIQ NIYAZ AHMAD PATEL RESULT</t>
+  </si>
+  <si>
+    <t>HAMZA ASHRAF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARMAN ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SADULLAH IRSHAD BAIG RESULT</t>
+  </si>
+  <si>
+    <t>HUZAIFA IMRAN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>HUMAIRA SALMAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZIKRA AARIF PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>SHAAZIA SARPUDDIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>TUBA TAUFEEQ KHAN RESULT</t>
+  </si>
+  <si>
+    <t>INSHA MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ASNAD ATAUR REHMAN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AAIZA ABDUL BASEER GOGI RESULT</t>
+  </si>
+  <si>
+    <t>ZOYA IMRAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>KAINAT AZHAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA MOHSIN PATEL RESULT</t>
+  </si>
+  <si>
+    <t>JASMEEN PARVEZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>IQRA GOS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>BUSHRA MOHSIN PATEL RESULT</t>
+  </si>
+  <si>
+    <t>ALFIYA IRFAN SHAH RESULT</t>
+  </si>
+  <si>
+    <t>NAMRIN ASIF ALI SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>AAISHA TANVEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AALAMIN GOS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALINA QADIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SABIRA SAJID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHAZIYA JAIMUD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FAIZA ZAMEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MAHJAVI PARWEEN MOHD NAUSHAD ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAFIYA ZAHIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>UMAR RAFIQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>OWAIS TAUSIF SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL HALIM TAUSIF SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ASAD ISMAIL KHATIB RESULT</t>
+  </si>
+  <si>
+    <t>ARMAN RAJA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MUAAZ AFZAL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ABQAR IMRAN SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>YUSUF SAMEER SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>IMAMUL HAQ MOHAMMAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>OWAIS ASHFAQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>YUSUF MUMTAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SHAYAN YUSUF BIRADAR RESULT</t>
+  </si>
+  <si>
+    <t>AMIR AFZAL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHARIK AFZAL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HASSAN HUZAIFA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>RAYYAN RIZWAN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ARHAN ARZU GAZI RESULT</t>
+  </si>
+  <si>
+    <t>ZIDAN SAQUIB SIDDIQUE RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (SAA) RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB EJAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>RUHABUNNISA MOHAMMED ALTAF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>UMME KULSUM EJAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAISHA ZUBER SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA RIZWAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>INAYA MINHAJUDDIN SIDDIQI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>ANAYA ASIF SAYYAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>ARWA IKHLAS MULLA RESULT</t>
+  </si>
+  <si>
+    <t>INAYYA ZAKIR SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>LAIBA ASHFAQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>KULSUM JAVED KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SIDDIQA IMRAN PATEL RESULT</t>
+  </si>
+  <si>
+    <t>NAFIYA JAVED KHAN RESULT</t>
+  </si>
+  <si>
+    <t>BUSHRA ILIYAS WANWADE RESULT</t>
+  </si>
+  <si>
+    <t>HUMAIRA FARUQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MARYAM SUFIYAN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MASHQURA ILIYAS WANWAD RESULT</t>
+  </si>
+  <si>
+    <t>TASMIYA IRFAN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MINSA SHAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SIDRA SALIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SADIYA SHIKIL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ISHRAT ISMAIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (JEEM) RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHAZIB FARUQ HUSSAIN RESULT</t>
+  </si>
+  <si>
+    <t>RAHIM YUNUS SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABUZAR YUSUF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHARUKH SALMAN KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AYAN RAFIQ TARASGAR RESULT</t>
+  </si>
+  <si>
+    <t>UZAIR ZAKIR MARUF RESULT</t>
+  </si>
+  <si>
+    <t>AYAN QURBAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARHAN NAEEM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FAZAL IQBAL KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SHAFIYA ASIF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SAFA FATIMA FARUQ HUSSAIN RESULT</t>
+  </si>
+  <si>
+    <t>HUMERA BABU RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA ZARA ASLAM MULLA RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (HAA) RESULT</t>
+  </si>
+  <si>
+    <t>abubakar naim shaikh RESULT</t>
+  </si>
+  <si>
+    <t>ATHAR AZHAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABUZAR AFZAL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>UBAID RAJJAK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABDUR RAHIM JAVED QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALI MUBIN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ZAID ATIK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAZHAR AFZAL KHAN RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>UMME HANI SHAHID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>QURESHI RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>ANAM MUBIN KURESHI RESULT</t>
+  </si>
+  <si>
+    <t>YUSAIRAH KAUSAR NAIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>BUSHARA SADIQ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB SAMIR TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ALISHA JAVED PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>AMMAR PARVEZ SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ZULEKHA YUSUF QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MAKHLOOT CLASS (ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>AATIF FAYYAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SAAD SARFARAZ BARGUZAR RESULT</t>
+  </si>
+  <si>
+    <t>USAID ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AMMAR ASIF MOMIN RESULT</t>
+  </si>
+  <si>
+    <t>UMAR MUSHTAQ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUSSAMAD MEHTAB ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>YASIR FAYYAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>HAMZA SAMIR SAIFEE RESULT</t>
+  </si>
+  <si>
+    <t>SIDDIQ FEROZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>MUZAMMIL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>MOHAMMAD SHAIKH RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>ADANAN ZUBER TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>AMMAR FAYYAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SULTENA AMIR SUTAR RESULT</t>
+  </si>
+  <si>
+    <t>SIDRA AYAZ BANGI RESULT</t>
+  </si>
+  <si>
+    <t>SHAMAILA SHAHNAWAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>KULSUM ASIF KHAN RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>IFFAT IMRAN MOMIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>SIMRA SAMIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAHIRA ABID SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>SHEZA JALIL PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>ABUZAR SHAKIL PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>NASREEN MURSHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SULTAN GOS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>GULAM GOS HABIB SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHAYAN SADIK SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHAFIYA SHAKIL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD UMAR USMAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAKHLOOT CLASS (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA ANAS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>KULSUM RIYAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARAINA AHMAD QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>IMAD MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AYAN YUNUS SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AYMAAN SALIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ARHAM ISMAIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>AAISHA NABISAB BUDHIHAL RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL AYAN JAVED SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>UMAR MOHSIN PATEL RESULT</t>
+  </si>
+  <si>
+    <t>KAIF FAROOQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AAYAT MOINUDDIN LUHAR RESULT</t>
+  </si>
+  <si>
+    <t>HURYA GOS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SAFIYA AALAM BASHAR DESAI RESULT</t>
+  </si>
+  <si>
+    <t>HASHIM ARSHAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SANA JAIMUD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SABA SAJID MUJAWAR RESULT</t>
+  </si>
+  <si>
+    <t>JOYA PARWEEN MOHD NAUSHAD ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA HASHIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SIDRA HASHIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>KAMRAN ALI SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AYAN RAIS INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (JEEM) RESULT</t>
+  </si>
+  <si>
+    <t>ARFA AMIR DESAI RESULT</t>
+  </si>
+  <si>
+    <t>UMME HABIA TABREJ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>JASMEEN SAIM ALI SHAH RESULT</t>
+  </si>
+  <si>
+    <t>ASHMIRA RAIS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA IBRAHIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABDUR REHMAN SULEMAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ILYAS ASLAM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>REHAN JAVED PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>HUZAIF MURSHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ASABA ZAMEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ADNAN HASHIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AYAN ALI SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>QASIM USMAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAIRA ZAHIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD SHOKAT INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>ZAID ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RAYAN JASIF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SAMAR JAHANGIR ATTAR RESULT</t>
+  </si>
+  <si>
+    <t>SUBHAN TAZKEER KHAN RESULT</t>
+  </si>
+  <si>
+    <t>KAIF NASRUDDIN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MD. IZYAN FAIZ SIDDIQUI RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN SADIK MULANJI RESULT</t>
+  </si>
+  <si>
+    <t>ARHAM MINHAJUDDIN SIDDIQI RESULT</t>
+  </si>
+  <si>
+    <t>AYESHA GUFRAN KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AATIFA AATIF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ANAM AKHLAQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ANAM RAFIQ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZARA SALIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>ALMAS IQBAL TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MANHA SAMEER SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALFIYA SUBHAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>INAYA AAMIL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AAYAT KURBAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AALIYA NAZIR SODAGIR RESULT</t>
+  </si>
+  <si>
+    <t>NOMAN ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>REHAN GUFRAN KAHN RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (HAA) RESULT</t>
+  </si>
+  <si>
+    <t>ZAHID MOHSIN MULLA RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD NAWAZ ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AYAAN NIYAJUDDIN SIKILKAR RESULT</t>
+  </si>
+  <si>
+    <t>ARHAN AMIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>UMAR FAROOK HARUN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA SABIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HABIBA SABIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA YAKUB INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>IRAM AFTAB ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAIRA SAMIR SAIFEE RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA ARSHAD ALI ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA SHAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARIBA MUMTAZ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA SHAHIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZIKRA AMIR HAMZA WALIKAR RESULT</t>
+  </si>
+  <si>
+    <t>ARVA ASLAM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AYAN ABDUL PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>TAHIRA GUDDU SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZAKRIYA ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARSHAN ABID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN SHAHBAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALFIYA HUSSAIN MOHAMMAD RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>ASHRAFI JUMMAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>KHUSHBU NASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>UMME HANI JAVED QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ESRA LIYAKAT SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ABUHURERA TANVEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HAMDAN IQBAL KHAN RESULT</t>
+  </si>
+  <si>
+    <t>ALI RIZWAN PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>UMAR SARFARAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ADNAN SHAKILKHAN PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (SAA) RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RASOOL JAWAUDDIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>AMEEN TOFIK TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>SAAD IRSHAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHOAIB WASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AHMED HUSASAIN ZAMEER SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>MD.AAZAM ABDUL GAFFAR MULLA RESULT</t>
+  </si>
+  <si>
+    <t>TAMIM ZAINUL ABIDIN MANSURI RESULT</t>
+  </si>
+  <si>
+    <t>SARA ALTAF SAYYAD RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>ARISHA WASIM KHAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>FAIZA TOFIQ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RUHI FATIMA SHADAB QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AHIL AZRUDDIN PATE RESULT</t>
+  </si>
+  <si>
+    <t>ASHAR JAVEDKHAN KHIKILGAR RESULT</t>
+  </si>
+  <si>
+    <t>BAHUDDIN YUSUF QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB ALIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>UMAR IBRAHIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SUHEL JAVED ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ASHRAF SHAMSAD MANSURI RESULT</t>
+  </si>
+  <si>
+    <t>AJMERA LATIF MIRAJKAR RESULT</t>
+  </si>
+  <si>
+    <t>HAZRA ABDUL MUQTADIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAYRA WASIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY1(ALIF) RESULT</t>
+  </si>
+  <si>
+    <t>AHAN ISMAIL KHATIB RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD UMAR MOHARRAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>DASTAGIR YAKUB INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>ARIF PARVEZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HUSSAIN KALIM SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>HARIS FARUQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MEHEK FARMAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALISHA MOHAMMAD IMRAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>maryam nizam shaikh RESULT</t>
+  </si>
+  <si>
+    <t>RAHIMIN JAVED QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>KASHIFA JAMAL ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AHMAD WASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>AHANA ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALIZA ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ADIBA ABID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN JAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RAHIL SUBHAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AZAM AMIR DESAI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL REHMAN KADIR KURESHI RESULT</t>
+  </si>
+  <si>
+    <t>FARIYA FARID MALIK RESULT</t>
+  </si>
+  <si>
+    <t>NOORJAHA FAIYAZ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MARIYAM MOHD. ASHAD CHAUDHARY RESULT</t>
+  </si>
+  <si>
+    <t>ALINA MEHTAB ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAIZA HUSSAIN MOHAMMAD RESULT</t>
+  </si>
+  <si>
+    <t>HUSSAIN LATIF MIRAJKAR RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY 2 (SAA) RESULT</t>
+  </si>
+  <si>
+    <t>ALTAMASH AMIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>DILSHAD SHAMSHAD ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>FARHAN WASIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>FAIZAN AATIF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>RAKIB KURBAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN VASIM PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN WAJID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALI KALIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>FIRDOSH ALAM FIROZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ADDAS SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SABRIN MURSHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA WAJID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>BARIRA AKBAR QURESHI RESULT</t>
+  </si>
+  <si>
+    <r>
+      <t>AAIRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
+      <t>IMRAN SHAIKH RESULT</t>
+    </r>
+  </si>
+  <si>
+    <t>SHIFA NASRUDDIN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>HANIFA HUZAIFA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAHIRA MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>RAYYAN HAMID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ANAS RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>AHAD MOHAMMAD NADIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MUSTAFA RESULT</t>
+  </si>
+  <si>
+    <t>AHIL ANWAR KURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AHMED MALIKJAN HUDALI RESULT</t>
+  </si>
+  <si>
+    <t>HASSAN KALIM SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>AHMED BABAFARID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL RAHEMAN KAMAR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SAQLAIN AARIF MEMON RESULT</t>
+  </si>
+  <si>
+    <t>DANIYAL MUZAMMIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ANAS YUSUF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HUMAIRA SHOKAT INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>AAIZA ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RAHMAN MUBIN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AATIF NOSHAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARFA SHAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>YAHYA ASLAM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAKARIYA IRSHAD QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARFAT YUNUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALI YUNUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>UMAR HASAN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>INAAYA AMIRALI MULLA RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD HUSSAIN MOHARRAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALI GAUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MAAZ FAROOQ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AWWAB ASHRAF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>YASEER SAMIR TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>AHMED RAZA IRSHAD QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD HASAN SALIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARIBAH FAROOQ VOHRA RESULT</t>
+  </si>
+  <si>
+    <t>HOORAIN MUZAMMIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZOBIYA AKHTAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SUFIYA WASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>MUBASHARA ZAKIR SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>MARIYA KASIM PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>LATIF GULAMRASUL SHAHPURE RESULT</t>
+  </si>
+  <si>
+    <t>INAYA SAMEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHAIDA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD NAWAZ RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR RESULT</t>
+  </si>
+  <si>
+    <t>SHIRIN JAVED PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR RESULT</t>
+  </si>
+  <si>
+    <t>AJMERA KHATUN HURUN RASHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>IQRA RAFIQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR RESULT</t>
+  </si>
+  <si>
+    <t>AQSA ZAMIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>4TH YEAR RESULT</t>
+  </si>
+  <si>
+    <t>HALIMA ABDUL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HAFIZA ABDUL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATMA NIZAMUDDIN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>NAZMEEN SHABBIR PATEL RESULT</t>
+  </si>
+  <si>
+    <t>ZOYA RAFIQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ZOBIYA KARIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>BUSHRA ZAMIR QURESHI RESULT</t>
   </si>
   <si>
     <t>AASIYA ANWAR DIKSANGI RESULT</t>
   </si>
   <si>
-    <t>TANZILA IRFAN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HALIMA SADIYA HABIB SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ILTISHA IQBAL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AMMARA NAZIR PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>JUVERIYA ANIS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MUBASHSHIRA ISMAIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>RIZA FATIMA QADIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>2:00 TO 3:30 RESULT</t>
-  </si>
-  <si>
-    <t>4TH YEAR (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>AFFAN MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>DILNAWAZ SALAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MUFEEZ FIROZ SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>UMAR NISAR INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>KHUNMEER ZAKIR MARUF RESULT</t>
-  </si>
-  <si>
-    <t>UMAR BABUSAHAB GUDUMNAWAR RESULT</t>
-  </si>
-  <si>
-    <t>ASAD IKHLAS MULLA RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA IQBAL KHAN RESULT</t>
-  </si>
-  <si>
-    <t>MADIHA IQBAL KHAN RESULT</t>
-  </si>
-  <si>
-    <t>UMME KULSUM UBED NIYAZI RESULT</t>
-  </si>
-  <si>
-    <t>ZUNAIRA SHOKAT INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>4TH YEAR (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>KHADIJA MUBIN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>BARIRA PARVEZ  SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>NIDA ABDUL RAZZAK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FIRDOS RIYAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDULLAH AFZAL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SUFIYAN AADAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALTAHA IRFAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AYAN HASAN ALI LANKAL RESULT</t>
-  </si>
-  <si>
-    <t>UZAIR ANAS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDULLAH REHMAT CHAUDHARY RESULT</t>
-  </si>
-  <si>
-    <t>RAHIB QAMRUDDIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FAIZ RAFIQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SAIFULLAH SARFARAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARFAT WAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>FAIZ IMTIYAZ BAGAL KOT RESULT</t>
-  </si>
-  <si>
-    <t>REHAN ABID SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>SUFIYAN SHAHNAWAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>REHAN SAMIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MUAWIYA AYAZ AHMED SANGOLI RESULT</t>
-  </si>
-  <si>
-    <t>ADNAN SADIK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>UMAIR AAMIL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR (ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>AMAN WAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARMAAN AMIR DESAI RESULT</t>
-  </si>
-  <si>
-    <t>SABIR SALEEM DESAI RESULT</t>
-  </si>
-  <si>
-    <t>SHAAZIL SARPUDDIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALFAIZ ALIM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AFFAN MEHBOOB MAKANDAR  RESULT</t>
-  </si>
-  <si>
-    <t>NIHAN NIYAS HANIF RESULT</t>
-  </si>
-  <si>
-    <t>IRSHAD IBRAHIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MISBAH ALTAF QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>INAAYA MOINUDDIN LUHAR RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA MUNAF QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AINULHAYA HUSAIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA UBED NIYAZI RESULT</t>
-  </si>
-  <si>
-    <t>RIMSHA IMRAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA TOFIK TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>ALIZA ALVIN ARIF BIRAJDAR RESULT</t>
-  </si>
-  <si>
-    <t>SHAINA RASHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA SULEMAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>MASEERA AZIM  MOMIN RESULT</t>
-  </si>
-  <si>
-    <t>HUMERA USMAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>NOORI KHURSHID RESULT</t>
-  </si>
-  <si>
-    <t>MARYAM KALIMUDDIN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>UBAID SHAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ANAS IRFAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>BARIRA JAVED SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>ZOYA ALI ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SADIYA MOHSIN MULLA RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA SAMEER MULANI RESULT</t>
-  </si>
-  <si>
-    <t>ASMA ARIF MEMON RESULT</t>
-  </si>
-  <si>
-    <t>IFFAT SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>JUVERIYA FAISAL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>TANZILA FAIZAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>UBAID MUSHTAQ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HUMAM JAVED KHAN RESULT</t>
-  </si>
-  <si>
-    <t>HUZAIFA MUMTAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SARA AZHAR SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ARSHIN PARVEZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MARIYA RIZWAN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>BUSHARA GOS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>KHATIJA SARFARAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SHAHID JAVED PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>SHEHNAZ MURSHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>SHAKIR ALI SHAKIL SIDDIQUI RESULT</t>
-  </si>
-  <si>
-    <t>IMADUDDIN MERAJUDDIN SIDDIQUI RESULT</t>
-  </si>
-  <si>
-    <t>IRSHAD SARFARAZ BARGUZAR RESULT</t>
-  </si>
-  <si>
-    <t>SADAF JAVED QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>TAHIR ANWAR SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>OWAIS FARUQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>IBRAHIM AYAZ AHMED SANGOLI RESULT</t>
-  </si>
-  <si>
-    <t>MUIN AFZAL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARFAN FAYYAZ DESAI RESULT</t>
-  </si>
-  <si>
-    <t>SHAHEEN SHAKIL SIDDIQUI RESULT</t>
-  </si>
-  <si>
-    <t>AAMINA ASLAM MULLA RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR (SAA) RESULT</t>
-  </si>
-  <si>
-    <t>ASADULLAH AYAZ BANGI RESULT</t>
-  </si>
-  <si>
-    <t>AAIMAN ASIF DIKSANGI RESULT</t>
-  </si>
-  <si>
-    <t>RAYYAN ASHRAF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AYAN ILIYAS INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>AAIZAN QADIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAID RAFIQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MASOOD EJAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>RAYYAN RAHIM TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>MADIHA ATAUR REHMAN QURESH RESULT</t>
-  </si>
-  <si>
-    <t>ABDULLAH YUSUF QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AYAN SADIQ  MULANJI RESULT</t>
-  </si>
-  <si>
-    <t>SAOOD EJAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ZULEKHA YUSUF QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL WAHID SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL MUKIT SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>YASIN MUBARAK MULLA RESULT</t>
-  </si>
-  <si>
-    <t>INAAYA ATIK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AZAAN TAZKEER KHAN RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>ARKAN WASIM ATTAR RESULT</t>
-  </si>
-  <si>
-    <t>REHAN WASIM ATTAR RESULT</t>
-  </si>
-  <si>
-    <t>KAIF MEHBOOB MAKANDAR RESULT</t>
-  </si>
-  <si>
-    <t>ZAID AMIR SUTAR RESULT</t>
-  </si>
-  <si>
-    <t>AARIF NABISAB BUDHIYAL RESULT</t>
-  </si>
-  <si>
-    <t>KALIYAR SALEEM DESAI RESULT</t>
-  </si>
-  <si>
-    <t>ARSALAN FAYYAZ DESAI RESULT</t>
-  </si>
-  <si>
-    <t>AHIL ABDUL DESAI RESULT</t>
-  </si>
-  <si>
-    <t>NAZIR AZHAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AFREED RAIS INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>TAKMEEL TAUFEEQ KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SIDDIQ NIYAZ AHMAD PATEL RESULT</t>
-  </si>
-  <si>
-    <t>HAMZA ASHRAF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ARMAN ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SADULLAH IRSHAD BAIG RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>HUMAIRA SALMAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ZIKRA AARIF PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>SHAAZIA SARPUDDIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>TUBA TAUFEEQ KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ISHRAT ISMAIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>INSHA MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ASNAD ATAUR REHMAN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AAIZA ABDUL BASEER GOGI RESULT</t>
-  </si>
-  <si>
-    <t>ZOYA IMRAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>KAINAT AZHAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA MOHSIN PATEL RESULT</t>
-  </si>
-  <si>
-    <t>JASMEEN PARVEZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>IQRA GOS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>BUSHRA MOHSIN PATEL RESULT</t>
-  </si>
-  <si>
-    <t>ALFIYA IRFAN SHAH RESULT</t>
-  </si>
-  <si>
-    <t>NAMRIN ASIF ALI SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>AAISHA TANVEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AALAMIN GOS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALINA QADIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SABIRA SAJID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHAZIYA JAIMUD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FAIZA ZAMEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MAHJAVI PARWEEN MOHD NAUSHAD ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>UMAR RAFIQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>OWAIS TAUSIF SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL HALIM TAUSIF SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ASAD ISMAIL KHATIB RESULT</t>
-  </si>
-  <si>
-    <t>ARMAN RAJA SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MUAAZ AFZAL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ABQAR IMRAN SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>YUSUF SAMEER SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>IMAMUL HAQ MOHAMMAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>OWAIS ASHFAQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>YUSUF MUMTAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SHAYAN YUSUF BIRADAR RESULT</t>
-  </si>
-  <si>
-    <t>AMIR AFZAL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHARIK AFZAL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HASSAN HUZAIFA SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>RAYYAN RIZWAN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>ARHAN ARZU GAZI RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (SAA) RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB EJAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>RUHABUNNISA MOHAMMED ALTAF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>UMME KULSUM EJAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AAISHA ZUBER SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA RIZWAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>INAYA MINHAJUDDIN SIDDIQI RESULT</t>
-  </si>
-  <si>
-    <t>ANAYA ASIF SAYYAD  RESULT</t>
-  </si>
-  <si>
-    <t>ARWA IKHLAS MULLA RESULT</t>
-  </si>
-  <si>
-    <t>INAYYA ZAKIR SAYYED RESULT</t>
-  </si>
-  <si>
-    <t>LAIBA ASHFAQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>KULSUM JAVED KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SIDDIQA IMRAN PATEL RESULT</t>
-  </si>
-  <si>
-    <t>NAFIYA JAVED KHAN RESULT</t>
-  </si>
-  <si>
-    <t>BUSHRA ILIYAS WANWADE RESULT</t>
-  </si>
-  <si>
-    <t>HUMAIRA FARUQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>MARYAM SUFIYAN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>MASHQURA ILIYAS WANWAD RESULT</t>
-  </si>
-  <si>
-    <t>TASMIYA IRFAN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MINSA SHAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SIDRA SALIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SADIYA SHIKIL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>2:00 TO 3:30 (JEEM) RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD SHAZIB FARUQ HUSSAIN RESULT</t>
-  </si>
-  <si>
-    <t>RAHIM YUNUS SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABUZAR YUSUF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHARUKH SALMAN KHAN RESULT</t>
-  </si>
-  <si>
-    <t>AYAN RAFIQ TARASGAR RESULT</t>
-  </si>
-  <si>
-    <t>UZAIR ZAKIR MARUF RESULT</t>
-  </si>
-  <si>
-    <t>AYAN QURBAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AMMAR PARVEZ SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ARHAN NAEEM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FAZAL IQBAL KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SHAFIYA ASIF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SAFA FATIMA FARUQ HUSSAIN RESULT</t>
-  </si>
-  <si>
-    <t>HUMERA BABU RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA ZARA ASLAM MULLA RESULT</t>
-  </si>
-  <si>
-    <t>3:30 to 5:00 RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (HAA) RESULT</t>
-  </si>
-  <si>
-    <t>abubakar naim shaikh RESULT</t>
-  </si>
-  <si>
-    <t>ATHAR AZHAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABUZAR AFZAL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>UBAID RAJJAK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABDUR RAHIM JAVED QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALI MUBIN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>ZAID ATIK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MAZHAR AFZAL KHAN RESULT</t>
-  </si>
-  <si>
-    <t>UMME HANI SHAHID  QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ANAM MUBIN KURESHI RESULT</t>
-  </si>
-  <si>
-    <t>YUSAIRAH KAUSAR NAIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>BUSHARA SADIQ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB SAMIR TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>ALISHA JAVED PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>ZIDAN SAQUIB SIDDIQUE RESULT</t>
-  </si>
-  <si>
-    <t>MAKHLOOT CLASS (ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>AATIF FAYYAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SAAD SARFARAZ BARGUZAR RESULT</t>
-  </si>
-  <si>
-    <t>USAID ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AMMAR ASIF MOMIN RESULT</t>
-  </si>
-  <si>
-    <t>UMAR MUSHTAQ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUSSAMAD MEHTAB ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>YASIR FAYYAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>HAMZA SAMIR SAIFEE RESULT</t>
-  </si>
-  <si>
-    <t>SIDDIQ FEROZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MUZAMMIL  MOHAMMAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ADANAN ZUBER TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>AMMAR FAYYAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SULTENA AMIR SUTAR RESULT</t>
-  </si>
-  <si>
-    <t>SIDRA AYAZ BANGI RESULT</t>
-  </si>
-  <si>
-    <t>SHAMAILA SHAHNAWAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>KULSUM ASIF KHAN RESULT</t>
-  </si>
-  <si>
-    <t>IFFAT IMRAN MOMIN  RESULT</t>
-  </si>
-  <si>
-    <t>SIMRA SAMIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN SADIK MULANJI RESULT</t>
-  </si>
-  <si>
-    <t>MAHIRA ABID SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>SHEZA JALIL PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>ABUZAR SHAKIL PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>NOMAN ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>NASREEN MURSHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SULTAN GOS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>GULAM GOS HABIB SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHAYAN SADIK SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHAFIYA SHAKIL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>MAKHLOOT CLASS (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA ANAS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>KULSUM RIYAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARAINA AHMAD QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>IMAD MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AYAN YUNUS SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AYMAAN SALIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ARHAM ISMAIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR (ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>ARFA AMIR DESAI RESULT</t>
-  </si>
-  <si>
-    <t>UMME HABIA TABREJ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AAISHA NABISAB BUDHIHAL RESULT</t>
-  </si>
-  <si>
-    <t>JASMEEN SAIM ALI SHAH RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ASHMIRA RAIS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA IBRAHIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABDUR REHMAN SULEMAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL AYAN JAVED SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>UMAR MOHSIN PATEL RESULT</t>
-  </si>
-  <si>
-    <t>KAIF FAROOQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AAYAT MOINUDDIN LUHAR RESULT</t>
-  </si>
-  <si>
-    <t>HURYA GOS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SAFIYA AALAM BASHAR DESAI RESULT</t>
-  </si>
-  <si>
-    <t>HASHIM ARSHAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ILYAS ASLAM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>REHAN JAVED PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>HUZAIF MURSHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SANA JAIMUD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AALIYA NAZIR SODAGIR RESULT</t>
-  </si>
-  <si>
-    <t>ASABA ZAMEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA HASHIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SIDRA HASHIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>AYAN ALI SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>KAMRAN ALI SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AYAN RAIS INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD SHOKAT INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>SUBHAN TAZKEER KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ZAHID MOHSIN MULLA RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD NAWAZ ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AYAAN NIYAJUDDIN SIKILKAR RESULT</t>
-  </si>
-  <si>
-    <t>SAMAR JAHANGIR ATTAR RESULT</t>
-  </si>
-  <si>
-    <t>ARHAN AMIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>UMAR FAROOK HARUN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>KAIF NASRUDDIN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>AYESHA GUFRAN KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ZARA SALIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA SABIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HABIBA SABIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AATIFA AATIF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ANAM AKHLAQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA YAKUB INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>ALFIYA HUSSAIN MOHAMMAD RESULT</t>
-  </si>
-  <si>
-    <t>IRAM AFTAB ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AAIRA SAMIR SAIFEE RESULT</t>
-  </si>
-  <si>
-    <t>AAYAT KURBAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALFIYA SUBHAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA ARSHAD ALI ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ANAM RAFIQ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALMAS IQBAL TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA SHAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARIBA MUMTAZ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA SHAHIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ZIKRA AMIR HAMZA WALIKAR RESULT</t>
-  </si>
-  <si>
-    <t>MANHA SAMEER SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MD. IZYAN FAIZ SIDDIQUI RESULT</t>
-  </si>
-  <si>
-    <t>ARVA ASLAM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARSHAN ABID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AYAN ABDUL PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>INAYA AAMIL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>ASHRAFI JUMMAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>KHUSHBU NASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>UMME HANI JAVED QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ESRA LIYAKAT SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ABUHURERA TANVEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HAMDAN IQBAL KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ALI RIZWAN PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>UMAR SARFARAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN SHAHBAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ADNAN SHAKILKHAN PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR (SAA) RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD RASOOL JAWAUDDIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AMEEN TOFIK TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>SAAD IRSHAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHOAIB WASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>AHMED HUSASAIN ZAMEER SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>MD.AAZAM ABDUL GAFFAR MULLA RESULT</t>
-  </si>
-  <si>
-    <t>TAMIM ZAINUL ABIDIN MANSURI RESULT</t>
-  </si>
-  <si>
-    <t>SARA ALTAF SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>ARISHA WASIM KHAN  RESULT</t>
-  </si>
-  <si>
-    <t>FAIZA TOFIQ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AHIL AZRUDDIN PATE RESULT</t>
-  </si>
-  <si>
-    <t>ASHAR JAVEDKHAN KHIKILGAR RESULT</t>
-  </si>
-  <si>
-    <t>BAHUDDIN YUSUF QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB ALIM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>UMAR IBRAHIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SUHEL JAVED ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ASHRAF SHAMSAD MANSURI RESULT</t>
-  </si>
-  <si>
-    <t>AJMERA LATIF MIRAJKAR RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY1(ALIF) RESULT</t>
-  </si>
-  <si>
-    <t>AHAN ISMAIL KHATIB RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD UMAR MOHARRAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>RAYAN JASIF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>DASTAGIR YAKUB INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>ARIF PARVEZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD ALI KALIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>HASSAN KALIM SAYYED RESULT</t>
-  </si>
-  <si>
-    <t>HARIS FARUQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>maryam nizam shaikh RESULT</t>
-  </si>
-  <si>
-    <t>RAHIMIN JAVED QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>KASHIFA JAMAL ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AAIZA HUSSAIN MOHAMMAD RESULT</t>
-  </si>
-  <si>
-    <t>ADIBA ABID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN JAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>RAHIL SUBHAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AZAM AMIR DESAI RESULT</t>
-  </si>
-  <si>
-    <t>ALINA MEHTAB ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>NOORJAHA FAIYAZ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>FARIYA FARID MALIK RESULT</t>
-  </si>
-  <si>
-    <t>AHMAD WASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ALISHA MOHAMMAD IMRAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MEHEK FARMAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AHANA ZAHIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALIZA ZAHIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HUSSAIN LATIF MIRAJKAR RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL REHMAN KADIR KURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN WAJID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY2 RESULT</t>
-  </si>
-  <si>
-    <t>ALTAMASH AMIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>DILSHAD SHAMSHAD ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>FARHAN WASIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>FAIZAN AATIF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>RAKIB KURBAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN VASIM PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>HANIFA HUZAIFA SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MAHIRA MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>AALIYA IMRAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FIRDOSH ALAM FIROZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ADDAS SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SABRIN MURSHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA WAJID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>TAHIRA GUDDU SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA NASRUDDIN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>BARIRA AKBAR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>AHAD MOHAMMAD NADIM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MUSTAFA RESULT</t>
-  </si>
-  <si>
-    <t>AHIL ANWAR KURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AHMED MALIKJAN HUDALI RESULT</t>
-  </si>
-  <si>
-    <t>AHMED BABAFARID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL RAHEMAN KAMAR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SAQLAIN AARIF MEMON RESULT</t>
-  </si>
-  <si>
-    <t>DANIYAL MUZAMMIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ANAS YUSUF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HUMAIRA SHOKAT INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>AAIZA ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>RAHMAN MUBIN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AATIF NOSHAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ARFA SHAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>YAHYA ASLAM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAKARIYA IRSHAD QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARFAT YUNUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALI YUNUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HUSSAIN MOHARRAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALI GAUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD MAAZ FAROOQ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AWWAB ASHRAF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>YASEER SAMIR TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>AHMED RAZA IRSHAD QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HASAN SALIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ARIBAH FAROOQ VOHRA RESULT</t>
-  </si>
-  <si>
-    <t>HURAIN SHAROOKH QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZOBIYA AKHTAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SUFIYA WASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>MUBASHARA ZAKIR SAYYED RESULT</t>
-  </si>
-  <si>
-    <t>MARIYA KASIM PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>RAYYAN HAMID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>LATIF GULAMRASUL SHAHPURE RESULT</t>
-  </si>
-  <si>
-    <t>INAYA SAMEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR RESULT</t>
-  </si>
-  <si>
-    <t>SHIRIN JAVED PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR RESULT</t>
-  </si>
-  <si>
-    <t>AJMERA KHATUN HURUN RASHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>IQRA RAFIQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR RESULT</t>
-  </si>
-  <si>
-    <t>AQSA ZAMIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>4TH YEAR RESULT</t>
-  </si>
-  <si>
-    <t>HALIMA ABDUL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HAFIZA ABDUL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FAIMA NIZAMIDDIN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>NAZMEEN SHABBIR PATEL RESULT</t>
-  </si>
-  <si>
-    <t>ZOYA RAFIQ TAMBOLI RESULT</t>
-  </si>
-  <si>
     <t>5TH YEAR RESULT</t>
   </si>
   <si>
@@ -1595,6 +1936,9 @@
     <t>SHANU MUSHTAQ TAMBOLI RESULT</t>
   </si>
   <si>
+    <t>KAHKASHA HAKIMULLAH MALIK RESULT</t>
+  </si>
+  <si>
     <t>2ND YEAR (M) RESULT</t>
   </si>
   <si>
@@ -1613,7 +1957,7 @@
     <t>IFRA IRFAN ANSARI RESULT</t>
   </si>
   <si>
-    <t>ZUHEHA TARIQ SIDDIQI RESULT</t>
+    <t>ZUHRHA TARIQ SIDDIQI RESULT</t>
   </si>
   <si>
     <t>RIZA YUNUS SHAIKH RESULT</t>
@@ -1637,6 +1981,9 @@
     <t>HUMAIRAA IQBAL INAMDAR RESULT</t>
   </si>
   <si>
+    <t>SHIFA SIRAJ SHAIKH RESULT</t>
+  </si>
+  <si>
     <t>BUSHRA ISMAIL SANI RESULT</t>
   </si>
   <si>
@@ -1676,13 +2023,16 @@
     <t>SHAGUFTA SAMEER MULANI RESULT</t>
   </si>
   <si>
-    <t>AAIMAN ASHFAQ KHAN RESULT</t>
+    <t>AAIMAN MUSTAK AHMED KHAN RESULT</t>
   </si>
   <si>
     <t>ZOHA HAMID SHAIKH RESULT</t>
   </si>
   <si>
     <t>MANNAT FAROOQ HUSAIN RESULT</t>
+  </si>
+  <si>
+    <t>SAMEERA NAIK MOHAMMAD RESULT</t>
   </si>
   <si>
     <t>FIRDOS YUSUF INAMDAR RESULT</t>
@@ -1704,7 +2054,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1722,40 +2072,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
       <charset val="134"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Jameel Noori Nastaleeq"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Jameel Noori Nastaleeq"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Jameel Noori Nastaleeq"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1894,8 +2220,15 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1911,24 +2244,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,7 +2428,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2131,19 +2446,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2265,178 +2567,144 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2768,10 +3036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E582"/>
+  <dimension ref="A1:E592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="A584" sqref="A584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2795,92 +3063,91 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="3"/>
@@ -2894,56 +3161,56 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="3"/>
@@ -2964,63 +3231,63 @@
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D35" s="3"/>
@@ -3034,63 +3301,63 @@
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="3"/>
@@ -3181,7 +3448,7 @@
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="3"/>
@@ -3208,15 +3475,15 @@
       <c r="D61" s="3"/>
       <c r="E61" s="4"/>
     </row>
-    <row r="62" ht="24" spans="1:5">
-      <c r="A62" s="8" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="4"/>
     </row>
-    <row r="63" ht="24" spans="1:5">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="3"/>
@@ -3230,84 +3497,84 @@
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>67</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D76" s="3"/>
@@ -3315,3464 +3582,3514 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="5" t="s">
-        <v>77</v>
+      <c r="A79" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="5" t="s">
-        <v>78</v>
+      <c r="A80" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="5" t="s">
-        <v>79</v>
+      <c r="A81" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="5" t="s">
-        <v>80</v>
+      <c r="A82" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="5" t="s">
-        <v>81</v>
+      <c r="A83" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="5" t="s">
-        <v>82</v>
+      <c r="A84" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="5" t="s">
-        <v>83</v>
+      <c r="A85" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="5" t="s">
-        <v>84</v>
+      <c r="A86" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="5" t="s">
-        <v>85</v>
+      <c r="A87" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="5" t="s">
-        <v>86</v>
+      <c r="A88" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="5" t="s">
-        <v>87</v>
+      <c r="A89" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="4"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="5" t="s">
-        <v>88</v>
+      <c r="A90" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="4"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="5" t="s">
-        <v>89</v>
+      <c r="A91" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="4"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="5" t="s">
-        <v>90</v>
+      <c r="A92" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="4"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="5" t="s">
-        <v>91</v>
+      <c r="A93" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="4"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="9" t="s">
-        <v>92</v>
+      <c r="A94" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="4"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="5" t="s">
-        <v>93</v>
+      <c r="A95" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="4"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="5" t="s">
-        <v>94</v>
+      <c r="A96" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="4"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="5" t="s">
-        <v>95</v>
+      <c r="A97" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="4"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="5" t="s">
-        <v>96</v>
+      <c r="A98" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="4"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="5" t="s">
-        <v>97</v>
+      <c r="A99" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="4"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="4"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="5" t="s">
-        <v>98</v>
+      <c r="A101" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="4"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="5" t="s">
-        <v>99</v>
+      <c r="A102" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="5" t="s">
-        <v>100</v>
+      <c r="A103" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="4"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="5" t="s">
-        <v>101</v>
+      <c r="A104" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="4"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="5" t="s">
-        <v>102</v>
+      <c r="A105" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="5" t="s">
-        <v>103</v>
+      <c r="A106" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="5" t="s">
-        <v>104</v>
+      <c r="A107" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="4"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="5" t="s">
-        <v>105</v>
+      <c r="A108" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="4"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="5" t="s">
-        <v>106</v>
+      <c r="A109" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="4"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="5" t="s">
-        <v>107</v>
+      <c r="A110" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="4"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="5" t="s">
-        <v>108</v>
+      <c r="A111" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="5" t="s">
-        <v>109</v>
+      <c r="A112" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="5" t="s">
-        <v>110</v>
+      <c r="A113" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="4"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="5" t="s">
-        <v>111</v>
+      <c r="A114" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="4"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="5" t="s">
-        <v>112</v>
+      <c r="A115" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="4"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="5" t="s">
-        <v>113</v>
+      <c r="A116" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="4"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="9" t="s">
-        <v>114</v>
+      <c r="A117" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="5" t="s">
-        <v>115</v>
+      <c r="A118" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="4"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="5" t="s">
-        <v>116</v>
+      <c r="A119" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="5" t="s">
-        <v>117</v>
+      <c r="A120" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="5" t="s">
-        <v>118</v>
+      <c r="A121" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="5" t="s">
-        <v>119</v>
+      <c r="A122" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="4"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="5" t="s">
-        <v>120</v>
+      <c r="A123" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="4"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="5" t="s">
-        <v>121</v>
+      <c r="A124" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="5" t="s">
-        <v>122</v>
+      <c r="A125" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="5" t="s">
-        <v>123</v>
+      <c r="A126" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="4"/>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="4"/>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="4"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="5" t="s">
-        <v>125</v>
+      <c r="A129" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="4"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="5" t="s">
-        <v>126</v>
+      <c r="A130" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="4"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="5" t="s">
-        <v>127</v>
+      <c r="A131" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="5" t="s">
-        <v>128</v>
+      <c r="A132" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="5" t="s">
-        <v>129</v>
+      <c r="A133" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="5" t="s">
-        <v>130</v>
+      <c r="A134" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="5" t="s">
-        <v>131</v>
+      <c r="A135" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="4"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="5" t="s">
-        <v>132</v>
+      <c r="A136" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="4"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="5" t="s">
-        <v>133</v>
+      <c r="A137" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="4"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="5" t="s">
-        <v>134</v>
+      <c r="A138" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="4"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="5" t="s">
-        <v>135</v>
+      <c r="A139" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="4"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="5" t="s">
-        <v>136</v>
+      <c r="A140" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="4"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="5" t="s">
-        <v>137</v>
+      <c r="A141" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="4"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="5" t="s">
-        <v>138</v>
+      <c r="A142" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="4"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="5" t="s">
-        <v>139</v>
+      <c r="A143" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="4"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="9" t="s">
-        <v>140</v>
+      <c r="A144" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="4"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="4"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="4"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="5" t="s">
-        <v>143</v>
+      <c r="A148" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="5" t="s">
-        <v>144</v>
+      <c r="A149" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="5" t="s">
-        <v>145</v>
+      <c r="A150" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="5" t="s">
-        <v>146</v>
+      <c r="A151" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="6" t="s">
-        <v>147</v>
+      <c r="A152" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="4"/>
     </row>
-    <row r="153" ht="24" spans="1:5">
-      <c r="A153" s="8" t="s">
-        <v>148</v>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="4"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="5" t="s">
-        <v>149</v>
+      <c r="A154" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="4"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="6" t="s">
-        <v>150</v>
+      <c r="A155" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="4"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="5" t="s">
-        <v>151</v>
+      <c r="A156" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="4"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="5" t="s">
-        <v>152</v>
+      <c r="A157" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="5" t="s">
-        <v>153</v>
+      <c r="A158" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="4"/>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="4"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="5" t="s">
-        <v>155</v>
+      <c r="A160" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="4"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="5" t="s">
-        <v>156</v>
+      <c r="A161" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="4"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="5" t="s">
-        <v>157</v>
+      <c r="A162" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="4"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="5" t="s">
-        <v>158</v>
+      <c r="A163" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="4"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="5" t="s">
-        <v>159</v>
+      <c r="A164" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="4"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="5" t="s">
-        <v>160</v>
+      <c r="A165" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="4"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="5" t="s">
-        <v>161</v>
+      <c r="A166" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="4"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="5" t="s">
-        <v>162</v>
+      <c r="A167" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="4"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="5" t="s">
-        <v>163</v>
+      <c r="A168" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="4"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="6" t="s">
-        <v>164</v>
+      <c r="A169" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="4"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="10" t="s">
-        <v>165</v>
+      <c r="A170" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="4"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="5" t="s">
-        <v>166</v>
+      <c r="A171" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="4"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="5" t="s">
-        <v>167</v>
+      <c r="A172" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="4"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="6" t="s">
-        <v>168</v>
+      <c r="A173" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="4"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="5" t="s">
-        <v>169</v>
+      <c r="A174" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="4"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="5" t="s">
-        <v>170</v>
+      <c r="A175" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="4"/>
     </row>
-    <row r="176" ht="24" spans="1:5">
-      <c r="A176" s="8" t="s">
-        <v>171</v>
+    <row r="176" spans="1:5">
+      <c r="A176" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="4"/>
     </row>
-    <row r="177" ht="24" spans="1:5">
-      <c r="A177" s="11" t="s">
-        <v>172</v>
+    <row r="177" spans="1:5">
+      <c r="A177" s="2" t="s">
+        <v>176</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="4"/>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="4"/>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="4"/>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="4"/>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="4"/>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="4"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="5" t="s">
-        <v>177</v>
+      <c r="A183" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="4"/>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="4"/>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="4"/>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="4"/>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="4"/>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="4"/>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="4"/>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="4"/>
     </row>
-    <row r="191" ht="24" spans="1:5">
-      <c r="A191" s="12" t="s">
-        <v>185</v>
+    <row r="191" spans="1:5">
+      <c r="A191" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="4"/>
     </row>
-    <row r="192" ht="24" spans="1:5">
-      <c r="A192" s="12" t="s">
-        <v>186</v>
+    <row r="192" spans="1:5">
+      <c r="A192" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="4"/>
     </row>
-    <row r="193" ht="24" spans="1:5">
-      <c r="A193" s="8" t="s">
-        <v>187</v>
+    <row r="193" spans="1:5">
+      <c r="A193" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="4"/>
     </row>
-    <row r="194" ht="24" spans="1:5">
-      <c r="A194" s="8" t="s">
-        <v>188</v>
+    <row r="194" spans="1:5">
+      <c r="A194" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="4"/>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="4"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="5" t="s">
-        <v>189</v>
+      <c r="A196" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="4"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="5" t="s">
-        <v>190</v>
+      <c r="A197" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="4"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="5" t="s">
-        <v>191</v>
+      <c r="A198" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="4"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="5" t="s">
-        <v>192</v>
+      <c r="A199" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="4"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="5" t="s">
-        <v>193</v>
+      <c r="A200" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="4"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="5" t="s">
-        <v>194</v>
+      <c r="A201" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="4"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="5" t="s">
-        <v>195</v>
+      <c r="A202" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="4"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="5" t="s">
-        <v>196</v>
+      <c r="A203" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="4"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="5" t="s">
-        <v>197</v>
+      <c r="A204" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="4"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="5" t="s">
-        <v>198</v>
+      <c r="A205" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="4"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="5" t="s">
-        <v>199</v>
+      <c r="A206" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="4"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="5" t="s">
-        <v>200</v>
+      <c r="A207" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="4"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="5" t="s">
-        <v>201</v>
+      <c r="A208" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="4"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="5" t="s">
-        <v>202</v>
+      <c r="A209" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="4"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="5" t="s">
-        <v>203</v>
+      <c r="A210" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="4"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="5" t="s">
-        <v>204</v>
+      <c r="A211" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="4"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="5" t="s">
-        <v>205</v>
+      <c r="A212" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="4"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="5" t="s">
-        <v>206</v>
+      <c r="A213" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="4"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="5" t="s">
-        <v>207</v>
+      <c r="A214" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="4"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="5" t="s">
-        <v>208</v>
+      <c r="A215" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="4"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="5" t="s">
-        <v>209</v>
+      <c r="A216" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="4"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="5" t="s">
-        <v>210</v>
+      <c r="A217" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="4"/>
     </row>
-    <row r="218" ht="24" spans="1:5">
-      <c r="A218" s="8" t="s">
-        <v>211</v>
+    <row r="218" spans="1:5">
+      <c r="A218" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="4"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="7" t="s">
-        <v>212</v>
+      <c r="A219" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="4"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="7" t="s">
-        <v>213</v>
+      <c r="A220" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="4"/>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="4"/>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="4"/>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="4"/>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="4"/>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="4"/>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="4"/>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="4"/>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="4"/>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="4"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="4"/>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="4"/>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="4"/>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="4"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="4"/>
     </row>
-    <row r="235" ht="24" spans="1:5">
-      <c r="A235" s="8" t="s">
-        <v>228</v>
+    <row r="235" spans="1:5">
+      <c r="A235" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="4"/>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="4"/>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="4"/>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="4"/>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="4"/>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="4"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="5" t="s">
-        <v>233</v>
+      <c r="A241" s="2" t="s">
+        <v>240</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="4"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="5" t="s">
-        <v>234</v>
+      <c r="A242" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="4"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="5" t="s">
-        <v>235</v>
+      <c r="A243" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="4"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="5" t="s">
-        <v>236</v>
+      <c r="A244" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="4"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="5" t="s">
-        <v>237</v>
+      <c r="A245" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="4"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="5" t="s">
-        <v>238</v>
+      <c r="A246" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="4"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="5" t="s">
-        <v>239</v>
+      <c r="A247" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247" s="4"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="5" t="s">
-        <v>240</v>
+      <c r="A248" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="4"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="5" t="s">
-        <v>241</v>
+      <c r="A249" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="4"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="5" t="s">
-        <v>242</v>
+      <c r="A250" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="4"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="5" t="s">
-        <v>243</v>
+      <c r="A251" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="4"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="5" t="s">
-        <v>244</v>
+      <c r="A252" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="4"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="5" t="s">
-        <v>245</v>
+      <c r="A253" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="4"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="5" t="s">
-        <v>246</v>
+      <c r="A254" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="4"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="5" t="s">
-        <v>247</v>
+      <c r="A255" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="4"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="9" t="s">
-        <v>248</v>
+      <c r="A256" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="4"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="5" t="s">
-        <v>249</v>
+      <c r="A257" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="4"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="5" t="s">
-        <v>250</v>
+      <c r="A258" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="4"/>
     </row>
-    <row r="259" ht="24" spans="1:5">
-      <c r="A259" s="13" t="s">
-        <v>251</v>
+    <row r="259" spans="1:5">
+      <c r="A259" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="4"/>
     </row>
-    <row r="260" ht="24" spans="1:5">
-      <c r="A260" s="13" t="s">
-        <v>252</v>
+    <row r="260" spans="1:5">
+      <c r="A260" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="4"/>
     </row>
-    <row r="261" ht="24" spans="1:5">
-      <c r="A261" s="13" t="s">
-        <v>253</v>
+    <row r="261" spans="1:5">
+      <c r="A261" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="4"/>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="4"/>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="4"/>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="4"/>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="4"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="6" t="s">
-        <v>258</v>
+      <c r="A266" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="4"/>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="4"/>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="4"/>
     </row>
-    <row r="269" ht="24" spans="1:5">
-      <c r="A269" s="11" t="s">
-        <v>261</v>
+    <row r="269" spans="1:5">
+      <c r="A269" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="4"/>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="4"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="14" t="s">
-        <v>263</v>
+      <c r="A271" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="4"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="5" t="s">
-        <v>264</v>
+      <c r="A272" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="4"/>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="4"/>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="4"/>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="4"/>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="4"/>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="4"/>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="4"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="5" t="s">
-        <v>271</v>
+      <c r="A279" s="2" t="s">
+        <v>278</v>
       </c>
       <c r="D279" s="3"/>
       <c r="E279" s="4"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="5" t="s">
-        <v>272</v>
+      <c r="A280" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="4"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="5" t="s">
-        <v>273</v>
+      <c r="A281" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="4"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="5" t="s">
-        <v>274</v>
+      <c r="A282" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D282" s="3"/>
       <c r="E282" s="4"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="5" t="s">
-        <v>275</v>
+      <c r="A283" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D283" s="3"/>
       <c r="E283" s="4"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="5" t="s">
-        <v>276</v>
+      <c r="A284" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="4"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="5" t="s">
-        <v>277</v>
+      <c r="A285" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="4"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="5" t="s">
-        <v>278</v>
+      <c r="A286" s="2" t="s">
+        <v>285</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="4"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="5" t="s">
-        <v>279</v>
+      <c r="A287" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="4"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="5" t="s">
-        <v>280</v>
+      <c r="A288" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="4"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="10" t="s">
-        <v>281</v>
+      <c r="A289" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D289" s="3"/>
       <c r="E289" s="4"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="5" t="s">
-        <v>282</v>
+      <c r="A290" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="4"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="5" t="s">
-        <v>283</v>
+      <c r="A291" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="4"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="5" t="s">
-        <v>284</v>
+      <c r="A292" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="D292" s="3"/>
       <c r="E292" s="4"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="7" t="s">
-        <v>285</v>
+      <c r="A293" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D293" s="3"/>
       <c r="E293" s="4"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="5" t="s">
-        <v>24</v>
+      <c r="A294" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="D294" s="3"/>
       <c r="E294" s="4"/>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D295" s="3"/>
       <c r="E295" s="4"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="5" t="s">
-        <v>287</v>
+      <c r="A296" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D296" s="3"/>
       <c r="E296" s="4"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="5" t="s">
-        <v>288</v>
+      <c r="A297" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="D297" s="3"/>
       <c r="E297" s="4"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="5" t="s">
-        <v>289</v>
+      <c r="A298" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="D298" s="3"/>
       <c r="E298" s="4"/>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="6" t="s">
-        <v>290</v>
+      <c r="A299" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="D299" s="3"/>
       <c r="E299" s="4"/>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="5" t="s">
-        <v>291</v>
+      <c r="A300" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D300" s="3"/>
       <c r="E300" s="4"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="6" t="s">
-        <v>292</v>
+      <c r="A301" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D301" s="3"/>
       <c r="E301" s="4"/>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="5" t="s">
-        <v>293</v>
+      <c r="A302" s="2" t="s">
+        <v>301</v>
       </c>
       <c r="D302" s="3"/>
       <c r="E302" s="4"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="5" t="s">
-        <v>294</v>
+      <c r="A303" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="D303" s="3"/>
       <c r="E303" s="4"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="5" t="s">
-        <v>295</v>
+      <c r="A304" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="D304" s="3"/>
       <c r="E304" s="4"/>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="6" t="s">
-        <v>296</v>
+      <c r="A305" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="D305" s="3"/>
       <c r="E305" s="4"/>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="5" t="s">
-        <v>297</v>
+      <c r="A306" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D306" s="3"/>
       <c r="E306" s="4"/>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="5" t="s">
-        <v>298</v>
+      <c r="A307" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="D307" s="3"/>
       <c r="E307" s="4"/>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="5" t="s">
-        <v>299</v>
+      <c r="A308" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="D308" s="3"/>
       <c r="E308" s="4"/>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="5" t="s">
-        <v>300</v>
+      <c r="A309" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="D309" s="3"/>
       <c r="E309" s="4"/>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="15" t="s">
-        <v>301</v>
+      <c r="A310" s="2" t="s">
+        <v>309</v>
       </c>
       <c r="D310" s="3"/>
       <c r="E310" s="4"/>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="5" t="s">
-        <v>302</v>
+      <c r="A311" s="2" t="s">
+        <v>310</v>
       </c>
       <c r="D311" s="3"/>
       <c r="E311" s="4"/>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="6" t="s">
-        <v>303</v>
+      <c r="A312" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="D312" s="3"/>
       <c r="E312" s="4"/>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="5" t="s">
-        <v>304</v>
+      <c r="A313" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="D313" s="3"/>
       <c r="E313" s="4"/>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="6" t="s">
-        <v>305</v>
+      <c r="A314" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="D314" s="3"/>
       <c r="E314" s="4"/>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="5" t="s">
-        <v>306</v>
+      <c r="A315" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="D315" s="3"/>
       <c r="E315" s="4"/>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="6" t="s">
-        <v>307</v>
+      <c r="A316" s="2" t="s">
+        <v>315</v>
       </c>
       <c r="D316" s="3"/>
       <c r="E316" s="4"/>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="6" t="s">
-        <v>308</v>
+      <c r="A317" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="D317" s="3"/>
       <c r="E317" s="4"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="5" t="s">
-        <v>309</v>
+      <c r="A318" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="4"/>
     </row>
-    <row r="319" ht="24" spans="1:5">
-      <c r="A319" s="13" t="s">
-        <v>310</v>
+    <row r="319" spans="1:5">
+      <c r="A319" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="D319" s="3"/>
       <c r="E319" s="4"/>
     </row>
-    <row r="320" ht="24" spans="1:5">
-      <c r="A320" s="16" t="s">
-        <v>311</v>
+    <row r="320" spans="1:5">
+      <c r="A320" s="2" t="s">
+        <v>319</v>
       </c>
       <c r="D320" s="3"/>
       <c r="E320" s="4"/>
     </row>
-    <row r="321" ht="24" spans="1:5">
-      <c r="A321" s="16" t="s">
-        <v>312</v>
+    <row r="321" spans="1:5">
+      <c r="A321" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="D321" s="3"/>
       <c r="E321" s="4"/>
     </row>
-    <row r="322" ht="24" spans="1:5">
-      <c r="A322" s="13" t="s">
-        <v>313</v>
+    <row r="322" spans="1:5">
+      <c r="A322" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D322" s="3"/>
       <c r="E322" s="4"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="7" t="s">
-        <v>314</v>
+      <c r="A323" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="D323" s="3"/>
       <c r="E323" s="4"/>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D324" s="3"/>
       <c r="E324" s="4"/>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>35</v>
+        <v>324</v>
       </c>
       <c r="D325" s="3"/>
       <c r="E325" s="4"/>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="5" t="s">
-        <v>316</v>
+      <c r="A326" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="D326" s="3"/>
       <c r="E326" s="4"/>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="5" t="s">
-        <v>317</v>
+      <c r="A327" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="D327" s="3"/>
       <c r="E327" s="4"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="5" t="s">
-        <v>318</v>
+      <c r="A328" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="D328" s="3"/>
       <c r="E328" s="4"/>
     </row>
-    <row r="329" ht="24" spans="1:5">
-      <c r="A329" s="8" t="s">
-        <v>319</v>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="D329" s="3"/>
       <c r="E329" s="4"/>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="5" t="s">
-        <v>320</v>
+      <c r="A330" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="4"/>
     </row>
-    <row r="331" ht="24" spans="1:5">
-      <c r="A331" s="11" t="s">
-        <v>321</v>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="D331" s="3"/>
       <c r="E331" s="4"/>
     </row>
-    <row r="332" ht="24" spans="1:5">
-      <c r="A332" s="8" t="s">
-        <v>322</v>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="D332" s="3"/>
       <c r="E332" s="4"/>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>24</v>
+        <v>332</v>
       </c>
       <c r="D333" s="3"/>
       <c r="E333" s="4"/>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="D334" s="3"/>
       <c r="E334" s="4"/>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="5" t="s">
-        <v>324</v>
+      <c r="A335" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="D335" s="3"/>
       <c r="E335" s="4"/>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="6" t="s">
-        <v>325</v>
+      <c r="A336" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="D336" s="3"/>
       <c r="E336" s="4"/>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="5" t="s">
-        <v>326</v>
+      <c r="A337" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="D337" s="3"/>
       <c r="E337" s="4"/>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="5" t="s">
-        <v>327</v>
+      <c r="A338" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="D338" s="3"/>
       <c r="E338" s="4"/>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="6" t="s">
-        <v>328</v>
+      <c r="A339" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="D339" s="3"/>
       <c r="E339" s="4"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="6" t="s">
-        <v>329</v>
+      <c r="A340" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="D340" s="3"/>
       <c r="E340" s="4"/>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="5" t="s">
-        <v>330</v>
+      <c r="A341" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="D341" s="3"/>
       <c r="E341" s="4"/>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="5" t="s">
-        <v>331</v>
+      <c r="A342" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="D342" s="3"/>
       <c r="E342" s="4"/>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="5" t="s">
-        <v>332</v>
+      <c r="A343" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="D343" s="3"/>
       <c r="E343" s="4"/>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D344" s="3"/>
       <c r="E344" s="4"/>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="D345" s="3"/>
       <c r="E345" s="4"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="5" t="s">
-        <v>335</v>
+      <c r="A346" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="D346" s="3"/>
       <c r="E346" s="4"/>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="6" t="s">
-        <v>336</v>
+      <c r="A347" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="4"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="5" t="s">
-        <v>337</v>
+      <c r="A348" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="4"/>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="5" t="s">
-        <v>338</v>
+      <c r="A349" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="4"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="5" t="s">
-        <v>339</v>
+      <c r="A350" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="4"/>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="5" t="s">
-        <v>340</v>
+      <c r="A351" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="D351" s="3"/>
       <c r="E351" s="4"/>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="17" t="s">
-        <v>341</v>
+      <c r="A352" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D352" s="3"/>
       <c r="E352" s="4"/>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="17" t="s">
-        <v>342</v>
+      <c r="A353" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="D353" s="3"/>
       <c r="E353" s="4"/>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="7" t="s">
-        <v>343</v>
+      <c r="A354" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="D354" s="3"/>
       <c r="E354" s="4"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="7" t="s">
-        <v>344</v>
+      <c r="A355" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="D355" s="3"/>
       <c r="E355" s="4"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="7" t="s">
-        <v>345</v>
+      <c r="A356" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="D356" s="3"/>
       <c r="E356" s="4"/>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="7" t="s">
-        <v>346</v>
+      <c r="A357" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D357" s="3"/>
       <c r="E357" s="4"/>
     </row>
-    <row r="358" ht="24" spans="1:5">
-      <c r="A358" s="8" t="s">
-        <v>347</v>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="D358" s="3"/>
       <c r="E358" s="4"/>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="17" t="s">
-        <v>348</v>
+      <c r="A359" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="D359" s="3"/>
       <c r="E359" s="4"/>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="18" t="s">
-        <v>349</v>
+      <c r="A360" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="D360" s="3"/>
       <c r="E360" s="4"/>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="D361" s="3"/>
       <c r="E361" s="4"/>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="D362" s="3"/>
       <c r="E362" s="4"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="6" t="s">
-        <v>351</v>
+      <c r="A363" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="D363" s="3"/>
       <c r="E363" s="4"/>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="5" t="s">
-        <v>352</v>
+      <c r="A364" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="D364" s="3"/>
       <c r="E364" s="4"/>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="17" t="s">
-        <v>353</v>
+      <c r="A365" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="D365" s="3"/>
       <c r="E365" s="4"/>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="7" t="s">
-        <v>354</v>
+      <c r="A366" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="D366" s="3"/>
       <c r="E366" s="4"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="5" t="s">
-        <v>355</v>
+      <c r="A367" s="2" t="s">
+        <v>366</v>
       </c>
       <c r="D367" s="3"/>
       <c r="E367" s="4"/>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="5" t="s">
-        <v>356</v>
+      <c r="A368" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="D368" s="3"/>
       <c r="E368" s="4"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="5" t="s">
-        <v>357</v>
+      <c r="A369" s="2" t="s">
+        <v>368</v>
       </c>
       <c r="D369" s="3"/>
       <c r="E369" s="4"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="5" t="s">
-        <v>358</v>
+      <c r="A370" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="D370" s="3"/>
       <c r="E370" s="4"/>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="5" t="s">
-        <v>359</v>
+      <c r="A371" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="D371" s="3"/>
       <c r="E371" s="4"/>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="17" t="s">
-        <v>360</v>
+      <c r="A372" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="D372" s="3"/>
       <c r="E372" s="4"/>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="6" t="s">
-        <v>361</v>
+      <c r="A373" s="2" t="s">
+        <v>372</v>
       </c>
       <c r="D373" s="3"/>
       <c r="E373" s="4"/>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="6" t="s">
-        <v>362</v>
+      <c r="A374" s="2" t="s">
+        <v>373</v>
       </c>
       <c r="D374" s="3"/>
       <c r="E374" s="4"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="6" t="s">
-        <v>363</v>
+      <c r="A375" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="D375" s="3"/>
       <c r="E375" s="4"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="5" t="s">
-        <v>364</v>
+      <c r="A376" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="D376" s="3"/>
       <c r="E376" s="4"/>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="5" t="s">
-        <v>365</v>
+      <c r="A377" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D377" s="3"/>
       <c r="E377" s="4"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="5" t="s">
-        <v>366</v>
+      <c r="A378" s="2" t="s">
+        <v>377</v>
       </c>
       <c r="D378" s="3"/>
       <c r="E378" s="4"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="5" t="s">
-        <v>367</v>
+      <c r="A379" s="2" t="s">
+        <v>378</v>
       </c>
       <c r="D379" s="3"/>
       <c r="E379" s="4"/>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="5" t="s">
-        <v>368</v>
+      <c r="A380" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="D380" s="3"/>
       <c r="E380" s="4"/>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="5" t="s">
-        <v>369</v>
+      <c r="A381" s="2" t="s">
+        <v>380</v>
       </c>
       <c r="D381" s="3"/>
       <c r="E381" s="4"/>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="5" t="s">
-        <v>370</v>
+      <c r="A382" s="2" t="s">
+        <v>381</v>
       </c>
       <c r="D382" s="3"/>
       <c r="E382" s="4"/>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="5" t="s">
-        <v>371</v>
+      <c r="A383" s="2" t="s">
+        <v>382</v>
       </c>
       <c r="D383" s="3"/>
       <c r="E383" s="4"/>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="5" t="s">
-        <v>372</v>
+      <c r="A384" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="D384" s="3"/>
       <c r="E384" s="4"/>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="7" t="s">
-        <v>373</v>
+      <c r="A385" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="D385" s="3"/>
       <c r="E385" s="4"/>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="5" t="s">
-        <v>374</v>
+      <c r="A386" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="D386" s="3"/>
       <c r="E386" s="4"/>
     </row>
-    <row r="387" ht="24" spans="1:5">
-      <c r="A387" s="8" t="s">
-        <v>375</v>
+    <row r="387" spans="1:5">
+      <c r="A387" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="D387" s="3"/>
       <c r="E387" s="4"/>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="5" t="s">
-        <v>376</v>
+      <c r="A388" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="D388" s="3"/>
       <c r="E388" s="4"/>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="5" t="s">
-        <v>377</v>
+      <c r="A389" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="D389" s="3"/>
       <c r="E389" s="4"/>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="10" t="s">
-        <v>378</v>
+      <c r="A390" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="D390" s="3"/>
       <c r="E390" s="4"/>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D391" s="3"/>
       <c r="E391" s="4"/>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="D392" s="3"/>
       <c r="E392" s="4"/>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="D393" s="3"/>
       <c r="E393" s="4"/>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="D394" s="3"/>
       <c r="E394" s="4"/>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="D395" s="3"/>
       <c r="E395" s="4"/>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D396" s="3"/>
       <c r="E396" s="4"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="5" t="s">
-        <v>63</v>
+      <c r="A397" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="D397" s="3"/>
       <c r="E397" s="4"/>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="D398" s="3"/>
       <c r="E398" s="4"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="5" t="s">
-        <v>386</v>
+      <c r="A399" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="D399" s="3"/>
       <c r="E399" s="4"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="5" t="s">
-        <v>387</v>
+      <c r="A400" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="D400" s="3"/>
       <c r="E400" s="4"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="5" t="s">
-        <v>388</v>
+      <c r="A401" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="D401" s="3"/>
       <c r="E401" s="4"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="5" t="s">
-        <v>389</v>
+      <c r="A402" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="D402" s="3"/>
       <c r="E402" s="4"/>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="5" t="s">
-        <v>390</v>
+      <c r="A403" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D403" s="3"/>
       <c r="E403" s="4"/>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="5" t="s">
-        <v>391</v>
+      <c r="A404" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="D404" s="3"/>
       <c r="E404" s="4"/>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="5" t="s">
-        <v>392</v>
+      <c r="A405" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="D405" s="3"/>
       <c r="E405" s="4"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="5" t="s">
-        <v>393</v>
+      <c r="A406" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="D406" s="3"/>
       <c r="E406" s="4"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="5" t="s">
-        <v>394</v>
+      <c r="A407" s="2" t="s">
+        <v>406</v>
       </c>
       <c r="D407" s="3"/>
       <c r="E407" s="4"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="5" t="s">
-        <v>395</v>
+      <c r="A408" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="D408" s="3"/>
       <c r="E408" s="4"/>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>35</v>
+        <v>408</v>
       </c>
       <c r="D409" s="3"/>
       <c r="E409" s="4"/>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="D410" s="3"/>
       <c r="E410" s="4"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="5" t="s">
-        <v>397</v>
+      <c r="A411" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="D411" s="3"/>
       <c r="E411" s="4"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="5" t="s">
-        <v>398</v>
+      <c r="A412" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="D412" s="3"/>
       <c r="E412" s="4"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="5" t="s">
-        <v>399</v>
+      <c r="A413" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="D413" s="3"/>
       <c r="E413" s="4"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="5" t="s">
-        <v>400</v>
+      <c r="A414" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="D414" s="3"/>
       <c r="E414" s="4"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="5" t="s">
-        <v>401</v>
+      <c r="A415" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="D415" s="3"/>
       <c r="E415" s="4"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="5" t="s">
-        <v>402</v>
+      <c r="A416" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="D416" s="3"/>
       <c r="E416" s="4"/>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="5" t="s">
-        <v>403</v>
+      <c r="A417" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="D417" s="3"/>
       <c r="E417" s="4"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="5" t="s">
-        <v>404</v>
+      <c r="A418" s="2" t="s">
+        <v>417</v>
       </c>
       <c r="D418" s="3"/>
       <c r="E418" s="4"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="5" t="s">
-        <v>405</v>
+      <c r="A419" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="D419" s="3"/>
       <c r="E419" s="4"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="5" t="s">
-        <v>406</v>
+      <c r="A420" s="2" t="s">
+        <v>419</v>
       </c>
       <c r="D420" s="3"/>
       <c r="E420" s="4"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="19" t="s">
-        <v>234</v>
+      <c r="A421" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="D421" s="3"/>
       <c r="E421" s="4"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="5" t="s">
-        <v>407</v>
+      <c r="A422" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="D422" s="3"/>
       <c r="E422" s="4"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="5" t="s">
-        <v>408</v>
+      <c r="A423" s="2" t="s">
+        <v>422</v>
       </c>
       <c r="D423" s="3"/>
       <c r="E423" s="4"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="6" t="s">
-        <v>409</v>
+      <c r="A424" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="D424" s="3"/>
       <c r="E424" s="4"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="5" t="s">
-        <v>410</v>
+      <c r="A425" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="D425" s="3"/>
       <c r="E425" s="4"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="5" t="s">
-        <v>411</v>
+      <c r="A426" s="2" t="s">
+        <v>425</v>
       </c>
       <c r="D426" s="3"/>
       <c r="E426" s="4"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="7" t="s">
-        <v>412</v>
+      <c r="A427" s="2" t="s">
+        <v>426</v>
       </c>
       <c r="D427" s="3"/>
       <c r="E427" s="4"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="17" t="s">
-        <v>413</v>
+      <c r="A428" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="D428" s="3"/>
       <c r="E428" s="4"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="7" t="s">
-        <v>414</v>
+      <c r="A429" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D429" s="3"/>
       <c r="E429" s="4"/>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="D430" s="3"/>
       <c r="E430" s="4"/>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="D431" s="3"/>
       <c r="E431" s="4"/>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="5" t="s">
-        <v>416</v>
+      <c r="A432" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="D432" s="3"/>
       <c r="E432" s="4"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="10" t="s">
-        <v>417</v>
+      <c r="A433" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="D433" s="3"/>
       <c r="E433" s="4"/>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="7" t="s">
-        <v>418</v>
+      <c r="A434" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="D434" s="3"/>
       <c r="E434" s="4"/>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="5" t="s">
-        <v>419</v>
+      <c r="A435" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D435" s="3"/>
       <c r="E435" s="4"/>
     </row>
     <row r="436" spans="1:5">
-      <c r="A436" s="5" t="s">
-        <v>420</v>
+      <c r="A436" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="D436" s="3"/>
       <c r="E436" s="4"/>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="5" t="s">
-        <v>421</v>
+      <c r="A437" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="D437" s="3"/>
       <c r="E437" s="4"/>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="5" t="s">
-        <v>422</v>
+      <c r="A438" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="D438" s="3"/>
       <c r="E438" s="4"/>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="5" t="s">
-        <v>423</v>
+      <c r="A439" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="D439" s="3"/>
       <c r="E439" s="4"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="5" t="s">
-        <v>424</v>
+      <c r="A440" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="D440" s="3"/>
       <c r="E440" s="4"/>
     </row>
     <row r="441" spans="1:5">
-      <c r="A441" s="5" t="s">
-        <v>425</v>
+      <c r="A441" s="2" t="s">
+        <v>440</v>
       </c>
       <c r="D441" s="3"/>
       <c r="E441" s="4"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="A442" s="5" t="s">
-        <v>426</v>
+      <c r="A442" s="2" t="s">
+        <v>441</v>
       </c>
       <c r="D442" s="3"/>
       <c r="E442" s="4"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="7" t="s">
-        <v>427</v>
+      <c r="A443" s="2" t="s">
+        <v>442</v>
       </c>
       <c r="D443" s="3"/>
       <c r="E443" s="4"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="5" t="s">
-        <v>428</v>
+      <c r="A444" s="2" t="s">
+        <v>443</v>
       </c>
       <c r="D444" s="3"/>
       <c r="E444" s="4"/>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="7" t="s">
-        <v>429</v>
+      <c r="A445" s="2" t="s">
+        <v>444</v>
       </c>
       <c r="D445" s="3"/>
       <c r="E445" s="4"/>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="7" t="s">
-        <v>430</v>
+      <c r="A446" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="D446" s="3"/>
       <c r="E446" s="4"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="7" t="s">
-        <v>431</v>
+      <c r="A447" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="D447" s="3"/>
       <c r="E447" s="4"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="7" t="s">
-        <v>432</v>
+      <c r="A448" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="D448" s="3"/>
       <c r="E448" s="4"/>
     </row>
     <row r="449" spans="1:5">
-      <c r="A449" s="7" t="s">
-        <v>433</v>
+      <c r="A449" s="2" t="s">
+        <v>448</v>
       </c>
       <c r="D449" s="3"/>
       <c r="E449" s="4"/>
     </row>
     <row r="450" spans="1:5">
-      <c r="A450" s="7" t="s">
-        <v>434</v>
+      <c r="A450" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="D450" s="3"/>
       <c r="E450" s="4"/>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="7" t="s">
-        <v>435</v>
+      <c r="A451" s="2" t="s">
+        <v>450</v>
       </c>
       <c r="D451" s="3"/>
       <c r="E451" s="4"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="7" t="s">
-        <v>436</v>
+      <c r="A452" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="D452" s="3"/>
       <c r="E452" s="4"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="A453" s="7" t="s">
-        <v>437</v>
+      <c r="A453" s="2" t="s">
+        <v>452</v>
       </c>
       <c r="D453" s="3"/>
       <c r="E453" s="4"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="7" t="s">
-        <v>438</v>
+      <c r="A454" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="D454" s="3"/>
       <c r="E454" s="4"/>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455" s="7" t="s">
-        <v>439</v>
+      <c r="A455" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="D455" s="3"/>
       <c r="E455" s="4"/>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="7" t="s">
-        <v>440</v>
+      <c r="A456" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D456" s="3"/>
       <c r="E456" s="4"/>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="7" t="s">
-        <v>441</v>
+      <c r="A457" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="D457" s="3"/>
       <c r="E457" s="4"/>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458" s="7" t="s">
-        <v>442</v>
+      <c r="A458" s="2" t="s">
+        <v>457</v>
       </c>
       <c r="D458" s="3"/>
       <c r="E458" s="4"/>
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="2" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="D459" s="3"/>
       <c r="E459" s="4"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="5" t="s">
-        <v>444</v>
+      <c r="A460" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="D460" s="3"/>
       <c r="E460" s="4"/>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="5" t="s">
-        <v>445</v>
+      <c r="A461" s="2" t="s">
+        <v>460</v>
       </c>
       <c r="D461" s="3"/>
       <c r="E461" s="4"/>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="5" t="s">
-        <v>446</v>
+      <c r="A462" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="D462" s="3"/>
       <c r="E462" s="4"/>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="5" t="s">
-        <v>447</v>
+      <c r="A463" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="D463" s="3"/>
       <c r="E463" s="4"/>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="6" t="s">
-        <v>448</v>
+      <c r="A464" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="D464" s="3"/>
       <c r="E464" s="4"/>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="5" t="s">
-        <v>449</v>
+      <c r="A465" s="2" t="s">
+        <v>464</v>
       </c>
       <c r="D465" s="3"/>
       <c r="E465" s="4"/>
     </row>
     <row r="466" spans="1:5">
-      <c r="A466" s="5" t="s">
-        <v>450</v>
+      <c r="A466" s="2" t="s">
+        <v>465</v>
       </c>
       <c r="D466" s="3"/>
       <c r="E466" s="4"/>
     </row>
     <row r="467" spans="1:5">
-      <c r="A467" s="5" t="s">
-        <v>451</v>
+      <c r="A467" s="2" t="s">
+        <v>466</v>
       </c>
       <c r="D467" s="3"/>
       <c r="E467" s="4"/>
     </row>
     <row r="468" spans="1:5">
-      <c r="A468" s="6" t="s">
-        <v>452</v>
+      <c r="A468" s="2" t="s">
+        <v>467</v>
       </c>
       <c r="D468" s="3"/>
       <c r="E468" s="4"/>
     </row>
     <row r="469" spans="1:5">
-      <c r="A469" s="7" t="s">
-        <v>453</v>
+      <c r="A469" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="D469" s="3"/>
       <c r="E469" s="4"/>
     </row>
     <row r="470" spans="1:5">
-      <c r="A470" s="5" t="s">
-        <v>454</v>
+      <c r="A470" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="D470" s="3"/>
       <c r="E470" s="4"/>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="5" t="s">
-        <v>455</v>
+      <c r="A471" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D471" s="3"/>
       <c r="E471" s="4"/>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="5" t="s">
-        <v>456</v>
+      <c r="A472" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D472" s="3"/>
       <c r="E472" s="4"/>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="5" t="s">
-        <v>436</v>
+      <c r="A473" s="2" t="s">
+        <v>472</v>
       </c>
       <c r="D473" s="3"/>
       <c r="E473" s="4"/>
     </row>
     <row r="474" spans="1:5">
-      <c r="A474" s="7" t="s">
-        <v>437</v>
+      <c r="A474" s="2" t="s">
+        <v>473</v>
       </c>
       <c r="D474" s="3"/>
       <c r="E474" s="4"/>
     </row>
     <row r="475" spans="1:5">
-      <c r="A475" s="17" t="s">
-        <v>457</v>
+      <c r="A475" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="D475" s="3"/>
       <c r="E475" s="4"/>
     </row>
     <row r="476" spans="1:5">
-      <c r="A476" s="17" t="s">
-        <v>458</v>
+      <c r="A476" s="2" t="s">
+        <v>475</v>
       </c>
       <c r="D476" s="3"/>
       <c r="E476" s="4"/>
     </row>
     <row r="477" spans="1:5">
-      <c r="A477" s="18" t="s">
-        <v>459</v>
+      <c r="A477" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="D477" s="3"/>
       <c r="E477" s="4"/>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="2" t="s">
-        <v>63</v>
+        <v>477</v>
       </c>
       <c r="D478" s="3"/>
       <c r="E478" s="4"/>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="2" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="D479" s="3"/>
       <c r="E479" s="4"/>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="5" t="s">
-        <v>461</v>
+      <c r="A480" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="D480" s="3"/>
       <c r="E480" s="4"/>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="6" t="s">
-        <v>462</v>
+      <c r="A481" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="D481" s="3"/>
       <c r="E481" s="4"/>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="5" t="s">
-        <v>463</v>
+      <c r="A482" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="D482" s="3"/>
       <c r="E482" s="4"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="5" t="s">
-        <v>464</v>
+      <c r="A483" s="2" t="s">
+        <v>482</v>
       </c>
       <c r="D483" s="3"/>
       <c r="E483" s="4"/>
     </row>
     <row r="484" spans="1:5">
-      <c r="A484" s="5" t="s">
-        <v>422</v>
+      <c r="A484" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="D484" s="3"/>
       <c r="E484" s="4"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="5" t="s">
-        <v>465</v>
+      <c r="A485" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="D485" s="3"/>
       <c r="E485" s="4"/>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="5" t="s">
-        <v>466</v>
+      <c r="A486" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="D486" s="3"/>
       <c r="E486" s="4"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="5" t="s">
-        <v>467</v>
+      <c r="A487" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D487" s="3"/>
       <c r="E487" s="4"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="5" t="s">
-        <v>468</v>
+      <c r="A488" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="D488" s="3"/>
       <c r="E488" s="4"/>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="5" t="s">
-        <v>469</v>
+      <c r="A489" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="D489" s="3"/>
       <c r="E489" s="4"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="6" t="s">
-        <v>470</v>
+      <c r="A490" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="D490" s="3"/>
       <c r="E490" s="4"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="5" t="s">
-        <v>471</v>
+      <c r="A491" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="D491" s="3"/>
       <c r="E491" s="4"/>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="5" t="s">
-        <v>441</v>
+      <c r="A492" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="D492" s="3"/>
       <c r="E492" s="4"/>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="5" t="s">
-        <v>472</v>
+      <c r="A493" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="D493" s="3"/>
       <c r="E493" s="4"/>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="5" t="s">
-        <v>473</v>
+      <c r="A494" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="D494" s="3"/>
       <c r="E494" s="4"/>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="5" t="s">
-        <v>474</v>
+      <c r="A495" s="2" t="s">
+        <v>494</v>
       </c>
       <c r="D495" s="3"/>
       <c r="E495" s="4"/>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="5" t="s">
-        <v>475</v>
+      <c r="A496" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="D496" s="3"/>
       <c r="E496" s="4"/>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="7" t="s">
-        <v>476</v>
+      <c r="A497" s="2" t="s">
+        <v>496</v>
       </c>
       <c r="D497" s="3"/>
       <c r="E497" s="4"/>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="7" t="s">
-        <v>477</v>
+      <c r="A498" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D498" s="3"/>
       <c r="E498" s="4"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="7" t="s">
-        <v>478</v>
+      <c r="A499" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="D499" s="3"/>
       <c r="E499" s="4"/>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="2" t="s">
-        <v>35</v>
+        <v>499</v>
       </c>
       <c r="D500" s="3"/>
       <c r="E500" s="4"/>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="2" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
       <c r="D501" s="3"/>
       <c r="E501" s="4"/>
     </row>
     <row r="502" spans="1:4">
-      <c r="A502" s="5" t="s">
-        <v>480</v>
+      <c r="A502" s="2" t="s">
+        <v>501</v>
       </c>
       <c r="D502" s="3"/>
     </row>
     <row r="503" spans="1:4">
-      <c r="A503" s="5" t="s">
-        <v>481</v>
+      <c r="A503" s="2" t="s">
+        <v>502</v>
       </c>
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="1:4">
-      <c r="A504" s="5" t="s">
-        <v>482</v>
+      <c r="A504" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="D504" s="3"/>
     </row>
     <row r="505" spans="1:4">
-      <c r="A505" s="5" t="s">
-        <v>483</v>
+      <c r="A505" s="2" t="s">
+        <v>504</v>
       </c>
       <c r="D505" s="3"/>
     </row>
     <row r="506" spans="1:4">
-      <c r="A506" s="5" t="s">
-        <v>484</v>
+      <c r="A506" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="D506" s="3"/>
     </row>
     <row r="507" spans="1:4">
-      <c r="A507" s="5" t="s">
-        <v>485</v>
+      <c r="A507" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="D507" s="3"/>
     </row>
     <row r="508" spans="1:4">
-      <c r="A508" s="5" t="s">
-        <v>486</v>
+      <c r="A508" s="2" t="s">
+        <v>507</v>
       </c>
       <c r="D508" s="3"/>
     </row>
     <row r="509" spans="1:4">
-      <c r="A509" s="5" t="s">
-        <v>487</v>
+      <c r="A509" s="2" t="s">
+        <v>508</v>
       </c>
       <c r="D509" s="3"/>
     </row>
     <row r="510" spans="1:4">
-      <c r="A510" s="6" t="s">
-        <v>488</v>
+      <c r="A510" s="2" t="s">
+        <v>509</v>
       </c>
       <c r="D510" s="3"/>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="5" t="s">
-        <v>489</v>
+      <c r="A511" s="2" t="s">
+        <v>510</v>
       </c>
       <c r="D511" s="3"/>
     </row>
     <row r="512" spans="1:4">
-      <c r="A512" s="19" t="s">
-        <v>490</v>
+      <c r="A512" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="D512" s="3"/>
     </row>
     <row r="513" spans="1:4">
-      <c r="A513" s="5" t="s">
-        <v>491</v>
+      <c r="A513" s="2" t="s">
+        <v>512</v>
       </c>
       <c r="D513" s="3"/>
     </row>
     <row r="514" spans="1:4">
-      <c r="A514" s="5" t="s">
-        <v>492</v>
+      <c r="A514" s="2" t="s">
+        <v>513</v>
       </c>
       <c r="D514" s="3"/>
     </row>
     <row r="515" spans="1:4">
-      <c r="A515" s="6" t="s">
-        <v>493</v>
+      <c r="A515" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="D515" s="3"/>
     </row>
     <row r="516" spans="1:4">
-      <c r="A516" s="9" t="s">
-        <v>494</v>
+      <c r="A516" s="2" t="s">
+        <v>515</v>
       </c>
       <c r="D516" s="3"/>
     </row>
     <row r="517" spans="1:4">
-      <c r="A517" s="19" t="s">
-        <v>495</v>
+      <c r="A517" s="2" t="s">
+        <v>516</v>
       </c>
       <c r="D517" s="3"/>
     </row>
     <row r="518" spans="1:4">
-      <c r="A518" s="5" t="s">
-        <v>496</v>
+      <c r="A518" s="2" t="s">
+        <v>517</v>
       </c>
       <c r="D518" s="3"/>
     </row>
     <row r="519" spans="1:4">
-      <c r="A519" s="5" t="s">
-        <v>497</v>
+      <c r="A519" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="D519" s="3"/>
     </row>
     <row r="520" spans="1:4">
-      <c r="A520" s="5" t="s">
-        <v>498</v>
+      <c r="A520" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="D520" s="3"/>
     </row>
     <row r="521" spans="1:4">
-      <c r="A521" s="9" t="s">
-        <v>499</v>
+      <c r="A521" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="D521" s="3"/>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="5" t="s">
-        <v>500</v>
+      <c r="A522" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D522" s="3"/>
     </row>
     <row r="523" spans="1:4">
-      <c r="A523" s="5" t="s">
-        <v>501</v>
+      <c r="A523" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D523" s="3"/>
     </row>
     <row r="524" spans="1:4">
-      <c r="A524" s="5" t="s">
-        <v>502</v>
+      <c r="A524" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D524" s="3"/>
     </row>
     <row r="525" spans="1:4">
-      <c r="A525" s="10" t="s">
-        <v>503</v>
+      <c r="A525" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="D525" s="3"/>
     </row>
     <row r="526" spans="1:4">
-      <c r="A526" s="10" t="s">
-        <v>504</v>
+      <c r="A526" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D526" s="3"/>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="10" t="s">
-        <v>505</v>
+      <c r="A527" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="D527" s="3"/>
     </row>
     <row r="528" spans="1:4">
-      <c r="A528" s="10" t="s">
-        <v>506</v>
+      <c r="A528" s="2" t="s">
+        <v>527</v>
       </c>
       <c r="D528" s="3"/>
     </row>
     <row r="529" spans="1:4">
-      <c r="A529" s="10" t="s">
-        <v>507</v>
+      <c r="A529" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D529" s="3"/>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="10" t="s">
-        <v>508</v>
+      <c r="A530" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D530" s="3"/>
     </row>
     <row r="531" spans="1:4">
-      <c r="A531" s="10" t="s">
-        <v>509</v>
+      <c r="A531" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D531" s="3"/>
     </row>
     <row r="532" spans="1:4">
-      <c r="A532" s="10" t="s">
-        <v>510</v>
+      <c r="A532" s="2" t="s">
+        <v>531</v>
       </c>
       <c r="D532" s="3"/>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="10" t="s">
-        <v>511</v>
+      <c r="A533" s="2" t="s">
+        <v>532</v>
       </c>
       <c r="D533" s="3"/>
     </row>
     <row r="534" spans="1:4">
-      <c r="A534" s="10" t="s">
-        <v>512</v>
+      <c r="A534" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="D534" s="3"/>
     </row>
     <row r="535" spans="1:4">
-      <c r="A535" s="10" t="s">
-        <v>513</v>
+      <c r="A535" s="2" t="s">
+        <v>534</v>
       </c>
       <c r="D535" s="3"/>
     </row>
     <row r="536" spans="1:4">
-      <c r="A536" s="5" t="s">
-        <v>514</v>
+      <c r="A536" s="2" t="s">
+        <v>535</v>
       </c>
       <c r="D536" s="3"/>
     </row>
     <row r="537" spans="1:4">
-      <c r="A537" s="5" t="s">
-        <v>515</v>
+      <c r="A537" s="2" t="s">
+        <v>536</v>
       </c>
       <c r="D537" s="3"/>
     </row>
     <row r="538" spans="1:4">
-      <c r="A538" s="5" t="s">
-        <v>516</v>
+      <c r="A538" s="2" t="s">
+        <v>537</v>
       </c>
       <c r="D538" s="3"/>
     </row>
     <row r="539" spans="1:4">
-      <c r="A539" s="5" t="s">
-        <v>517</v>
+      <c r="A539" s="2" t="s">
+        <v>538</v>
       </c>
       <c r="D539" s="3"/>
     </row>
     <row r="540" spans="1:4">
-      <c r="A540" s="5" t="s">
-        <v>518</v>
+      <c r="A540" s="2" t="s">
+        <v>539</v>
       </c>
       <c r="D540" s="3"/>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="10" t="s">
-        <v>519</v>
+      <c r="A541" s="2" t="s">
+        <v>540</v>
       </c>
       <c r="D541" s="3"/>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="10" t="s">
+      <c r="A542" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D542" s="3"/>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D543" s="3"/>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D544" s="3"/>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D545" s="3"/>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D546" s="3"/>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D547" s="3"/>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D548" s="3"/>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D549" s="3"/>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D550" s="3"/>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D551" s="3"/>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D552" s="3"/>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D553" s="3"/>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D554" s="3"/>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D555" s="3"/>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D556" s="3"/>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D557" s="3"/>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D558" s="3"/>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D559" s="3"/>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="D560" s="3"/>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D561" s="3"/>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D562" s="3"/>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D563" s="3"/>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D564" s="3"/>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D565" s="3"/>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D566" s="3"/>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D567" s="3"/>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D568" s="3"/>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D569" s="3"/>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D570" s="3"/>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D571" s="3"/>
+    </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D572" s="3"/>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D573" s="3"/>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D574" s="3"/>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D575" s="3"/>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="D576" s="3"/>
+    </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D577" s="3"/>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D578" s="3"/>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D579" s="3"/>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D580" s="3"/>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D581" s="3"/>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D582" s="3"/>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D542" s="3"/>
-    </row>
-    <row r="543" spans="1:4">
-      <c r="A543" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D543" s="3"/>
-    </row>
-    <row r="544" spans="1:4">
-      <c r="A544" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="D544" s="3"/>
-    </row>
-    <row r="545" spans="1:4">
-      <c r="A545" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D545" s="3"/>
-    </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="D546" s="3"/>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="A547" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D547" s="3"/>
-    </row>
-    <row r="548" spans="1:4">
-      <c r="A548" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="D548" s="3"/>
-    </row>
-    <row r="549" spans="1:4">
-      <c r="A549" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="D549" s="3"/>
-    </row>
-    <row r="550" spans="1:4">
-      <c r="A550" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D550" s="3"/>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="D551" s="3"/>
-    </row>
-    <row r="552" spans="1:4">
-      <c r="A552" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="D552" s="3"/>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="D553" s="3"/>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D554" s="3"/>
-    </row>
-    <row r="555" spans="1:4">
-      <c r="A555" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="D555" s="3"/>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D556" s="3"/>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="D557" s="3"/>
-    </row>
-    <row r="558" spans="1:4">
-      <c r="A558" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D558" s="3"/>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D559" s="3"/>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="D560" s="3"/>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D561" s="3"/>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D562" s="3"/>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="5" t="s">
-        <v>539</v>
-      </c>
-      <c r="D563" s="3"/>
-    </row>
-    <row r="564" spans="1:4">
-      <c r="A564" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D564" s="3"/>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="D565" s="3"/>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="D566" s="3"/>
-    </row>
-    <row r="567" spans="1:4">
-      <c r="A567" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D567" s="3"/>
-    </row>
-    <row r="568" spans="1:4">
-      <c r="A568" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="D568" s="3"/>
-    </row>
-    <row r="569" spans="1:4">
-      <c r="A569" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D569" s="3"/>
-    </row>
-    <row r="570" spans="1:4">
-      <c r="A570" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D570" s="3"/>
-    </row>
-    <row r="571" spans="1:4">
-      <c r="A571" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D571" s="3"/>
-    </row>
-    <row r="572" spans="1:4">
-      <c r="A572" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D572" s="3"/>
-    </row>
-    <row r="573" spans="1:4">
-      <c r="A573" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D573" s="3"/>
-    </row>
-    <row r="574" spans="1:4">
-      <c r="A574" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="D574" s="3"/>
-    </row>
-    <row r="575" spans="1:4">
-      <c r="A575" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D575" s="3"/>
-    </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D576" s="3"/>
-    </row>
-    <row r="577" spans="1:4">
-      <c r="A577" s="5" t="s">
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D577" s="3"/>
-    </row>
-    <row r="578" spans="1:4">
-      <c r="A578" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D578" s="3"/>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="D579" s="3"/>
-    </row>
-    <row r="580" spans="1:4">
-      <c r="A580" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D580" s="3"/>
-    </row>
-    <row r="581" spans="1:4">
-      <c r="A581" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="D581" s="3"/>
-    </row>
-    <row r="582" ht="24" spans="1:4">
-      <c r="A582" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="D582" s="3"/>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="2" t="s">
+        <v>584</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="588">
   <si>
     <t>Names</t>
   </si>
@@ -74,27 +74,7 @@
     <t>ABDULLAH MOHSIN PIRJADE RESULT</t>
   </si>
   <si>
-    <r>
-      <t>HIFZ CLASS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>(BAA) RESULT</t>
-    </r>
+    <t>HIFZ CLASS  (BAA) RESULT</t>
   </si>
   <si>
     <t>AAQIB IQBAL INAMDAR RESULT</t>
@@ -118,27 +98,7 @@
     <t>YAQUB NABISAB BUDHIYAL RESULT</t>
   </si>
   <si>
-    <r>
-      <t>AYAN MOHAMMAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>DIKSANGI RESULT</t>
-    </r>
+    <t>AYAN MOHAMMAD  DIKSANGI RESULT</t>
   </si>
   <si>
     <t>TAQI ADUSSAMI SHAIKH RESULT</t>
@@ -159,27 +119,7 @@
     <t>ALI ZAINUL ABIDIN MANSURI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>MOHAMMAD SAMEER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>SAYYAD RESULT</t>
-    </r>
+    <t>MOHAMMAD SAMEER  SAYYAD RESULT</t>
   </si>
   <si>
     <t>IQRA SALIM SHAIKH RESULT</t>
@@ -245,7 +185,7 @@
     <t>MIDHAT JAVED QURESHI RESULT</t>
   </si>
   <si>
-    <t>alina babu shaikh RESULT</t>
+    <t>ALINA BABU SHAIKH RESULT</t>
   </si>
   <si>
     <t>TANZILA IRFAN QURESHI RESULT</t>
@@ -311,27 +251,7 @@
     <t>KHADIJA MUBIN TAMBOLI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>BARIRA PARVEZ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>SAYYAD RESULT</t>
-    </r>
+    <t>BARIRA PARVEZ  SAYYAD RESULT</t>
   </si>
   <si>
     <t>NIDA ABDUL RAZZAK SHAIKH RESULT</t>
@@ -412,27 +332,7 @@
     <t>ALFAIZ ALIM QURESHI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>AFFAN MEHBOOB MAKANDAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>RESULT</t>
-    </r>
+    <t>AFFAN MEHBOOB MAKANDAR  RESULT</t>
   </si>
   <si>
     <t>NIHAN NIYAS HANIF RESULT</t>
@@ -471,27 +371,7 @@
     <t>SHIFA SULEMAN ANSARI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>MASEERA AZIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>MOMIN RESULT</t>
-    </r>
+    <t>MASEERA AZIM  MOMIN RESULT</t>
   </si>
   <si>
     <t>HUMERA USMAN ANSARI RESULT</t>
@@ -569,6 +449,9 @@
     <t>TAHA ISMAIL MANIYAR RESULT</t>
   </si>
   <si>
+    <t>NAWAZ ASLAM SHAIKH RESULT</t>
+  </si>
+  <si>
     <t>3RD YEAR (TAA) RESULT</t>
   </si>
   <si>
@@ -608,6 +491,9 @@
     <t>YASIR ALTAF DIKSANGI RESULT</t>
   </si>
   <si>
+    <t>PARVEZ RESULT</t>
+  </si>
+  <si>
     <t>3RD YEAR (SAA) RESULT</t>
   </si>
   <si>
@@ -641,27 +527,7 @@
     <t>ABDULLAH YUSUF QURESHI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>AYAN SADIQ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>MULANJI RESULT</t>
-    </r>
+    <t>AYAN SADIQ  MULANJI RESULT</t>
   </si>
   <si>
     <t>SAOOD EJAZ ANSARI RESULT</t>
@@ -871,6 +737,9 @@
     <t>ZIDAN SAQUIB SIDDIQUE RESULT</t>
   </si>
   <si>
+    <t>FAIZAL SHAMSHAD MANSURI RESULT</t>
+  </si>
+  <si>
     <t>2ND YEAR (SAA) RESULT</t>
   </si>
   <si>
@@ -892,27 +761,7 @@
     <t>INAYA MINHAJUDDIN SIDDIQI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>ANAYA ASIF SAYYAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>RESULT</t>
-    </r>
+    <t>ANAYA ASIF SAYYAD  RESULT</t>
   </si>
   <si>
     <t>ARWA IKHLAS MULLA RESULT</t>
@@ -960,6 +809,9 @@
     <t>ISHRAT ISMAIL QURESHI RESULT</t>
   </si>
   <si>
+    <t>AAYAT  MANSURI RESULT</t>
+  </si>
+  <si>
     <t>2ND YEAR (JEEM) RESULT</t>
   </si>
   <si>
@@ -1029,27 +881,7 @@
     <t>MAZHAR AFZAL KHAN RESULT</t>
   </si>
   <si>
-    <r>
-      <t>UMME HANI SHAHID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>QURESHI RESULT</t>
-    </r>
+    <t>UMME HANI SHAHID  QURESHI RESULT</t>
   </si>
   <si>
     <t>ANAM MUBIN KURESHI RESULT</t>
@@ -1103,27 +935,7 @@
     <t>SIDDIQ FEROZ QURESHI RESULT</t>
   </si>
   <si>
-    <r>
-      <t>MUZAMMIL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>MOHAMMAD SHAIKH RESULT</t>
-    </r>
+    <t>MUZAMMIL  MOHAMMAD SHAIKH RESULT</t>
   </si>
   <si>
     <t>ADANAN ZUBER TAMBOLI RESULT</t>
@@ -1144,27 +956,7 @@
     <t>KULSUM ASIF KHAN RESULT</t>
   </si>
   <si>
-    <r>
-      <t>IFFAT IMRAN MOMIN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>RESULT</t>
-    </r>
+    <t>IFFAT IMRAN MOMIN  RESULT</t>
   </si>
   <si>
     <t>SIMRA SAMIR SHAIKH RESULT</t>
@@ -1374,7 +1166,7 @@
     <t>AAYAT KURBAN SHAIKH RESULT</t>
   </si>
   <si>
-    <t>AALIYA NAZIR SODAGIR RESULT</t>
+    <t>ALIA NAJIR SAUDAGAR RESULT</t>
   </si>
   <si>
     <t>NOMAN ZAKIR QURESHI RESULT</t>
@@ -1452,6 +1244,9 @@
     <t>ALFIYA HUSSAIN MOHAMMAD RESULT</t>
   </si>
   <si>
+    <t>AHTASHAM USMAN TAMBOLI RESULT</t>
+  </si>
+  <si>
     <t>1ST YEAR (TAA) RESULT</t>
   </si>
   <si>
@@ -1509,27 +1304,7 @@
     <t>SARA ALTAF SAYYAD RESULT</t>
   </si>
   <si>
-    <r>
-      <t>ARISHA WASIM KHAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>RESULT</t>
-    </r>
+    <t>ARISHA WASIM KHAN  RESULT</t>
   </si>
   <si>
     <t>FAIZA TOFIQ QURESHI RESULT</t>
@@ -1541,7 +1316,7 @@
     <t>AHIL AZRUDDIN PATE RESULT</t>
   </si>
   <si>
-    <t>ASHAR JAVEDKHAN KHIKILGAR RESULT</t>
+    <t>ASHAR JAVEDKHAN SHIKALGAR RESULT</t>
   </si>
   <si>
     <t>BAHUDDIN YUSUF QURESHI RESULT</t>
@@ -1604,432 +1379,406 @@
     <t>KASHIFA JAMAL ANSARI RESULT</t>
   </si>
   <si>
+    <t>AHANA ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALIZA ZAHIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ADIBA ABID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN JAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RAHIL SUBHAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AZAM AMIR DESAI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL REHMAN KADIR KURESHI RESULT</t>
+  </si>
+  <si>
+    <t>FARIYA FARID MALIK RESULT</t>
+  </si>
+  <si>
+    <t>NOORJAHA FAIYAZ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>MARIYAM MOHD. ASHAD CHAUDHARY RESULT</t>
+  </si>
+  <si>
+    <t>ALINA MEHTAB ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AAIZA HUSSAIN MOHAMMAD RESULT</t>
+  </si>
+  <si>
+    <t>HUSSAIN LATIF MIRAJKAR RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY 2 (SAA) RESULT</t>
+  </si>
+  <si>
+    <t>ALTAMASH AMIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>DILSHAD SHAMSHAD ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>FARHAN WASIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>FAIZAN AATIF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>RAKIB KURBAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN VASIM PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>HASNAIN WAJID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD ALI KALIM SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>FIRDOSH ALAM FIROZ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ADDAS SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SABRIN MURSHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATIMA WAJID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>BARIRA AKBAR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AAIRA  IMRAN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA NASRUDDIN TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>HANIFA HUZAIFA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MAHIRA MOHSIN SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>RAYYAN HAMID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ANAS YUSUF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY (BAA) RESULT</t>
+  </si>
+  <si>
+    <t>AHAD MOHAMMAD NADIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MUSTAFA RESULT</t>
+  </si>
+  <si>
+    <t>AHIL ANWAR KURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AHMED MALIKJAN HUDALI RESULT</t>
+  </si>
+  <si>
+    <t>HASSAN KALIM SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>AHMED BABAFARID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ABDUL RAHEMAN KAMAR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SAQLAIN AARIF MEMON RESULT</t>
+  </si>
+  <si>
+    <t>DANIYAL MUZAMMIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>HUMAIRA SHOKAT INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>AAIZA ZAKIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>RAHMAN MUBIN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AATIF NOSHAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARFA SHAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>YAHYA ASLAM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZAKARIYA IRSHAD QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ARFAT YUNUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ALI YUNUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>UMAR HASAN QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>INAAYA AMIRALI MULLA RESULT</t>
+  </si>
+  <si>
+    <t>NURSERY (TAA) RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD HUSSAIN MOHARRAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ALI GAUS QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD MAAZ FAROOQ ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>AWWAB ASHRAF SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>YASEER SAMIR TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>AHMED RAZA IRSHAD QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD HASAN SALIM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ARIBAH FAROOQ VOHRA RESULT</t>
+  </si>
+  <si>
+    <t>HOORAIN MUZAMMIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>ZOBIYA AKHTAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SUFIYA WASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>MUBASHARA ZAKIR SAYYED RESULT</t>
+  </si>
+  <si>
+    <t>MARIYA KASIM PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>LATIF GULAMRASUL SHAHPURE RESULT</t>
+  </si>
+  <si>
+    <t>INAYA SAMEER QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SHAIDA SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MOHAMMAD NAWAZ RESULT</t>
+  </si>
+  <si>
     <t>AHMAD WASIM KHAN RESULT</t>
   </si>
   <si>
-    <t>AHANA ZAHIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALIZA ZAHIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ADIBA ABID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN JAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>RAHIL SUBHAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AZAM AMIR DESAI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL REHMAN KADIR KURESHI RESULT</t>
-  </si>
-  <si>
-    <t>FARIYA FARID MALIK RESULT</t>
-  </si>
-  <si>
-    <t>NOORJAHA FAIYAZ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>MARIYAM MOHD. ASHAD CHAUDHARY RESULT</t>
-  </si>
-  <si>
-    <t>ALINA MEHTAB ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AAIZA HUSSAIN MOHAMMAD RESULT</t>
-  </si>
-  <si>
-    <t>HUSSAIN LATIF MIRAJKAR RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY 2 (SAA) RESULT</t>
-  </si>
-  <si>
-    <t>ALTAMASH AMIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>DILSHAD SHAMSHAD ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>FARHAN WASIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>FAIZAN AATIF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>RAKIB KURBAN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN VASIM PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>HASNAIN WAJID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD ALI KALIM SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>FIRDOSH ALAM FIROZ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ADDAS SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SABRIN MURSHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FATIMA WAJID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>BARIRA AKBAR QURESHI RESULT</t>
-  </si>
-  <si>
-    <r>
-      <t>AAIRA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="0"/>
-      </rPr>
-      <t>IMRAN SHAIKH RESULT</t>
-    </r>
-  </si>
-  <si>
-    <t>SHIFA NASRUDDIN TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>HANIFA HUZAIFA SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MAHIRA MOHSIN SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>RAYYAN HAMID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ANAS RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY (BAA) RESULT</t>
-  </si>
-  <si>
-    <t>AHAD MOHAMMAD NADIM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MUSTAFA RESULT</t>
-  </si>
-  <si>
-    <t>AHIL ANWAR KURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AHMED MALIKJAN HUDALI RESULT</t>
-  </si>
-  <si>
-    <t>HASSAN KALIM SAYYED RESULT</t>
-  </si>
-  <si>
-    <t>AHMED BABAFARID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ABDUL RAHEMAN KAMAR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SAQLAIN AARIF MEMON RESULT</t>
-  </si>
-  <si>
-    <t>DANIYAL MUZAMMIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ANAS YUSUF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HUMAIRA SHOKAT INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>AAIZA ZAKIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>RAHMAN MUBIN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AATIF NOSHAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ARFA SHAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>YAHYA ASLAM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZAKARIYA IRSHAD QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ARFAT YUNUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ALI YUNUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>UMAR HASAN QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>INAAYA AMIRALI MULLA RESULT</t>
-  </si>
-  <si>
-    <t>NURSERY (TAA) RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HUSSAIN MOHARRAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ALI GAUS QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD MAAZ FAROOQ ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>AWWAB ASHRAF SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>YASEER SAMIR TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>AHMED RAZA IRSHAD QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD HASAN SALIM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ARIBAH FAROOQ VOHRA RESULT</t>
-  </si>
-  <si>
-    <t>HOORAIN MUZAMMIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>ZOBIYA AKHTAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SUFIYA WASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>MUBASHARA ZAKIR SAYYED RESULT</t>
-  </si>
-  <si>
-    <t>MARIYA KASIM PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>LATIF GULAMRASUL SHAHPURE RESULT</t>
-  </si>
-  <si>
-    <t>INAYA SAMEER QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SHAIDA SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MOHAMMAD NAWAZ RESULT</t>
+    <t>SHIRIN JAVED PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR RESULT</t>
+  </si>
+  <si>
+    <t>AJMERA KHATUN HURUN RASHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>IQRA RAFIQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>3RD YEAR RESULT</t>
+  </si>
+  <si>
+    <t>AQSA ZAMIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>4TH YEAR RESULT</t>
+  </si>
+  <si>
+    <t>HALIMA ABDUL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HAFIZA ABDUL SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>FATMA NIZAMUDDIN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>NAZMEEN SHABBIR PATEL RESULT</t>
+  </si>
+  <si>
+    <t>ZOYA RAFIQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>ZOBIYA KARIM QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>BUSHRA ZAMIR QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AASIYA ANWAR DIKSANGI RESULT</t>
+  </si>
+  <si>
+    <t>5TH YEAR RESULT</t>
+  </si>
+  <si>
+    <t>FIZA FEROZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>UZMA WAHID QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>SAIMA MAINUDDIN MUJAWAR RESULT</t>
+  </si>
+  <si>
+    <t>ZAIBA ISMAIL QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>AFIFA NAZIR PATHAN RESULT</t>
+  </si>
+  <si>
+    <t>ZIYA MUNFAHID ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ROZI RASHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>VANIYA MEHVISH GULAM RASUL SHAHPURE RESULT</t>
+  </si>
+  <si>
+    <t>NOOR SABA HABIB SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>1ST YEAR (M) RESULT</t>
+  </si>
+  <si>
+    <t>AYESHA NISAR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>SHANU MUSHTAQ TAMBOLI RESULT</t>
+  </si>
+  <si>
+    <t>KAHKASHA HAKIMULLAH MALIK RESULT</t>
+  </si>
+  <si>
+    <t>2ND YEAR (M) RESULT</t>
+  </si>
+  <si>
+    <t>TABSSUM NIYAZ KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SANIYA AHMAD SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>6TH YEAR RESULT</t>
+  </si>
+  <si>
+    <t>IQRA SARFARAZ QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>IFRA IRFAN ANSARI RESULT</t>
+  </si>
+  <si>
+    <t>ZUHRHA TARIQ SIDDIQI RESULT</t>
+  </si>
+  <si>
+    <t>RIZA YUNUS SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>7TH YEAR RESULT</t>
+  </si>
+  <si>
+    <t>KASHISH KALAM SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>BARIRA AYYUB INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>TAZEEN ASIF MOMIN RESULT</t>
+  </si>
+  <si>
+    <t>HUMAIRAA IQBAL INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>SHIFA SIRAJ SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>BUSHRA ISMAIL SANI RESULT</t>
+  </si>
+  <si>
+    <t>AAIRA FEROZ SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>AAISHA RIYAZ INAMDAR RESULT</t>
+  </si>
+  <si>
+    <t>ZOHA ABDUL RASHID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>ZAINAB SHOKAT QURESHI RESULT</t>
+  </si>
+  <si>
+    <t>MASEERA ANWAR SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>IFRA IRSHAD BAIG RESULT</t>
+  </si>
+  <si>
+    <t>ANAM SHAKIR SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>HEENA RAFIQ TARASGAR RESULT</t>
+  </si>
+  <si>
+    <t>AHANA TASKIR KHAN RESULT</t>
+  </si>
+  <si>
+    <t>SOFIYA WASIM KHAN RESULT</t>
+  </si>
+  <si>
+    <t>ALFIZA RASOOL SAYYAD RESULT</t>
+  </si>
+  <si>
+    <t>SHAGUFTA SAMEER MULANI RESULT</t>
+  </si>
+  <si>
+    <t>AAIMAN MUSTAK AHMED KHAN RESULT</t>
+  </si>
+  <si>
+    <t>ZOHA HAMID SHAIKH RESULT</t>
+  </si>
+  <si>
+    <t>MANNAT FAROOQ HUSAIN RESULT</t>
   </si>
   <si>
     <t>1ST YEAR RESULT</t>
-  </si>
-  <si>
-    <t>SHIRIN JAVED PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR RESULT</t>
-  </si>
-  <si>
-    <t>AJMERA KHATUN HURUN RASHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>IQRA RAFIQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>3RD YEAR RESULT</t>
-  </si>
-  <si>
-    <t>AQSA ZAMIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>4TH YEAR RESULT</t>
-  </si>
-  <si>
-    <t>HALIMA ABDUL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HAFIZA ABDUL SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>FATMA NIZAMUDDIN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>NAZMEEN SHABBIR PATEL RESULT</t>
-  </si>
-  <si>
-    <t>ZOYA RAFIQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>ZOBIYA KARIM QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>BUSHRA ZAMIR QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AASIYA ANWAR DIKSANGI RESULT</t>
-  </si>
-  <si>
-    <t>5TH YEAR RESULT</t>
-  </si>
-  <si>
-    <t>FIZA FEROZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>UZMA WAHID QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>SAIMA MAINUDDIN MUJAWAR RESULT</t>
-  </si>
-  <si>
-    <t>ZAIBA ISMAIL QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>AFIFA NAZIR PATHAN RESULT</t>
-  </si>
-  <si>
-    <t>ZIYA MUNFAHID ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ROZI RASHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>VANIYA MEHVISH GULAM RASUL SHAHPURE RESULT</t>
-  </si>
-  <si>
-    <t>NOOR SABA HABIB SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>1ST YEAR (M) RESULT</t>
-  </si>
-  <si>
-    <t>AYESHA NISAR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>SHANU MUSHTAQ TAMBOLI RESULT</t>
-  </si>
-  <si>
-    <t>KAHKASHA HAKIMULLAH MALIK RESULT</t>
-  </si>
-  <si>
-    <t>2ND YEAR (M) RESULT</t>
-  </si>
-  <si>
-    <t>TABSSUM NIYAZ KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SANIYA AHMAD SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>6TH YEAR RESULT</t>
-  </si>
-  <si>
-    <t>IQRA SARFARAZ QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>IFRA IRFAN ANSARI RESULT</t>
-  </si>
-  <si>
-    <t>ZUHRHA TARIQ SIDDIQI RESULT</t>
-  </si>
-  <si>
-    <t>RIZA YUNUS SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>7TH YEAR RESULT</t>
-  </si>
-  <si>
-    <t>KASHISH KALAM SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>3:00 TO 4:30 RESULT</t>
-  </si>
-  <si>
-    <t>BARIRA AYYUB INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>TAZEEN ASIF MOMIN RESULT</t>
-  </si>
-  <si>
-    <t>HUMAIRAA IQBAL INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>SHIFA SIRAJ SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>BUSHRA ISMAIL SANI RESULT</t>
-  </si>
-  <si>
-    <t>AAIRA FEROZ SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>AAISHA RIYAZ INAMDAR RESULT</t>
-  </si>
-  <si>
-    <t>ZOHA ABDUL RASHID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>ZAINAB SHOKAT QURESHI RESULT</t>
-  </si>
-  <si>
-    <t>MASEERA ANWAR SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>IFRA IRSHAD BAIG RESULT</t>
-  </si>
-  <si>
-    <t>ANAM SHAKIR SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>HEENA RAFIQ TARASGAR RESULT</t>
-  </si>
-  <si>
-    <t>AHANA TASKIR KHAN RESULT</t>
-  </si>
-  <si>
-    <t>SOFIYA WASIM KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ALFIZA RASOOL SAYYAD RESULT</t>
-  </si>
-  <si>
-    <t>SHAGUFTA SAMEER MULANI RESULT</t>
-  </si>
-  <si>
-    <t>AAIMAN MUSTAK AHMED KHAN RESULT</t>
-  </si>
-  <si>
-    <t>ZOHA HAMID SHAIKH RESULT</t>
-  </si>
-  <si>
-    <t>MANNAT FAROOQ HUSAIN RESULT</t>
   </si>
   <si>
     <t>SAMEERA NAIK MOHAMMAD RESULT</t>
@@ -2074,7 +1823,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3036,10 +2785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E592"/>
+  <dimension ref="A1:E594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="A584" sqref="A584"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -6941,37 +6690,37 @@
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="2" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D566" s="3"/>
     </row>
     <row r="567" spans="1:4">
       <c r="A567" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D567" s="3"/>
     </row>
     <row r="568" spans="1:4">
       <c r="A568" s="2" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D568" s="3"/>
     </row>
     <row r="569" spans="1:4">
       <c r="A569" s="2" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="D569" s="3"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D570" s="3"/>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="2" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="D571" s="3"/>
     </row>
@@ -6995,37 +6744,37 @@
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="2" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="D575" s="3"/>
     </row>
     <row r="576" spans="1:4">
       <c r="A576" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D576" s="3"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="2" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="D577" s="3"/>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="2" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="D578" s="3"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D579" s="3"/>
     </row>
     <row r="580" spans="1:4">
       <c r="A580" s="2" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="D580" s="3"/>
     </row>
@@ -7048,47 +6797,57 @@
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="2" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="2" t="s">
-        <v>580</v>
+        <v>525</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="2" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="2" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="2" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/student_list.xlsx
+++ b/student_list.xlsx
@@ -36,7 +36,7 @@
     <t>Names</t>
   </si>
   <si>
-    <t>ABUBAKAR SHAFI SHAIKH MarkSheet</t>
+    <t>ABUBAKAR SHAFI SHAIKH MARKSHEET</t>
   </si>
   <si>
     <t>ABUBAKAR SHAFI SHAIKH</t>
@@ -4966,7 +4966,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5132,13 +5132,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5561,10 +5554,10 @@
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5573,10 +5566,10 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5585,10 +5578,10 @@
     <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5597,10 +5590,10 @@
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5609,10 +5602,10 @@
     <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5621,10 +5614,10 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5996,8 +5989,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1101" workbookViewId="0">
-      <selection activeCell="A1121" sqref="A1121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
